--- a/Covid_19_Dataset_and_References/References/75.xlsx
+++ b/Covid_19_Dataset_and_References/References/75.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="129">
   <si>
     <t>Doi</t>
   </si>
@@ -442,6 +442,102 @@
   </si>
   <si>
     <t>[Jie%Zhang%NULL%0,    Zhen%Yang%NULL%1,    Xiao%Wang%NULL%1,    Juan%Li%NULL%2,    Lili%Dong%NULL%2,    Lili%Dong%NULL%0,    Fusheng%Wang%NULL%1,    Yifei%Li%NULL%1,    Ruihong%Wei%NULL%1,    Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+COVID-19 is a virus pandemic.
+ According to the first obtained data, COVID-19 has defined with findings such as cough, fever, diarrhea, and fatigue although neurological symptoms of patients with COVID-19 have not been investigated in detail.
+ This study aims to investigate the neurological findings via obtained face-to-face anamnesis and detailed neurological examination in patients with COVID-19.
+Methods
+id="Par2"&gt;Two hundred thirty-nine consecutive inpatients with COVID-19, supported with laboratory tests, were evaluated.
+ Detailed neurological examinations and evaluations of all patients were performed.
+ All evaluations and examinations were performed by two neurologists who have at least five-year experience.
+Results
+id="Par3"&gt;This study was carried out 239 patients (133 male + 106 female) with diagnosed COVID-19. Neurological findings were present in 83 of 239 patients (34.7%).
+ The most common neurological finding was a headache (27.6%).
+ D-dimer blood levels were detected to be significantly higher in patients with at least one neurological symptom than patients without the neurological symptom (p &amp;lt; 0.05).
+ IL-6 level was found to be significantly higher in patients with headache than without headache (p &amp;lt; 0.05).
+ Creatine kinase (CK) level was detected to be significantly higher in patients with muscle pain (p &amp;lt; 0.05).
+Conclusion
+id="Par4"&gt;Neurological symptoms are often seen in patients with COVID-19. Headache was the most common seen neurological symptom in this disease.
+ Dizziness, impaired consciousness, smell and gustation impairments, cerebrovascular disorders, epileptic seizures, and myalgia were detected as other findings apart from the headache.
+ It is suggested that determining these neurological symptoms prevents the diagnosis delay and helps to prohibit virus spread.
+</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,     Bilgin%Öztürk%Drbilgin@gmail.com%2,     Bilgin%Öztürk%Drbilgin@gmail.com%0,     Ali Rıza%Sonkaya%NULL%2,     Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+COVID-19 is a virus pandemic.
+ According to the first obtained data, COVID-19 has defined with findings such as cough, fever, diarrhea, and fatigue although neurological symptoms of patients with COVID-19 have not been investigated in detail.
+ This study aims to investigate the neurological findings via obtained face-to-face anamnesis and detailed neurological examination in patients with COVID-19.
+Methods
+Two hundred thirty-nine consecutive inpatients with COVID-19, supported with laboratory tests, were evaluated.
+ Detailed neurological examinations and evaluations of all patients were performed.
+ All evaluations and examinations were performed by two neurologists who have at least five-year experience.
+Results
+id="Par3"&gt;This study was carried out 239 patients (133 male + 106 female) with diagnosed COVID-19. Neurological findings were present in 83 of 239 patients (34.7%).
+ The most common neurological finding was a headache (27.6%).
+ D-dimer blood levels were detected to be significantly higher in patients with at least one neurological symptom than patients without the neurological symptom (p &amp;lt; 0.05).
+ IL-6 level was found to be significantly higher in patients with headache than without headache (p &amp;lt; 0.05).
+ Creatine kinase (CK) level was detected to be significantly higher in patients with muscle pain (p &amp;lt; 0.05).
+Conclusion
+id="Par4"&gt;Neurological symptoms are often seen in patients with COVID-19. Headache was the most common seen neurological symptom in this disease.
+ Dizziness, impaired consciousness, smell and gustation impairments, cerebrovascular disorders, epileptic seizures, and myalgia were detected as other findings apart from the headache.
+ It is suggested that determining these neurological symptoms prevents the diagnosis delay and helps to prohibit virus spread.
+</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,      Bilgin%Öztürk%Drbilgin@gmail.com%2,      Bilgin%Öztürk%Drbilgin@gmail.com%0,      Ali Rıza%Sonkaya%NULL%2,      Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+COVID-19 is a virus pandemic.
+ According to the first obtained data, COVID-19 has defined with findings such as cough, fever, diarrhea, and fatigue although neurological symptoms of patients with COVID-19 have not been investigated in detail.
+ This study aims to investigate the neurological findings via obtained face-to-face anamnesis and detailed neurological examination in patients with COVID-19.
+Methods
+Two hundred thirty-nine consecutive inpatients with COVID-19, supported with laboratory tests, were evaluated.
+ Detailed neurological examinations and evaluations of all patients were performed.
+ All evaluations and examinations were performed by two neurologists who have at least five-year experience.
+Results
+This study was carried out 239 patients (133 male + 106 female) with diagnosed COVID-19. Neurological findings were present in 83 of 239 patients (34.7%).
+ The most common neurological finding was a headache (27.6%).
+ D-dimer blood levels were detected to be significantly higher in patients with at least one neurological symptom than patients without the neurological symptom (p &amp;lt; 0.05).
+ IL-6 level was found to be significantly higher in patients with headache than without headache (p &amp;lt; 0.05).
+ Creatine kinase (CK) level was detected to be significantly higher in patients with muscle pain (p &amp;lt; 0.05).
+Conclusion
+id="Par4"&gt;Neurological symptoms are often seen in patients with COVID-19. Headache was the most common seen neurological symptom in this disease.
+ Dizziness, impaired consciousness, smell and gustation impairments, cerebrovascular disorders, epileptic seizures, and myalgia were detected as other findings apart from the headache.
+ It is suggested that determining these neurological symptoms prevents the diagnosis delay and helps to prohibit virus spread.
+</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,       Bilgin%Öztürk%Drbilgin@gmail.com%2,       Bilgin%Öztürk%Drbilgin@gmail.com%0,       Ali Rıza%Sonkaya%NULL%2,       Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+COVID-19 is a virus pandemic.
+ According to the first obtained data, COVID-19 has defined with findings such as cough, fever, diarrhea, and fatigue although neurological symptoms of patients with COVID-19 have not been investigated in detail.
+ This study aims to investigate the neurological findings via obtained face-to-face anamnesis and detailed neurological examination in patients with COVID-19.
+Methods
+Two hundred thirty-nine consecutive inpatients with COVID-19, supported with laboratory tests, were evaluated.
+ Detailed neurological examinations and evaluations of all patients were performed.
+ All evaluations and examinations were performed by two neurologists who have at least five-year experience.
+Results
+This study was carried out 239 patients (133 male + 106 female) with diagnosed COVID-19. Neurological findings were present in 83 of 239 patients (34.7%).
+ The most common neurological finding was a headache (27.6%).
+ D-dimer blood levels were detected to be significantly higher in patients with at least one neurological symptom than patients without the neurological symptom (p &amp;lt; 0.05).
+ IL-6 level was found to be significantly higher in patients with headache than without headache (p &amp;lt; 0.05).
+ Creatine kinase (CK) level was detected to be significantly higher in patients with muscle pain (p &amp;lt; 0.05).
+Conclusion
+Neurological symptoms are often seen in patients with COVID-19. Headache was the most common seen neurological symptom in this disease.
+ Dizziness, impaired consciousness, smell and gustation impairments, cerebrovascular disorders, epileptic seizures, and myalgia were detected as other findings apart from the headache.
+ It is suggested that determining these neurological symptoms prevents the diagnosis delay and helps to prohibit virus spread.
+</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,        Bilgin%Öztürk%Drbilgin@gmail.com%2,        Bilgin%Öztürk%Drbilgin@gmail.com%0,        Ali Rıza%Sonkaya%NULL%2,        Ali Rıza%Sonkaya%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -814,10 +910,10 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>

--- a/Covid_19_Dataset_and_References/References/75.xlsx
+++ b/Covid_19_Dataset_and_References/References/75.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="121">
   <si>
     <t>Doi</t>
   </si>
@@ -442,102 +442,6 @@
   </si>
   <si>
     <t>[Jie%Zhang%NULL%0,    Zhen%Yang%NULL%1,    Xiao%Wang%NULL%1,    Juan%Li%NULL%2,    Lili%Dong%NULL%2,    Lili%Dong%NULL%0,    Fusheng%Wang%NULL%1,    Yifei%Li%NULL%1,    Ruihong%Wei%NULL%1,    Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-COVID-19 is a virus pandemic.
- According to the first obtained data, COVID-19 has defined with findings such as cough, fever, diarrhea, and fatigue although neurological symptoms of patients with COVID-19 have not been investigated in detail.
- This study aims to investigate the neurological findings via obtained face-to-face anamnesis and detailed neurological examination in patients with COVID-19.
-Methods
-id="Par2"&gt;Two hundred thirty-nine consecutive inpatients with COVID-19, supported with laboratory tests, were evaluated.
- Detailed neurological examinations and evaluations of all patients were performed.
- All evaluations and examinations were performed by two neurologists who have at least five-year experience.
-Results
-id="Par3"&gt;This study was carried out 239 patients (133 male + 106 female) with diagnosed COVID-19. Neurological findings were present in 83 of 239 patients (34.7%).
- The most common neurological finding was a headache (27.6%).
- D-dimer blood levels were detected to be significantly higher in patients with at least one neurological symptom than patients without the neurological symptom (p &amp;lt; 0.05).
- IL-6 level was found to be significantly higher in patients with headache than without headache (p &amp;lt; 0.05).
- Creatine kinase (CK) level was detected to be significantly higher in patients with muscle pain (p &amp;lt; 0.05).
-Conclusion
-id="Par4"&gt;Neurological symptoms are often seen in patients with COVID-19. Headache was the most common seen neurological symptom in this disease.
- Dizziness, impaired consciousness, smell and gustation impairments, cerebrovascular disorders, epileptic seizures, and myalgia were detected as other findings apart from the headache.
- It is suggested that determining these neurological symptoms prevents the diagnosis delay and helps to prohibit virus spread.
-</t>
-  </si>
-  <si>
-    <t>[Ömer%Karadaş%NULL%1,     Bilgin%Öztürk%Drbilgin@gmail.com%2,     Bilgin%Öztürk%Drbilgin@gmail.com%0,     Ali Rıza%Sonkaya%NULL%2,     Ali Rıza%Sonkaya%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-COVID-19 is a virus pandemic.
- According to the first obtained data, COVID-19 has defined with findings such as cough, fever, diarrhea, and fatigue although neurological symptoms of patients with COVID-19 have not been investigated in detail.
- This study aims to investigate the neurological findings via obtained face-to-face anamnesis and detailed neurological examination in patients with COVID-19.
-Methods
-Two hundred thirty-nine consecutive inpatients with COVID-19, supported with laboratory tests, were evaluated.
- Detailed neurological examinations and evaluations of all patients were performed.
- All evaluations and examinations were performed by two neurologists who have at least five-year experience.
-Results
-id="Par3"&gt;This study was carried out 239 patients (133 male + 106 female) with diagnosed COVID-19. Neurological findings were present in 83 of 239 patients (34.7%).
- The most common neurological finding was a headache (27.6%).
- D-dimer blood levels were detected to be significantly higher in patients with at least one neurological symptom than patients without the neurological symptom (p &amp;lt; 0.05).
- IL-6 level was found to be significantly higher in patients with headache than without headache (p &amp;lt; 0.05).
- Creatine kinase (CK) level was detected to be significantly higher in patients with muscle pain (p &amp;lt; 0.05).
-Conclusion
-id="Par4"&gt;Neurological symptoms are often seen in patients with COVID-19. Headache was the most common seen neurological symptom in this disease.
- Dizziness, impaired consciousness, smell and gustation impairments, cerebrovascular disorders, epileptic seizures, and myalgia were detected as other findings apart from the headache.
- It is suggested that determining these neurological symptoms prevents the diagnosis delay and helps to prohibit virus spread.
-</t>
-  </si>
-  <si>
-    <t>[Ömer%Karadaş%NULL%1,      Bilgin%Öztürk%Drbilgin@gmail.com%2,      Bilgin%Öztürk%Drbilgin@gmail.com%0,      Ali Rıza%Sonkaya%NULL%2,      Ali Rıza%Sonkaya%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-COVID-19 is a virus pandemic.
- According to the first obtained data, COVID-19 has defined with findings such as cough, fever, diarrhea, and fatigue although neurological symptoms of patients with COVID-19 have not been investigated in detail.
- This study aims to investigate the neurological findings via obtained face-to-face anamnesis and detailed neurological examination in patients with COVID-19.
-Methods
-Two hundred thirty-nine consecutive inpatients with COVID-19, supported with laboratory tests, were evaluated.
- Detailed neurological examinations and evaluations of all patients were performed.
- All evaluations and examinations were performed by two neurologists who have at least five-year experience.
-Results
-This study was carried out 239 patients (133 male + 106 female) with diagnosed COVID-19. Neurological findings were present in 83 of 239 patients (34.7%).
- The most common neurological finding was a headache (27.6%).
- D-dimer blood levels were detected to be significantly higher in patients with at least one neurological symptom than patients without the neurological symptom (p &amp;lt; 0.05).
- IL-6 level was found to be significantly higher in patients with headache than without headache (p &amp;lt; 0.05).
- Creatine kinase (CK) level was detected to be significantly higher in patients with muscle pain (p &amp;lt; 0.05).
-Conclusion
-id="Par4"&gt;Neurological symptoms are often seen in patients with COVID-19. Headache was the most common seen neurological symptom in this disease.
- Dizziness, impaired consciousness, smell and gustation impairments, cerebrovascular disorders, epileptic seizures, and myalgia were detected as other findings apart from the headache.
- It is suggested that determining these neurological symptoms prevents the diagnosis delay and helps to prohibit virus spread.
-</t>
-  </si>
-  <si>
-    <t>[Ömer%Karadaş%NULL%1,       Bilgin%Öztürk%Drbilgin@gmail.com%2,       Bilgin%Öztürk%Drbilgin@gmail.com%0,       Ali Rıza%Sonkaya%NULL%2,       Ali Rıza%Sonkaya%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-COVID-19 is a virus pandemic.
- According to the first obtained data, COVID-19 has defined with findings such as cough, fever, diarrhea, and fatigue although neurological symptoms of patients with COVID-19 have not been investigated in detail.
- This study aims to investigate the neurological findings via obtained face-to-face anamnesis and detailed neurological examination in patients with COVID-19.
-Methods
-Two hundred thirty-nine consecutive inpatients with COVID-19, supported with laboratory tests, were evaluated.
- Detailed neurological examinations and evaluations of all patients were performed.
- All evaluations and examinations were performed by two neurologists who have at least five-year experience.
-Results
-This study was carried out 239 patients (133 male + 106 female) with diagnosed COVID-19. Neurological findings were present in 83 of 239 patients (34.7%).
- The most common neurological finding was a headache (27.6%).
- D-dimer blood levels were detected to be significantly higher in patients with at least one neurological symptom than patients without the neurological symptom (p &amp;lt; 0.05).
- IL-6 level was found to be significantly higher in patients with headache than without headache (p &amp;lt; 0.05).
- Creatine kinase (CK) level was detected to be significantly higher in patients with muscle pain (p &amp;lt; 0.05).
-Conclusion
-Neurological symptoms are often seen in patients with COVID-19. Headache was the most common seen neurological symptom in this disease.
- Dizziness, impaired consciousness, smell and gustation impairments, cerebrovascular disorders, epileptic seizures, and myalgia were detected as other findings apart from the headache.
- It is suggested that determining these neurological symptoms prevents the diagnosis delay and helps to prohibit virus spread.
-</t>
-  </si>
-  <si>
-    <t>[Ömer%Karadaş%NULL%1,        Bilgin%Öztürk%Drbilgin@gmail.com%2,        Bilgin%Öztürk%Drbilgin@gmail.com%0,        Ali Rıza%Sonkaya%NULL%2,        Ali Rıza%Sonkaya%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -910,10 +814,10 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>

--- a/Covid_19_Dataset_and_References/References/75.xlsx
+++ b/Covid_19_Dataset_and_References/References/75.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="139">
   <si>
     <t>Doi</t>
   </si>
@@ -442,6 +442,60 @@
   </si>
   <si>
     <t>[Jie%Zhang%NULL%0,    Zhen%Yang%NULL%1,    Xiao%Wang%NULL%1,    Juan%Li%NULL%2,    Lili%Dong%NULL%2,    Lili%Dong%NULL%0,    Fusheng%Wang%NULL%1,    Yifei%Li%NULL%1,    Ruihong%Wei%NULL%1,    Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,     Wei%Chen%NULL%0,     Saiduo%Liu%NULL%1,     Paul M.%Thompson%NULL%1,     Long Jiang%Zhang%NULL%1,     Fei%Xia%NULL%2,     Fang%Cheng%NULL%2,     Ailing%Hong%NULL%1,     Wesley%Surento%NULL%1,     Song%Luo%NULL%1,     Zhi Yuan%Sun%NULL%1,     Chang Sheng%Zhou%NULL%1,     Lingjiang%Li%NULL%1,     Xiangao%Jiang%NULL%1,     Guang Ming%Lu%NULL%1,      R.%Qi%null%1,      W.% Chen%null%1,      S.% Liu%null%1,      P. M.% Thompson%null%1,      L. J.% Zhang%null%1,      F.% Xia%null%1,      F.% Cheng%null%1,      A.% Hong%null%1,      W.% Surento%null%1,      S.% Luo%null%1,      Z. Y.% Sun%null%1,      C. S.% Zhou%null%1,      L.% Li%null%1,      X.% Jiang%null%1,      G. M. % Lu%null%1,  R.%Qi%null%1,  W.% Chen%null%1,  S.% Liu%null%1,  P. M.% Thompson%null%1,  L. J.% Zhang%null%1,  F.% Xia%null%1,  F.% Cheng%null%1,  A.% Hong%null%1,  W.% Surento%null%1,  S.% Luo%null%1,  Z. Y.% Sun%null%1,  C. S.% Zhou%null%1,  L.% Li%null%1,  X.% Jiang%null%1,  G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,     Bilgin%Öztürk%Drbilgin@gmail.com%2,     Bilgin%Öztürk%Drbilgin@gmail.com%0,     Ali Rıza%Sonkaya%NULL%2,     Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,     Mariangela%Pierantozzi%NULL%2,     Matteo%Spanetta%NULL%2,     Loredana%Sarmati%NULL%2,     Novella%Cesta%NULL%2,     Marco%Iannetta%NULL%2,     Josuel%Ora%NULL%2,     Grazia Genga%Mina%NULL%2,     Ermanno%Puxeddu%NULL%2,     Ottavia%Balbi%NULL%2,     Gabriella%Pezzuto%NULL%2,     Andrea%Magrini%NULL%2,     Paola%Rogliani%NULL%2,     Massimo%Andreoni%NULL%2,     Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,     Mariangela%Pierantozzi%NULL%0,     Matteo%Spanetta%NULL%0,     Loredana%Sarmati%NULL%0,     Novella%Cesta%NULL%0,     Marco%Iannetta%NULL%0,     Josuel%Ora%NULL%0,     Grazia Genga%Mina%NULL%0,     Ermanno%Puxeddu%NULL%0,     Ottavia%Balbi%NULL%0,     Gabriella%Pezzuto%NULL%0,     Andrea%Magrini%NULL%0,     Paola%Rogliani%NULL%0,     Massimo%Andreoni%NULL%0,     Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,     Yuchen%Zheng%NULL%1,     Jia%Shi%NULL%1,     Jijun%Wang%NULL%1,     Guanjun%Li%NULL%1,     Chunbo%Li%NULL%1,     John A.%Fromson%NULL%1,     Yong%Xu%NULL%1,     Xiaohua%Liu%NULL%1,     Hua%Xu%NULL%1,     Tianhong%Zhang%NULL%1,     Yunfei%Lu%NULL%1,     Xiaorong%Chen%NULL%1,     Hao%Hu%NULL%1,     Yingying%Tang%NULL%1,     Shuwen%Yang%NULL%1,     Han%Zhou%NULL%1,     Xiaoliang%Wang%NULL%1,     Haiying%Chen%NULL%1,     Zhen%Wang%NULL%1,     Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ X.%Kong%null%1,      K.% Zheng%null%1,      M.% Tang%null%1,      F.% Kong%null%1,      J.% Zhou%null%1,      L.% Diao%null%1,      S.% Wu%null%1,      P.% Jiao%null%1,      T.% Su%null%1,      Y. % Dong%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,     Guido%Mascialino%NULL%2,     Guido%Mascialino%NULL%0,     Lila%Adana‐Díaz%NULL%2,     Lila%Adana‐Díaz%NULL%0,     Alberto%Rodríguez‐Lorenzana%NULL%2,     Alberto%Rodríguez‐Lorenzana%NULL%0,     Katherine%Simbaña‐Rivera%NULL%2,     Katherine%Simbaña‐Rivera%NULL%0,     Lenin%Gómez‐Barreno%NULL%2,     Lenin%Gómez‐Barreno%NULL%0,     Maritza%Troya%NULL%2,     Maritza%Troya%NULL%0,     María Ignacia%Páez%NULL%2,     María Ignacia%Páez%NULL%0,     Javier%Cárdenas%NULL%2,     Javier%Cárdenas%NULL%0,     Rebekka M%Gerstner%NULL%2,     Rebekka M%Gerstner%NULL%0,     Esteban%Ortiz‐Prado%NULL%2,     Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,     Huipeng%Lu%NULL%1,     Haiping%Zeng%NULL%1,     Shining%Zhang%NULL%1,     Qifeng%Du%NULL%1,     Tingyun%Jiang%NULL%1,     Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,     Li-Yun%Zhu%NULL%2,     Yu-Fen%Ma%NULL%1,     Hai-Xin%Bo%NULL%2,     Hai-Bo%Deng%NULL%1,     Jing%Cao%NULL%2,     Ying%Wang%NULL%2,     Xiao-Jie%Wang%NULL%1,     Yuan%Xu%NULL%1,     Qiao-Dan%Lu%NULL%1,     Hui%Wang%NULL%1,     Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,     Yingying%Chen%NULL%1,     Yixiong%Zheng%NULL%1,     Ciping%You%NULL%1,     Jing%Tan%NULL%1,     Lan%Hu%NULL%1,     Zhenqing%Zhang%NULL%1,     Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,     Wen%Li%NULL%1,     Hai-Bao%Deng%NULL%1,     Lei%Wang%NULL%0,     Ying%Wang%NULL%0,     Pei-Hong%Wang%NULL%1,     Hai-Xin%Bo%NULL%0,     Jing%Cao%NULL%0,     Yu%Wang%NULL%1,     Li-Yun%Zhu%NULL%0,     Yuan%Yang%NULL%1,     Teris%Cheung%NULL%1,     Chee H.%Ng%NULL%1,     Xinjuan%Wu%wuxinjuan@sina.com%1,     Yu-Tao%Xiang%xyutly@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,     Zhen%Yang%NULL%0,     Xiao%Wang%NULL%1,     Juan%Li%NULL%2,     Lili%Dong%NULL%2,     Lili%Dong%NULL%0,     Fusheng%Wang%NULL%1,     Yifei%Li%NULL%1,     Ruihong%Wei%NULL%1,     Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
   </si>
 </sst>
 </file>
@@ -776,6 +830,9 @@
       <c r="H1" t="s">
         <v>28</v>
       </c>
+      <c r="I1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -791,16 +848,19 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="H2" t="s">
         <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +877,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -827,6 +887,9 @@
       </c>
       <c r="H3" t="s">
         <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +906,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -853,6 +916,9 @@
       </c>
       <c r="H4" t="s">
         <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="5">
@@ -869,7 +935,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -879,6 +945,9 @@
       </c>
       <c r="H5" t="s">
         <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="6">
@@ -895,7 +964,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -905,6 +974,9 @@
       </c>
       <c r="H6" t="s">
         <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="7">
@@ -921,16 +993,19 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
         <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="8">
@@ -950,13 +1025,16 @@
         <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
         <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -973,7 +1051,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -983,6 +1061,9 @@
       </c>
       <c r="H9" t="s">
         <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10">
@@ -999,7 +1080,7 @@
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1009,6 +1090,9 @@
       </c>
       <c r="H10" t="s">
         <v>63</v>
+      </c>
+      <c r="I10" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -1025,7 +1109,7 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
         <v>67</v>
@@ -1035,6 +1119,9 @@
       </c>
       <c r="H11" t="s">
         <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12">
@@ -1051,7 +1138,7 @@
         <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1061,6 +1148,9 @@
       </c>
       <c r="H12" t="s">
         <v>73</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1167,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1087,6 +1177,9 @@
       </c>
       <c r="H13" t="s">
         <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="14">
@@ -1103,7 +1196,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1113,6 +1206,9 @@
       </c>
       <c r="H14" t="s">
         <v>83</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="15">
@@ -1140,6 +1236,9 @@
       <c r="H15" t="s">
         <v>54</v>
       </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
@@ -1165,6 +1264,9 @@
       </c>
       <c r="H16" t="s">
         <v>54</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/75.xlsx
+++ b/Covid_19_Dataset_and_References/References/75.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="175">
   <si>
     <t>Doi</t>
   </si>
@@ -496,6 +496,114 @@
   </si>
   <si>
     <t>[Jie%Zhang%NULL%0,     Zhen%Yang%NULL%0,     Xiao%Wang%NULL%1,     Juan%Li%NULL%2,     Lili%Dong%NULL%2,     Lili%Dong%NULL%0,     Fusheng%Wang%NULL%1,     Yifei%Li%NULL%1,     Ruihong%Wei%NULL%1,     Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,      Wei%Chen%NULL%0,      Saiduo%Liu%NULL%1,      Paul M.%Thompson%NULL%1,      Long Jiang%Zhang%NULL%1,      Fei%Xia%NULL%2,      Fang%Cheng%NULL%2,      Ailing%Hong%NULL%1,      Wesley%Surento%NULL%1,      Song%Luo%NULL%1,      Zhi Yuan%Sun%NULL%1,      Chang Sheng%Zhou%NULL%1,      Lingjiang%Li%NULL%1,      Xiangao%Jiang%NULL%1,      Guang Ming%Lu%NULL%1,       R.%Qi%null%1,       W.% Chen%null%1,       S.% Liu%null%1,       P. M.% Thompson%null%1,       L. J.% Zhang%null%1,       F.% Xia%null%1,       F.% Cheng%null%1,       A.% Hong%null%1,       W.% Surento%null%1,       S.% Luo%null%1,       Z. Y.% Sun%null%1,       C. S.% Zhou%null%1,       L.% Li%null%1,       X.% Jiang%null%1,       G. M. % Lu%null%1,   R.%Qi%null%1,   W.% Chen%null%1,   S.% Liu%null%1,   P. M.% Thompson%null%1,   L. J.% Zhang%null%1,   F.% Xia%null%1,   F.% Cheng%null%1,   A.% Hong%null%1,   W.% Surento%null%1,   S.% Luo%null%1,   Z. Y.% Sun%null%1,   C. S.% Zhou%null%1,   L.% Li%null%1,   X.% Jiang%null%1,   G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,      Bilgin%Öztürk%Drbilgin@gmail.com%2,      Bilgin%Öztürk%Drbilgin@gmail.com%0,      Ali Rıza%Sonkaya%NULL%2,      Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,      Mariangela%Pierantozzi%NULL%2,      Matteo%Spanetta%NULL%2,      Loredana%Sarmati%NULL%2,      Novella%Cesta%NULL%2,      Marco%Iannetta%NULL%2,      Josuel%Ora%NULL%2,      Grazia Genga%Mina%NULL%2,      Ermanno%Puxeddu%NULL%2,      Ottavia%Balbi%NULL%2,      Gabriella%Pezzuto%NULL%2,      Andrea%Magrini%NULL%2,      Paola%Rogliani%NULL%2,      Massimo%Andreoni%NULL%2,      Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,      Mariangela%Pierantozzi%NULL%0,      Matteo%Spanetta%NULL%0,      Loredana%Sarmati%NULL%0,      Novella%Cesta%NULL%0,      Marco%Iannetta%NULL%0,      Josuel%Ora%NULL%0,      Grazia Genga%Mina%NULL%0,      Ermanno%Puxeddu%NULL%0,      Ottavia%Balbi%NULL%0,      Gabriella%Pezzuto%NULL%0,      Andrea%Magrini%NULL%0,      Paola%Rogliani%NULL%0,      Massimo%Andreoni%NULL%0,      Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,      Yuchen%Zheng%NULL%1,      Jia%Shi%NULL%1,      Jijun%Wang%NULL%1,      Guanjun%Li%NULL%1,      Chunbo%Li%NULL%1,      John A.%Fromson%NULL%1,      Yong%Xu%NULL%1,      Xiaohua%Liu%NULL%1,      Hua%Xu%NULL%1,      Tianhong%Zhang%NULL%1,      Yunfei%Lu%NULL%0,      Xiaorong%Chen%NULL%1,      Hao%Hu%NULL%1,      Yingying%Tang%NULL%1,      Shuwen%Yang%NULL%1,      Han%Zhou%NULL%1,      Xiaoliang%Wang%NULL%1,      Haiying%Chen%NULL%1,      Zhen%Wang%NULL%1,      Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ X.%Kong%null%1,       K.% Zheng%null%1,       M.% Tang%null%1,       F.% Kong%null%1,       J.% Zhou%null%1,       L.% Diao%null%1,       S.% Wu%null%1,       P.% Jiao%null%1,       T.% Su%null%1,       Y. % Dong%null%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,      Guido%Mascialino%NULL%2,      Guido%Mascialino%NULL%0,      Lila%Adana‐Díaz%NULL%2,      Lila%Adana‐Díaz%NULL%0,      Alberto%Rodríguez‐Lorenzana%NULL%2,      Alberto%Rodríguez‐Lorenzana%NULL%0,      Katherine%Simbaña‐Rivera%NULL%2,      Katherine%Simbaña‐Rivera%NULL%0,      Lenin%Gómez‐Barreno%NULL%2,      Lenin%Gómez‐Barreno%NULL%0,      Maritza%Troya%NULL%2,      Maritza%Troya%NULL%0,      María Ignacia%Páez%NULL%2,      María Ignacia%Páez%NULL%0,      Javier%Cárdenas%NULL%2,      Javier%Cárdenas%NULL%0,      Rebekka M%Gerstner%NULL%2,      Rebekka M%Gerstner%NULL%0,      Esteban%Ortiz‐Prado%NULL%2,      Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,      Huipeng%Lu%NULL%1,      Haiping%Zeng%NULL%1,      Shining%Zhang%NULL%1,      Qifeng%Du%NULL%1,      Tingyun%Jiang%NULL%1,      Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,      Li-Yun%Zhu%NULL%2,      Yu-Fen%Ma%NULL%1,      Hai-Xin%Bo%NULL%2,      Hai-Bo%Deng%NULL%1,      Jing%Cao%NULL%2,      Ying%Wang%NULL%0,      Xiao-Jie%Wang%NULL%1,      Yuan%Xu%NULL%1,      Qiao-Dan%Lu%NULL%1,      Hui%Wang%NULL%1,      Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,      Yingying%Chen%NULL%1,      Yixiong%Zheng%NULL%1,      Ciping%You%NULL%1,      Jing%Tan%NULL%1,      Lan%Hu%NULL%1,      Zhenqing%Zhang%NULL%1,      Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,      Wen%Li%NULL%1,      Hai-Bao%Deng%NULL%1,      Lei%Wang%NULL%0,      Ying%Wang%NULL%0,      Pei-Hong%Wang%NULL%1,      Hai-Xin%Bo%NULL%0,      Jing%Cao%NULL%0,      Yu%Wang%NULL%1,      Li-Yun%Zhu%NULL%0,      Yuan%Yang%NULL%0,      Teris%Cheung%NULL%1,      Chee H.%Ng%NULL%1,      Xinjuan%Wu%wuxinjuan@sina.com%1,      Yu-Tao%Xiang%xyutly@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,      Zhen%Yang%NULL%0,      Xiao%Wang%NULL%1,      Juan%Li%NULL%2,      Lili%Dong%NULL%2,      Lili%Dong%NULL%0,      Fusheng%Wang%NULL%1,      Yifei%Li%NULL%1,      Ruihong%Wei%NULL%1,      Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,       Wei%Chen%NULL%0,       Saiduo%Liu%NULL%1,       Paul M.%Thompson%NULL%1,       Long Jiang%Zhang%NULL%1,       Fei%Xia%NULL%2,       Fang%Cheng%NULL%2,       Ailing%Hong%NULL%1,       Wesley%Surento%NULL%1,       Song%Luo%NULL%1,       Zhi Yuan%Sun%NULL%1,       Chang Sheng%Zhou%NULL%1,       Lingjiang%Li%NULL%1,       Xiangao%Jiang%NULL%1,       Guang Ming%Lu%NULL%1,        R.%Qi%null%1,        W.% Chen%null%1,        S.% Liu%null%1,        P. M.% Thompson%null%1,        L. J.% Zhang%null%1,        F.% Xia%null%1,        F.% Cheng%null%1,        A.% Hong%null%1,        W.% Surento%null%1,        S.% Luo%null%1,        Z. Y.% Sun%null%1,        C. S.% Zhou%null%1,        L.% Li%null%1,        X.% Jiang%null%1,        G. M. % Lu%null%1,    R.%Qi%null%1,    W.% Chen%null%1,    S.% Liu%null%1,    P. M.% Thompson%null%1,    L. J.% Zhang%null%1,    F.% Xia%null%1,    F.% Cheng%null%1,    A.% Hong%null%1,    W.% Surento%null%1,    S.% Luo%null%1,    Z. Y.% Sun%null%1,    C. S.% Zhou%null%1,    L.% Li%null%1,    X.% Jiang%null%1,    G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,       Bilgin%Öztürk%Drbilgin@gmail.com%2,       Bilgin%Öztürk%Drbilgin@gmail.com%0,       Ali Rıza%Sonkaya%NULL%2,       Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,       Mariangela%Pierantozzi%NULL%2,       Matteo%Spanetta%NULL%2,       Loredana%Sarmati%NULL%2,       Novella%Cesta%NULL%2,       Marco%Iannetta%NULL%2,       Josuel%Ora%NULL%2,       Grazia Genga%Mina%NULL%2,       Ermanno%Puxeddu%NULL%2,       Ottavia%Balbi%NULL%2,       Gabriella%Pezzuto%NULL%2,       Andrea%Magrini%NULL%2,       Paola%Rogliani%NULL%2,       Massimo%Andreoni%NULL%2,       Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,       Mariangela%Pierantozzi%NULL%0,       Matteo%Spanetta%NULL%0,       Loredana%Sarmati%NULL%0,       Novella%Cesta%NULL%0,       Marco%Iannetta%NULL%0,       Josuel%Ora%NULL%0,       Grazia Genga%Mina%NULL%0,       Ermanno%Puxeddu%NULL%0,       Ottavia%Balbi%NULL%0,       Gabriella%Pezzuto%NULL%0,       Andrea%Magrini%NULL%0,       Paola%Rogliani%NULL%0,       Massimo%Andreoni%NULL%0,       Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,       Yuchen%Zheng%NULL%1,       Jia%Shi%NULL%1,       Jijun%Wang%NULL%1,       Guanjun%Li%NULL%1,       Chunbo%Li%NULL%1,       John A.%Fromson%NULL%1,       Yong%Xu%NULL%1,       Xiaohua%Liu%NULL%1,       Hua%Xu%NULL%1,       Tianhong%Zhang%NULL%1,       Yunfei%Lu%NULL%0,       Xiaorong%Chen%NULL%1,       Hao%Hu%NULL%1,       Yingying%Tang%NULL%1,       Shuwen%Yang%NULL%1,       Han%Zhou%NULL%1,       Xiaoliang%Wang%NULL%1,       Haiying%Chen%NULL%1,       Zhen%Wang%NULL%1,       Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ X.%Kong%null%1,        K.% Zheng%null%1,        M.% Tang%null%1,        F.% Kong%null%1,        J.% Zhou%null%1,        L.% Diao%null%1,        S.% Wu%null%1,        P.% Jiao%null%1,        T.% Su%null%1,        Y. % Dong%null%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,       Guido%Mascialino%NULL%2,       Guido%Mascialino%NULL%0,       Lila%Adana‐Díaz%NULL%2,       Lila%Adana‐Díaz%NULL%0,       Alberto%Rodríguez‐Lorenzana%NULL%2,       Alberto%Rodríguez‐Lorenzana%NULL%0,       Katherine%Simbaña‐Rivera%NULL%2,       Katherine%Simbaña‐Rivera%NULL%0,       Lenin%Gómez‐Barreno%NULL%2,       Lenin%Gómez‐Barreno%NULL%0,       Maritza%Troya%NULL%2,       Maritza%Troya%NULL%0,       María Ignacia%Páez%NULL%2,       María Ignacia%Páez%NULL%0,       Javier%Cárdenas%NULL%2,       Javier%Cárdenas%NULL%0,       Rebekka M%Gerstner%NULL%2,       Rebekka M%Gerstner%NULL%0,       Esteban%Ortiz‐Prado%NULL%2,       Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,       Huipeng%Lu%NULL%1,       Haiping%Zeng%NULL%1,       Shining%Zhang%NULL%1,       Qifeng%Du%NULL%1,       Tingyun%Jiang%NULL%1,       Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,       Li-Yun%Zhu%NULL%2,       Yu-Fen%Ma%NULL%1,       Hai-Xin%Bo%NULL%2,       Hai-Bo%Deng%NULL%1,       Jing%Cao%NULL%2,       Ying%Wang%NULL%0,       Xiao-Jie%Wang%NULL%1,       Yuan%Xu%NULL%1,       Qiao-Dan%Lu%NULL%1,       Hui%Wang%NULL%1,       Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,       Yingying%Chen%NULL%1,       Yixiong%Zheng%NULL%1,       Ciping%You%NULL%1,       Jing%Tan%NULL%1,       Lan%Hu%NULL%1,       Zhenqing%Zhang%NULL%1,       Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,       Wen%Li%NULL%1,       Hai-Bao%Deng%NULL%1,       Lei%Wang%NULL%0,       Ying%Wang%NULL%0,       Pei-Hong%Wang%NULL%1,       Hai-Xin%Bo%NULL%0,       Jing%Cao%NULL%0,       Yu%Wang%NULL%1,       Li-Yun%Zhu%NULL%0,       Yuan%Yang%NULL%0,       Teris%Cheung%NULL%1,       Chee H.%Ng%NULL%1,       Xinjuan%Wu%wuxinjuan@sina.com%1,       Yu-Tao%Xiang%xyutly@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,       Zhen%Yang%NULL%0,       Xiao%Wang%NULL%1,       Juan%Li%NULL%2,       Lili%Dong%NULL%2,       Lili%Dong%NULL%0,       Fusheng%Wang%NULL%1,       Yifei%Li%NULL%1,       Ruihong%Wei%NULL%1,       Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,        Wei%Chen%NULL%0,        Saiduo%Liu%NULL%1,        Paul M.%Thompson%NULL%1,        Long Jiang%Zhang%NULL%1,        Fei%Xia%NULL%2,        Fang%Cheng%NULL%2,        Ailing%Hong%NULL%1,        Wesley%Surento%NULL%1,        Song%Luo%NULL%1,        Zhi Yuan%Sun%NULL%1,        Chang Sheng%Zhou%NULL%1,        Lingjiang%Li%NULL%1,        Xiangao%Jiang%NULL%1,        Guang Ming%Lu%NULL%1,         R.%Qi%null%1,         W.% Chen%null%1,         S.% Liu%null%1,         P. M.% Thompson%null%1,         L. J.% Zhang%null%1,         F.% Xia%null%1,         F.% Cheng%null%1,         A.% Hong%null%1,         W.% Surento%null%1,         S.% Luo%null%1,         Z. Y.% Sun%null%1,         C. S.% Zhou%null%1,         L.% Li%null%1,         X.% Jiang%null%1,         G. M. % Lu%null%1,     R.%Qi%null%1,     W.% Chen%null%1,     S.% Liu%null%1,     P. M.% Thompson%null%1,     L. J.% Zhang%null%1,     F.% Xia%null%1,     F.% Cheng%null%1,     A.% Hong%null%1,     W.% Surento%null%1,     S.% Luo%null%1,     Z. Y.% Sun%null%1,     C. S.% Zhou%null%1,     L.% Li%null%1,     X.% Jiang%null%1,     G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,        Bilgin%Öztürk%Drbilgin@gmail.com%2,        Bilgin%Öztürk%Drbilgin@gmail.com%0,        Ali Rıza%Sonkaya%NULL%2,        Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,        Mariangela%Pierantozzi%NULL%2,        Matteo%Spanetta%NULL%2,        Loredana%Sarmati%NULL%2,        Novella%Cesta%NULL%2,        Marco%Iannetta%NULL%2,        Josuel%Ora%NULL%2,        Grazia Genga%Mina%NULL%2,        Ermanno%Puxeddu%NULL%2,        Ottavia%Balbi%NULL%2,        Gabriella%Pezzuto%NULL%2,        Andrea%Magrini%NULL%2,        Paola%Rogliani%NULL%2,        Massimo%Andreoni%NULL%2,        Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,        Mariangela%Pierantozzi%NULL%0,        Matteo%Spanetta%NULL%0,        Loredana%Sarmati%NULL%0,        Novella%Cesta%NULL%0,        Marco%Iannetta%NULL%0,        Josuel%Ora%NULL%0,        Grazia Genga%Mina%NULL%0,        Ermanno%Puxeddu%NULL%0,        Ottavia%Balbi%NULL%0,        Gabriella%Pezzuto%NULL%0,        Andrea%Magrini%NULL%0,        Paola%Rogliani%NULL%0,        Massimo%Andreoni%NULL%0,        Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,        Yuchen%Zheng%NULL%1,        Jia%Shi%NULL%1,        Jijun%Wang%NULL%1,        Guanjun%Li%NULL%1,        Chunbo%Li%NULL%1,        John A.%Fromson%NULL%1,        Yong%Xu%NULL%1,        Xiaohua%Liu%NULL%1,        Hua%Xu%NULL%1,        Tianhong%Zhang%NULL%1,        Yunfei%Lu%NULL%0,        Xiaorong%Chen%NULL%1,        Hao%Hu%NULL%1,        Yingying%Tang%NULL%1,        Shuwen%Yang%NULL%1,        Han%Zhou%NULL%1,        Xiaoliang%Wang%NULL%1,        Haiying%Chen%NULL%1,        Zhen%Wang%NULL%1,        Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ X.%Kong%null%1,         K.% Zheng%null%1,         M.% Tang%null%1,         F.% Kong%null%1,         J.% Zhou%null%1,         L.% Diao%null%1,         S.% Wu%null%1,         P.% Jiao%null%1,         T.% Su%null%1,         Y. % Dong%null%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,        Guido%Mascialino%NULL%2,        Guido%Mascialino%NULL%0,        Lila%Adana‐Díaz%NULL%2,        Lila%Adana‐Díaz%NULL%0,        Alberto%Rodríguez‐Lorenzana%NULL%2,        Alberto%Rodríguez‐Lorenzana%NULL%0,        Katherine%Simbaña‐Rivera%NULL%2,        Katherine%Simbaña‐Rivera%NULL%0,        Lenin%Gómez‐Barreno%NULL%2,        Lenin%Gómez‐Barreno%NULL%0,        Maritza%Troya%NULL%2,        Maritza%Troya%NULL%0,        María Ignacia%Páez%NULL%2,        María Ignacia%Páez%NULL%0,        Javier%Cárdenas%NULL%2,        Javier%Cárdenas%NULL%0,        Rebekka M%Gerstner%NULL%2,        Rebekka M%Gerstner%NULL%0,        Esteban%Ortiz‐Prado%NULL%2,        Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,        Huipeng%Lu%NULL%1,        Haiping%Zeng%NULL%1,        Shining%Zhang%NULL%1,        Qifeng%Du%NULL%1,        Tingyun%Jiang%NULL%1,        Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,        Li-Yun%Zhu%NULL%2,        Yu-Fen%Ma%NULL%1,        Hai-Xin%Bo%NULL%2,        Hai-Bo%Deng%NULL%1,        Jing%Cao%NULL%2,        Ying%Wang%NULL%0,        Xiao-Jie%Wang%NULL%1,        Yuan%Xu%NULL%1,        Qiao-Dan%Lu%NULL%1,        Hui%Wang%NULL%1,        Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,        Yingying%Chen%NULL%1,        Yixiong%Zheng%NULL%1,        Ciping%You%NULL%1,        Jing%Tan%NULL%1,        Lan%Hu%NULL%1,        Zhenqing%Zhang%NULL%1,        Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,        Wen%Li%NULL%1,        Hai-Bao%Deng%NULL%1,        Lei%Wang%NULL%0,        Ying%Wang%NULL%0,        Pei-Hong%Wang%NULL%1,        Hai-Xin%Bo%NULL%0,        Jing%Cao%NULL%0,        Yu%Wang%NULL%1,        Li-Yun%Zhu%NULL%0,        Yuan%Yang%NULL%0,        Teris%Cheung%NULL%1,        Chee H.%Ng%NULL%1,        Xinjuan%Wu%wuxinjuan@sina.com%1,        Yu-Tao%Xiang%xyutly@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,        Zhen%Yang%NULL%0,        Xiao%Wang%NULL%1,        Juan%Li%NULL%2,        Lili%Dong%NULL%2,        Lili%Dong%NULL%0,        Fusheng%Wang%NULL%1,        Yifei%Li%NULL%1,        Ruihong%Wei%NULL%1,        Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
   </si>
 </sst>
 </file>
@@ -848,7 +956,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -877,7 +985,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -906,7 +1014,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -935,7 +1043,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -964,7 +1072,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -993,7 +1101,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -1025,10 +1133,10 @@
         <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s">
         <v>54</v>
@@ -1051,7 +1159,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1080,7 +1188,7 @@
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1109,7 +1217,7 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="F11" t="s">
         <v>67</v>
@@ -1138,7 +1246,7 @@
         <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1167,7 +1275,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1196,7 +1304,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>

--- a/Covid_19_Dataset_and_References/References/75.xlsx
+++ b/Covid_19_Dataset_and_References/References/75.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="204">
   <si>
     <t>Doi</t>
   </si>
@@ -604,6 +604,93 @@
   </si>
   <si>
     <t>[Jie%Zhang%NULL%0,        Zhen%Yang%NULL%0,        Xiao%Wang%NULL%1,        Juan%Li%NULL%2,        Lili%Dong%NULL%2,        Lili%Dong%NULL%0,        Fusheng%Wang%NULL%1,        Yifei%Li%NULL%1,        Ruihong%Wei%NULL%1,        Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,         Wei%Chen%NULL%0,         Saiduo%Liu%NULL%0,         Paul M.%Thompson%NULL%0,         Long Jiang%Zhang%NULL%0,         Fei%Xia%NULL%0,         Fang%Cheng%NULL%0,         Ailing%Hong%NULL%0,         Wesley%Surento%NULL%0,         Song%Luo%NULL%0,         Zhi Yuan%Sun%NULL%0,         Chang Sheng%Zhou%NULL%0,         Lingjiang%Li%NULL%0,         Xiangao%Jiang%NULL%0,         Guang Ming%Lu%NULL%0,          R.%Qi%null%0,          W.% Chen%null%0,          S.% Liu%null%0,          P. M.% Thompson%null%0,          L. J.% Zhang%null%0,          F.% Xia%null%0,          F.% Cheng%null%0,          A.% Hong%null%0,          W.% Surento%null%0,          S.% Luo%null%0,          Z. Y.% Sun%null%0,          C. S.% Zhou%null%0,          L.% Li%null%0,          X.% Jiang%null%0,          G. M. % Lu%null%0,      R.%Qi%null%1,      W.% Chen%null%1,      S.% Liu%null%1,      P. M.% Thompson%null%1,      L. J.% Zhang%null%1,      F.% Xia%null%1,      F.% Cheng%null%1,      A.% Hong%null%1,      W.% Surento%null%1,      S.% Luo%null%1,      Z. Y.% Sun%null%1,      C. S.% Zhou%null%1,      L.% Li%null%1,      X.% Jiang%null%1,      G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,         Bilgin%Öztürk%Drbilgin@gmail.com%2,         Bilgin%Öztürk%Drbilgin@gmail.com%0,         Ali Rıza%Sonkaya%NULL%2,         Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,         Mariangela%Pierantozzi%NULL%2,         Matteo%Spanetta%NULL%2,         Loredana%Sarmati%NULL%2,         Novella%Cesta%NULL%2,         Marco%Iannetta%NULL%2,         Josuel%Ora%NULL%2,         Grazia Genga%Mina%NULL%2,         Ermanno%Puxeddu%NULL%2,         Ottavia%Balbi%NULL%2,         Gabriella%Pezzuto%NULL%2,         Andrea%Magrini%NULL%2,         Paola%Rogliani%NULL%2,         Massimo%Andreoni%NULL%2,         Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,         Mariangela%Pierantozzi%NULL%0,         Matteo%Spanetta%NULL%0,         Loredana%Sarmati%NULL%0,         Novella%Cesta%NULL%0,         Marco%Iannetta%NULL%0,         Josuel%Ora%NULL%0,         Grazia Genga%Mina%NULL%0,         Ermanno%Puxeddu%NULL%0,         Ottavia%Balbi%NULL%0,         Gabriella%Pezzuto%NULL%0,         Andrea%Magrini%NULL%0,         Paola%Rogliani%NULL%0,         Massimo%Andreoni%NULL%0,         Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,         Yuchen%Zheng%NULL%1,         Jia%Shi%NULL%1,         Jijun%Wang%NULL%1,         Guanjun%Li%NULL%1,         Chunbo%Li%NULL%1,         John A.%Fromson%NULL%1,         Yong%Xu%NULL%1,         Xiaohua%Liu%NULL%1,         Hua%Xu%NULL%1,         Tianhong%Zhang%NULL%1,         Yunfei%Lu%NULL%0,         Xiaorong%Chen%NULL%1,         Hao%Hu%NULL%1,         Yingying%Tang%NULL%1,         Shuwen%Yang%NULL%1,         Han%Zhou%NULL%1,         Xiaoliang%Wang%NULL%1,         Haiying%Chen%NULL%1,         Zhen%Wang%NULL%1,         Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ X.%Kong%null%1,          K.% Zheng%null%1,          M.% Tang%null%1,          F.% Kong%null%1,          J.% Zhou%null%1,          L.% Diao%null%1,          S.% Wu%null%1,          P.% Jiao%null%1,          T.% Su%null%1,          Y. % Dong%null%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,         Guido%Mascialino%NULL%2,         Guido%Mascialino%NULL%0,         Lila%Adana‐Díaz%NULL%2,         Lila%Adana‐Díaz%NULL%0,         Alberto%Rodríguez‐Lorenzana%NULL%2,         Alberto%Rodríguez‐Lorenzana%NULL%0,         Katherine%Simbaña‐Rivera%NULL%2,         Katherine%Simbaña‐Rivera%NULL%0,         Lenin%Gómez‐Barreno%NULL%2,         Lenin%Gómez‐Barreno%NULL%0,         Maritza%Troya%NULL%2,         Maritza%Troya%NULL%0,         María Ignacia%Páez%NULL%2,         María Ignacia%Páez%NULL%0,         Javier%Cárdenas%NULL%2,         Javier%Cárdenas%NULL%0,         Rebekka M%Gerstner%NULL%2,         Rebekka M%Gerstner%NULL%0,         Esteban%Ortiz‐Prado%NULL%2,         Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,         Huipeng%Lu%NULL%1,         Haiping%Zeng%NULL%1,         Shining%Zhang%NULL%1,         Qifeng%Du%NULL%1,         Tingyun%Jiang%NULL%1,         Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,         Li-Yun%Zhu%NULL%2,         Yu-Fen%Ma%NULL%1,         Hai-Xin%Bo%NULL%2,         Hai-Bo%Deng%NULL%1,         Jing%Cao%NULL%2,         Ying%Wang%NULL%0,         Xiao-Jie%Wang%NULL%1,         Yuan%Xu%NULL%1,         Qiao-Dan%Lu%NULL%1,         Hui%Wang%NULL%1,         Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,         Yingying%Chen%NULL%1,         Yixiong%Zheng%NULL%1,         Ciping%You%NULL%1,         Jing%Tan%NULL%1,         Lan%Hu%NULL%1,         Zhenqing%Zhang%NULL%1,         Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,         Wen%Li%NULL%0,         Hai-Bao%Deng%NULL%1,         Lei%Wang%NULL%0,         Ying%Wang%NULL%0,         Pei-Hong%Wang%NULL%1,         Hai-Xin%Bo%NULL%0,         Jing%Cao%NULL%0,         Yu%Wang%NULL%0,         Li-Yun%Zhu%NULL%0,         Yuan%Yang%NULL%0,         Teris%Cheung%NULL%0,         Chee H.%Ng%NULL%1,         Xinjuan%Wu%wuxinjuan@sina.com%0,         Yu-Tao%Xiang%xyutly@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,         Zhen%Yang%NULL%1,         Xiao%Wang%NULL%0,         Juan%Li%NULL%2,         Lili%Dong%NULL%2,         Lili%Dong%NULL%0,         Fusheng%Wang%NULL%1,         Yifei%Li%NULL%1,         Ruihong%Wei%NULL%1,         Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>"A Report of the Telepsychiatric Evaluation of SARS-CoV-2 Patients"</t>
+  </si>
+  <si>
+    <t>[Arman%Zarghami%xref no email%1, Mojtaba%Farjam%xref no email%1, Bahareh%Fakhraei%xref no email%1, Kosar%Hashemzadeh%xref no email%1, Mohammad Hosein%Yazdanpanah%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-03-31</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,          Wei%Chen%NULL%0,          Saiduo%Liu%NULL%0,          Paul M.%Thompson%NULL%0,          Long Jiang%Zhang%NULL%0,          Fei%Xia%NULL%0,          Fang%Cheng%NULL%0,          Ailing%Hong%NULL%0,          Wesley%Surento%NULL%0,          Song%Luo%NULL%0,          Zhi Yuan%Sun%NULL%0,          Chang Sheng%Zhou%NULL%0,          Lingjiang%Li%NULL%0,          Xiangao%Jiang%NULL%0,          Guang Ming%Lu%NULL%0,           R.%Qi%null%0,           W.% Chen%null%0,           S.% Liu%null%0,           P. M.% Thompson%null%0,           L. J.% Zhang%null%0,           F.% Xia%null%0,           F.% Cheng%null%0,           A.% Hong%null%0,           W.% Surento%null%0,           S.% Luo%null%0,           Z. Y.% Sun%null%0,           C. S.% Zhou%null%0,           L.% Li%null%0,           X.% Jiang%null%0,           G. M. % Lu%null%0,       R.%Qi%null%1,       W.% Chen%null%1,       S.% Liu%null%1,       P. M.% Thompson%null%1,       L. J.% Zhang%null%1,       F.% Xia%null%1,       F.% Cheng%null%1,       A.% Hong%null%1,       W.% Surento%null%1,       S.% Luo%null%1,       Z. Y.% Sun%null%1,       C. S.% Zhou%null%1,       L.% Li%null%1,       X.% Jiang%null%1,       G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,          Bilgin%Öztürk%Drbilgin@gmail.com%2,          Bilgin%Öztürk%Drbilgin@gmail.com%0,          Ali Rıza%Sonkaya%NULL%2,          Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,          Mariangela%Pierantozzi%NULL%2,          Matteo%Spanetta%NULL%2,          Loredana%Sarmati%NULL%2,          Novella%Cesta%NULL%2,          Marco%Iannetta%NULL%2,          Josuel%Ora%NULL%2,          Grazia Genga%Mina%NULL%2,          Ermanno%Puxeddu%NULL%2,          Ottavia%Balbi%NULL%2,          Gabriella%Pezzuto%NULL%2,          Andrea%Magrini%NULL%2,          Paola%Rogliani%NULL%2,          Massimo%Andreoni%NULL%2,          Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,          Mariangela%Pierantozzi%NULL%0,          Matteo%Spanetta%NULL%0,          Loredana%Sarmati%NULL%0,          Novella%Cesta%NULL%0,          Marco%Iannetta%NULL%0,          Josuel%Ora%NULL%0,          Grazia Genga%Mina%NULL%0,          Ermanno%Puxeddu%NULL%0,          Ottavia%Balbi%NULL%0,          Gabriella%Pezzuto%NULL%0,          Andrea%Magrini%NULL%0,          Paola%Rogliani%NULL%0,          Massimo%Andreoni%NULL%0,          Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,          Yuchen%Zheng%NULL%1,          Jia%Shi%NULL%1,          Jijun%Wang%NULL%1,          Guanjun%Li%NULL%1,          Chunbo%Li%NULL%1,          John A.%Fromson%NULL%1,          Yong%Xu%NULL%1,          Xiaohua%Liu%NULL%1,          Hua%Xu%NULL%1,          Tianhong%Zhang%NULL%1,          Yunfei%Lu%NULL%0,          Xiaorong%Chen%NULL%1,          Hao%Hu%NULL%1,          Yingying%Tang%NULL%1,          Shuwen%Yang%NULL%1,          Han%Zhou%NULL%1,          Xiaoliang%Wang%NULL%1,          Haiying%Chen%NULL%1,          Zhen%Wang%NULL%1,          Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ X.%Kong%null%1,           K.% Zheng%null%1,           M.% Tang%null%1,           F.% Kong%null%1,           J.% Zhou%null%1,           L.% Diao%null%1,           S.% Wu%null%1,           P.% Jiao%null%1,           T.% Su%null%1,           Y. % Dong%null%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,          Guido%Mascialino%NULL%2,          Guido%Mascialino%NULL%0,          Lila%Adana‐Díaz%NULL%2,          Lila%Adana‐Díaz%NULL%0,          Alberto%Rodríguez‐Lorenzana%NULL%2,          Alberto%Rodríguez‐Lorenzana%NULL%0,          Katherine%Simbaña‐Rivera%NULL%2,          Katherine%Simbaña‐Rivera%NULL%0,          Lenin%Gómez‐Barreno%NULL%2,          Lenin%Gómez‐Barreno%NULL%0,          Maritza%Troya%NULL%2,          Maritza%Troya%NULL%0,          María Ignacia%Páez%NULL%2,          María Ignacia%Páez%NULL%0,          Javier%Cárdenas%NULL%2,          Javier%Cárdenas%NULL%0,          Rebekka M%Gerstner%NULL%2,          Rebekka M%Gerstner%NULL%0,          Esteban%Ortiz‐Prado%NULL%2,          Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,          Huipeng%Lu%NULL%1,          Haiping%Zeng%NULL%1,          Shining%Zhang%NULL%1,          Qifeng%Du%NULL%1,          Tingyun%Jiang%NULL%1,          Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,          Li-Yun%Zhu%NULL%2,          Yu-Fen%Ma%NULL%1,          Hai-Xin%Bo%NULL%2,          Hai-Bo%Deng%NULL%1,          Jing%Cao%NULL%2,          Ying%Wang%NULL%0,          Xiao-Jie%Wang%NULL%1,          Yuan%Xu%NULL%1,          Qiao-Dan%Lu%NULL%1,          Hui%Wang%NULL%1,          Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,          Yingying%Chen%NULL%1,          Yixiong%Zheng%NULL%1,          Ciping%You%NULL%1,          Jing%Tan%NULL%1,          Lan%Hu%NULL%1,          Zhenqing%Zhang%NULL%1,          Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,          Wen%Li%NULL%0,          Hai-Bao%Deng%NULL%1,          Lei%Wang%NULL%0,          Ying%Wang%NULL%0,          Pei-Hong%Wang%NULL%1,          Hai-Xin%Bo%NULL%0,          Jing%Cao%NULL%0,          Yu%Wang%NULL%0,          Li-Yun%Zhu%NULL%0,          Yuan%Yang%NULL%0,          Teris%Cheung%NULL%0,          Chee H.%Ng%NULL%1,          Xinjuan%Wu%wuxinjuan@sina.com%0,          Yu-Tao%Xiang%xyutly@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,          Zhen%Yang%NULL%1,          Xiao%Wang%NULL%0,          Juan%Li%NULL%2,          Lili%Dong%NULL%2,          Lili%Dong%NULL%0,          Fusheng%Wang%NULL%1,          Yifei%Li%NULL%1,          Ruihong%Wei%NULL%1,          Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Arman%Zarghami%xref no email%1,  Mojtaba%Farjam%xref no email%1,  Bahareh%Fakhraei%xref no email%1,  Kosar%Hashemzadeh%xref no email%1,  Mohammad Hosein%Yazdanpanah%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -956,7 +1043,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -985,7 +1072,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1014,7 +1101,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1043,7 +1130,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1072,7 +1159,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1101,7 +1188,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -1159,7 +1246,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1188,7 +1275,7 @@
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1217,7 +1304,7 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="F11" t="s">
         <v>67</v>
@@ -1246,7 +1333,7 @@
         <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1275,7 +1362,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1304,7 +1391,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1356,22 +1443,22 @@
         <v>44166.0</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="I16" t="s">
         <v>56</v>

--- a/Covid_19_Dataset_and_References/References/75.xlsx
+++ b/Covid_19_Dataset_and_References/References/75.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="230">
   <si>
     <t>Doi</t>
   </si>
@@ -691,6 +691,84 @@
   </si>
   <si>
     <t>[Arman%Zarghami%xref no email%1,  Mojtaba%Farjam%xref no email%1,  Bahareh%Fakhraei%xref no email%1,  Kosar%Hashemzadeh%xref no email%1,  Mohammad Hosein%Yazdanpanah%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,           Wei%Chen%NULL%0,           Saiduo%Liu%NULL%0,           Paul M.%Thompson%NULL%0,           Long Jiang%Zhang%NULL%0,           Fei%Xia%NULL%0,           Fang%Cheng%NULL%0,           Ailing%Hong%NULL%0,           Wesley%Surento%NULL%0,           Song%Luo%NULL%0,           Zhi Yuan%Sun%NULL%0,           Chang Sheng%Zhou%NULL%0,           Lingjiang%Li%NULL%0,           Xiangao%Jiang%NULL%0,           Guang Ming%Lu%NULL%0,            R.%Qi%null%0,            W.% Chen%null%0,            S.% Liu%null%0,            P. M.% Thompson%null%0,            L. J.% Zhang%null%0,            F.% Xia%null%0,            F.% Cheng%null%0,            A.% Hong%null%0,            W.% Surento%null%0,            S.% Luo%null%0,            Z. Y.% Sun%null%0,            C. S.% Zhou%null%0,            L.% Li%null%0,            X.% Jiang%null%0,            G. M. % Lu%null%0,        R.%Qi%null%1,        W.% Chen%null%1,        S.% Liu%null%1,        P. M.% Thompson%null%1,        L. J.% Zhang%null%1,        F.% Xia%null%1,        F.% Cheng%null%1,        A.% Hong%null%1,        W.% Surento%null%1,        S.% Luo%null%1,        Z. Y.% Sun%null%1,        C. S.% Zhou%null%1,        L.% Li%null%1,        X.% Jiang%null%1,        G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,           Bilgin%Öztürk%Drbilgin@gmail.com%2,           Bilgin%Öztürk%Drbilgin@gmail.com%0,           Ali Rıza%Sonkaya%NULL%2,           Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,           Mariangela%Pierantozzi%NULL%2,           Matteo%Spanetta%NULL%2,           Loredana%Sarmati%NULL%2,           Novella%Cesta%NULL%2,           Marco%Iannetta%NULL%2,           Josuel%Ora%NULL%2,           Grazia Genga%Mina%NULL%2,           Ermanno%Puxeddu%NULL%2,           Ottavia%Balbi%NULL%2,           Gabriella%Pezzuto%NULL%2,           Andrea%Magrini%NULL%2,           Paola%Rogliani%NULL%2,           Massimo%Andreoni%NULL%2,           Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,           Mariangela%Pierantozzi%NULL%0,           Matteo%Spanetta%NULL%0,           Loredana%Sarmati%NULL%0,           Novella%Cesta%NULL%0,           Marco%Iannetta%NULL%0,           Josuel%Ora%NULL%0,           Grazia Genga%Mina%NULL%0,           Ermanno%Puxeddu%NULL%0,           Ottavia%Balbi%NULL%0,           Gabriella%Pezzuto%NULL%0,           Andrea%Magrini%NULL%0,           Paola%Rogliani%NULL%0,           Massimo%Andreoni%NULL%0,           Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,           Yuchen%Zheng%NULL%1,           Jia%Shi%NULL%1,           Jijun%Wang%NULL%1,           Guanjun%Li%NULL%1,           Chunbo%Li%NULL%1,           John A.%Fromson%NULL%1,           Yong%Xu%NULL%1,           Xiaohua%Liu%NULL%1,           Hua%Xu%NULL%1,           Tianhong%Zhang%NULL%1,           Yunfei%Lu%NULL%0,           Xiaorong%Chen%NULL%1,           Hao%Hu%NULL%1,           Yingying%Tang%NULL%1,           Shuwen%Yang%NULL%1,           Han%Zhou%NULL%1,           Xiaoliang%Wang%NULL%1,           Haiying%Chen%NULL%1,           Zhen%Wang%NULL%1,           Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ X.%Kong%null%1,            K.% Zheng%null%1,            M.% Tang%null%1,            F.% Kong%null%1,            J.% Zhou%null%1,            L.% Diao%null%1,            S.% Wu%null%1,            P.% Jiao%null%1,            T.% Su%null%1,            Y. % Dong%null%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,           Guido%Mascialino%NULL%2,           Guido%Mascialino%NULL%0,           Lila%Adana‐Díaz%NULL%2,           Lila%Adana‐Díaz%NULL%0,           Alberto%Rodríguez‐Lorenzana%NULL%2,           Alberto%Rodríguez‐Lorenzana%NULL%0,           Katherine%Simbaña‐Rivera%NULL%2,           Katherine%Simbaña‐Rivera%NULL%0,           Lenin%Gómez‐Barreno%NULL%2,           Lenin%Gómez‐Barreno%NULL%0,           Maritza%Troya%NULL%2,           Maritza%Troya%NULL%0,           María Ignacia%Páez%NULL%2,           María Ignacia%Páez%NULL%0,           Javier%Cárdenas%NULL%2,           Javier%Cárdenas%NULL%0,           Rebekka M%Gerstner%NULL%2,           Rebekka M%Gerstner%NULL%0,           Esteban%Ortiz‐Prado%NULL%2,           Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,           Huipeng%Lu%NULL%1,           Haiping%Zeng%NULL%1,           Shining%Zhang%NULL%1,           Qifeng%Du%NULL%1,           Tingyun%Jiang%NULL%1,           Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,           Li-Yun%Zhu%NULL%2,           Yu-Fen%Ma%NULL%1,           Hai-Xin%Bo%NULL%2,           Hai-Bo%Deng%NULL%1,           Jing%Cao%NULL%2,           Ying%Wang%NULL%0,           Xiao-Jie%Wang%NULL%1,           Yuan%Xu%NULL%1,           Qiao-Dan%Lu%NULL%1,           Hui%Wang%NULL%1,           Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,           Yingying%Chen%NULL%1,           Yixiong%Zheng%NULL%1,           Ciping%You%NULL%1,           Jing%Tan%NULL%1,           Lan%Hu%NULL%1,           Zhenqing%Zhang%NULL%1,           Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,           Wen%Li%NULL%0,           Hai-Bao%Deng%NULL%1,           Lei%Wang%NULL%0,           Ying%Wang%NULL%0,           Pei-Hong%Wang%NULL%1,           Hai-Xin%Bo%NULL%0,           Jing%Cao%NULL%0,           Yu%Wang%NULL%0,           Li-Yun%Zhu%NULL%0,           Yuan%Yang%NULL%0,           Teris%Cheung%NULL%0,           Chee H.%Ng%NULL%1,           Xinjuan%Wu%wuxinjuan@sina.com%0,           Yu-Tao%Xiang%xyutly@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,           Zhen%Yang%NULL%1,           Xiao%Wang%NULL%0,           Juan%Li%NULL%2,           Lili%Dong%NULL%2,           Lili%Dong%NULL%0,           Fusheng%Wang%NULL%1,           Yifei%Li%NULL%1,           Ruihong%Wei%NULL%1,           Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Arman%Zarghami%xref no email%1,   Mojtaba%Farjam%xref no email%1,   Bahareh%Fakhraei%xref no email%1,   Kosar%Hashemzadeh%xref no email%1,   Mohammad Hosein%Yazdanpanah%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,            Wei%Chen%NULL%0,            Saiduo%Liu%NULL%0,            Paul M.%Thompson%NULL%0,            Long Jiang%Zhang%NULL%0,            Fei%Xia%NULL%0,            Fang%Cheng%NULL%0,            Ailing%Hong%NULL%0,            Wesley%Surento%NULL%0,            Song%Luo%NULL%0,            Zhi Yuan%Sun%NULL%0,            Chang Sheng%Zhou%NULL%0,            Lingjiang%Li%NULL%0,            Xiangao%Jiang%NULL%0,            Guang Ming%Lu%NULL%0,             R.%Qi%null%0,             W.% Chen%null%0,             S.% Liu%null%0,             P. M.% Thompson%null%0,             L. J.% Zhang%null%0,             F.% Xia%null%0,             F.% Cheng%null%0,             A.% Hong%null%0,             W.% Surento%null%0,             S.% Luo%null%0,             Z. Y.% Sun%null%0,             C. S.% Zhou%null%0,             L.% Li%null%0,             X.% Jiang%null%0,             G. M. % Lu%null%0,         R.%Qi%null%1,         W.% Chen%null%1,         S.% Liu%null%1,         P. M.% Thompson%null%1,         L. J.% Zhang%null%1,         F.% Xia%null%1,         F.% Cheng%null%1,         A.% Hong%null%1,         W.% Surento%null%1,         S.% Luo%null%1,         Z. Y.% Sun%null%1,         C. S.% Zhou%null%1,         L.% Li%null%1,         X.% Jiang%null%1,         G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,            Bilgin%Öztürk%Drbilgin@gmail.com%2,            Bilgin%Öztürk%Drbilgin@gmail.com%0,            Ali Rıza%Sonkaya%NULL%2,            Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,            Mariangela%Pierantozzi%NULL%2,            Matteo%Spanetta%NULL%2,            Loredana%Sarmati%NULL%2,            Novella%Cesta%NULL%2,            Marco%Iannetta%NULL%2,            Josuel%Ora%NULL%2,            Grazia Genga%Mina%NULL%2,            Ermanno%Puxeddu%NULL%2,            Ottavia%Balbi%NULL%2,            Gabriella%Pezzuto%NULL%2,            Andrea%Magrini%NULL%2,            Paola%Rogliani%NULL%2,            Massimo%Andreoni%NULL%2,            Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,            Mariangela%Pierantozzi%NULL%0,            Matteo%Spanetta%NULL%0,            Loredana%Sarmati%NULL%0,            Novella%Cesta%NULL%0,            Marco%Iannetta%NULL%0,            Josuel%Ora%NULL%0,            Grazia Genga%Mina%NULL%0,            Ermanno%Puxeddu%NULL%0,            Ottavia%Balbi%NULL%0,            Gabriella%Pezzuto%NULL%0,            Andrea%Magrini%NULL%0,            Paola%Rogliani%NULL%0,            Massimo%Andreoni%NULL%0,            Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,            Yuchen%Zheng%NULL%1,            Jia%Shi%NULL%1,            Jijun%Wang%NULL%1,            Guanjun%Li%NULL%1,            Chunbo%Li%NULL%1,            John A.%Fromson%NULL%1,            Yong%Xu%NULL%1,            Xiaohua%Liu%NULL%1,            Hua%Xu%NULL%1,            Tianhong%Zhang%NULL%1,            Yunfei%Lu%NULL%0,            Xiaorong%Chen%NULL%1,            Hao%Hu%NULL%1,            Yingying%Tang%NULL%1,            Shuwen%Yang%NULL%1,            Han%Zhou%NULL%1,            Xiaoliang%Wang%NULL%1,            Haiying%Chen%NULL%1,            Zhen%Wang%NULL%1,            Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ X.%Kong%null%1,             K.% Zheng%null%1,             M.% Tang%null%1,             F.% Kong%null%1,             J.% Zhou%null%1,             L.% Diao%null%1,             S.% Wu%null%1,             P.% Jiao%null%1,             T.% Su%null%1,             Y. % Dong%null%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,            Guido%Mascialino%NULL%2,            Guido%Mascialino%NULL%0,            Lila%Adana‐Díaz%NULL%2,            Lila%Adana‐Díaz%NULL%0,            Alberto%Rodríguez‐Lorenzana%NULL%2,            Alberto%Rodríguez‐Lorenzana%NULL%0,            Katherine%Simbaña‐Rivera%NULL%2,            Katherine%Simbaña‐Rivera%NULL%0,            Lenin%Gómez‐Barreno%NULL%2,            Lenin%Gómez‐Barreno%NULL%0,            Maritza%Troya%NULL%2,            Maritza%Troya%NULL%0,            María Ignacia%Páez%NULL%2,            María Ignacia%Páez%NULL%0,            Javier%Cárdenas%NULL%2,            Javier%Cárdenas%NULL%0,            Rebekka M%Gerstner%NULL%2,            Rebekka M%Gerstner%NULL%0,            Esteban%Ortiz‐Prado%NULL%2,            Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,            Huipeng%Lu%NULL%1,            Haiping%Zeng%NULL%1,            Shining%Zhang%NULL%1,            Qifeng%Du%NULL%1,            Tingyun%Jiang%NULL%1,            Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,            Li-Yun%Zhu%NULL%2,            Yu-Fen%Ma%NULL%1,            Hai-Xin%Bo%NULL%2,            Hai-Bo%Deng%NULL%1,            Jing%Cao%NULL%2,            Ying%Wang%NULL%0,            Xiao-Jie%Wang%NULL%1,            Yuan%Xu%NULL%1,            Qiao-Dan%Lu%NULL%1,            Hui%Wang%NULL%1,            Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,            Yingying%Chen%NULL%1,            Yixiong%Zheng%NULL%1,            Ciping%You%NULL%1,            Jing%Tan%NULL%1,            Lan%Hu%NULL%1,            Zhenqing%Zhang%NULL%1,            Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,            Wen%Li%NULL%0,            Hai-Bao%Deng%NULL%1,            Lei%Wang%NULL%0,            Ying%Wang%NULL%0,            Pei-Hong%Wang%NULL%1,            Hai-Xin%Bo%NULL%0,            Jing%Cao%NULL%0,            Yu%Wang%NULL%0,            Li-Yun%Zhu%NULL%0,            Yuan%Yang%NULL%0,            Teris%Cheung%NULL%0,            Chee H.%Ng%NULL%1,            Xinjuan%Wu%wuxinjuan@sina.com%0,            Yu-Tao%Xiang%xyutly@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,            Zhen%Yang%NULL%1,            Xiao%Wang%NULL%0,            Juan%Li%NULL%2,            Lili%Dong%NULL%2,            Lili%Dong%NULL%0,            Fusheng%Wang%NULL%1,            Yifei%Li%NULL%1,            Ruihong%Wei%NULL%1,            Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Arman%Zarghami%xref no email%1,    Mojtaba%Farjam%xref no email%1,    Bahareh%Fakhraei%xref no email%1,    Kosar%Hashemzadeh%xref no email%1,    Mohammad Hosein%Yazdanpanah%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1121,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1072,7 +1150,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1101,7 +1179,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1130,7 +1208,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1159,7 +1237,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1188,7 +1266,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -1246,7 +1324,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1275,7 +1353,7 @@
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1304,7 +1382,7 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="F11" t="s">
         <v>67</v>
@@ -1333,7 +1411,7 @@
         <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1362,7 +1440,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1391,7 +1469,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1449,7 +1527,7 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>

--- a/Covid_19_Dataset_and_References/References/75.xlsx
+++ b/Covid_19_Dataset_and_References/References/75.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="257">
   <si>
     <t>Doi</t>
   </si>
@@ -769,6 +769,105 @@
   </si>
   <si>
     <t>[Arman%Zarghami%xref no email%1,    Mojtaba%Farjam%xref no email%1,    Bahareh%Fakhraei%xref no email%1,    Kosar%Hashemzadeh%xref no email%1,    Mohammad Hosein%Yazdanpanah%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,             Wei%Chen%NULL%0,             Saiduo%Liu%NULL%0,             Paul M.%Thompson%NULL%0,             Long Jiang%Zhang%NULL%0,             Fei%Xia%NULL%0,             Fang%Cheng%NULL%0,             Ailing%Hong%NULL%0,             Wesley%Surento%NULL%0,             Song%Luo%NULL%0,             Zhi Yuan%Sun%NULL%0,             Chang Sheng%Zhou%NULL%0,             Lingjiang%Li%NULL%0,             Xiangao%Jiang%NULL%0,             Guang Ming%Lu%NULL%0,              R.%Qi%null%0,              W.% Chen%null%0,              S.% Liu%null%0,              P. M.% Thompson%null%0,              L. J.% Zhang%null%0,              F.% Xia%null%0,              F.% Cheng%null%0,              A.% Hong%null%0,              W.% Surento%null%0,              S.% Luo%null%0,              Z. Y.% Sun%null%0,              C. S.% Zhou%null%0,              L.% Li%null%0,              X.% Jiang%null%0,              G. M. % Lu%null%0,          R.%Qi%null%1,          W.% Chen%null%1,          S.% Liu%null%1,          P. M.% Thompson%null%1,          L. J.% Zhang%null%1,          F.% Xia%null%1,          F.% Cheng%null%1,          A.% Hong%null%1,          W.% Surento%null%1,          S.% Luo%null%1,          Z. Y.% Sun%null%1,          C. S.% Zhou%null%1,          L.% Li%null%1,          X.% Jiang%null%1,          G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+COVID-19 is a virus pandemic.
+ According to the first obtained data, COVID-19 has defined with findings such as cough, fever, diarrhea, and fatigue although neurological symptoms of patients with COVID-19 have not been investigated in detail.
+ This study aims to investigate the neurological findings via obtained face-to-face anamnesis and detailed neurological examination in patients with COVID-19.
+Methods
+Two hundred thirty-nine consecutive inpatients with COVID-19, supported with laboratory tests, were evaluated.
+ Detailed neurological examinations and evaluations of all patients were performed.
+ All evaluations and examinations were performed by two neurologists who have at least five-year experience.
+Results
+This study was carried out 239 patients (133 male + 106 female) with diagnosed COVID-19. Neurological findings were present in 83 of 239 patients (34.7%).
+ The most common neurological finding was a headache (27.6%).
+ D-dimer blood levels were detected to be significantly higher in patients with at least one neurological symptom than patients without the neurological symptom (p &amp;lt; 0.05).
+ IL-6 level was found to be significantly higher in patients with headache than without headache (p &amp;lt; 0.05).
+ Creatine kinase (CK) level was detected to be significantly higher in patients with muscle pain (p &amp;lt; 0.05).
+Conclusion
+Neurological symptoms are often seen in patients with COVID-19. Headache was the most common seen neurological symptom in this disease.
+ Dizziness, impaired consciousness, smell and gustation impairments, cerebrovascular disorders, epileptic seizures, and myalgia were detected as other findings apart from the headache.
+ It is suggested that determining these neurological symptoms prevents the diagnosis delay and helps to prohibit virus spread.
+</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,             Bilgin%Öztürk%Drbilgin@gmail.com%2,             Bilgin%Öztürk%Drbilgin@gmail.com%0,             Ali Rıza%Sonkaya%NULL%2,             Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,             Mariangela%Pierantozzi%NULL%2,             Matteo%Spanetta%NULL%2,             Loredana%Sarmati%NULL%2,             Novella%Cesta%NULL%2,             Marco%Iannetta%NULL%2,             Josuel%Ora%NULL%2,             Grazia Genga%Mina%NULL%2,             Ermanno%Puxeddu%NULL%2,             Ottavia%Balbi%NULL%2,             Gabriella%Pezzuto%NULL%2,             Andrea%Magrini%NULL%2,             Paola%Rogliani%NULL%2,             Massimo%Andreoni%NULL%2,             Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,             Mariangela%Pierantozzi%NULL%0,             Matteo%Spanetta%NULL%0,             Loredana%Sarmati%NULL%0,             Novella%Cesta%NULL%0,             Marco%Iannetta%NULL%0,             Josuel%Ora%NULL%0,             Grazia Genga%Mina%NULL%0,             Ermanno%Puxeddu%NULL%0,             Ottavia%Balbi%NULL%0,             Gabriella%Pezzuto%NULL%0,             Andrea%Magrini%NULL%0,             Paola%Rogliani%NULL%0,             Massimo%Andreoni%NULL%0,             Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,             Yuchen%Zheng%NULL%1,             Jia%Shi%NULL%1,             Jijun%Wang%NULL%1,             Guanjun%Li%NULL%1,             Chunbo%Li%NULL%1,             John A.%Fromson%NULL%1,             Yong%Xu%NULL%1,             Xiaohua%Liu%NULL%1,             Hua%Xu%NULL%1,             Tianhong%Zhang%NULL%1,             Yunfei%Lu%NULL%0,             Xiaorong%Chen%NULL%1,             Hao%Hu%NULL%1,             Yingying%Tang%NULL%1,             Shuwen%Yang%NULL%1,             Han%Zhou%NULL%1,             Xiaoliang%Wang%NULL%1,             Haiying%Chen%NULL%1,             Zhen%Wang%NULL%1,             Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ X.%Kong%null%1,              K.% Zheng%null%1,              M.% Tang%null%1,              F.% Kong%null%1,              J.% Zhou%null%1,              L.% Diao%null%1,              S.% Wu%null%1,              P.% Jiao%null%1,              T.% Su%null%1,              Y. % Dong%null%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,             Guido%Mascialino%NULL%2,             Guido%Mascialino%NULL%0,             Lila%Adana‐Díaz%NULL%2,             Lila%Adana‐Díaz%NULL%0,             Alberto%Rodríguez‐Lorenzana%NULL%2,             Alberto%Rodríguez‐Lorenzana%NULL%0,             Katherine%Simbaña‐Rivera%NULL%2,             Katherine%Simbaña‐Rivera%NULL%0,             Lenin%Gómez‐Barreno%NULL%2,             Lenin%Gómez‐Barreno%NULL%0,             Maritza%Troya%NULL%2,             Maritza%Troya%NULL%0,             María Ignacia%Páez%NULL%2,             María Ignacia%Páez%NULL%0,             Javier%Cárdenas%NULL%2,             Javier%Cárdenas%NULL%0,             Rebekka M%Gerstner%NULL%2,             Rebekka M%Gerstner%NULL%0,             Esteban%Ortiz‐Prado%NULL%2,             Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,             Huipeng%Lu%NULL%1,             Haiping%Zeng%NULL%1,             Shining%Zhang%NULL%1,             Qifeng%Du%NULL%1,             Tingyun%Jiang%NULL%1,             Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,             Li-Yun%Zhu%NULL%2,             Yu-Fen%Ma%NULL%1,             Hai-Xin%Bo%NULL%2,             Hai-Bo%Deng%NULL%1,             Jing%Cao%NULL%2,             Ying%Wang%NULL%0,             Xiao-Jie%Wang%NULL%1,             Yuan%Xu%NULL%1,             Qiao-Dan%Lu%NULL%1,             Hui%Wang%NULL%1,             Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,             Yingying%Chen%NULL%1,             Yixiong%Zheng%NULL%1,             Ciping%You%NULL%1,             Jing%Tan%NULL%1,             Lan%Hu%NULL%1,             Zhenqing%Zhang%NULL%1,             Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,             Wen%Li%NULL%0,             Hai-Bao%Deng%NULL%1,             Lei%Wang%NULL%0,             Ying%Wang%NULL%0,             Pei-Hong%Wang%NULL%1,             Hai-Xin%Bo%NULL%0,             Jing%Cao%NULL%0,             Yu%Wang%NULL%0,             Li-Yun%Zhu%NULL%0,             Yuan%Yang%NULL%0,             Teris%Cheung%NULL%0,             Chee H.%Ng%NULL%1,             Xinjuan%Wu%wuxinjuan@sina.com%0,             Yu-Tao%Xiang%xyutly@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,             Zhen%Yang%NULL%1,             Xiao%Wang%NULL%0,             Juan%Li%NULL%2,             Lili%Dong%NULL%2,             Lili%Dong%NULL%0,             Fusheng%Wang%NULL%1,             Yifei%Li%NULL%1,             Ruihong%Wei%NULL%1,             Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Arman%Zarghami%xref no email%1,     Mojtaba%Farjam%xref no email%1,     Bahareh%Fakhraei%xref no email%1,     Kosar%Hashemzadeh%xref no email%1,     Mohammad Hosein%Yazdanpanah%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,              Wei%Chen%NULL%0,              Saiduo%Liu%NULL%0,              Paul M.%Thompson%NULL%0,              Long Jiang%Zhang%NULL%0,              Fei%Xia%NULL%0,              Fang%Cheng%NULL%0,              Ailing%Hong%NULL%0,              Wesley%Surento%NULL%0,              Song%Luo%NULL%0,              Zhi Yuan%Sun%NULL%0,              Chang Sheng%Zhou%NULL%0,              Lingjiang%Li%NULL%0,              Xiangao%Jiang%NULL%0,              Guang Ming%Lu%NULL%0,               R.%Qi%null%0,               W.% Chen%null%0,               S.% Liu%null%0,               P. M.% Thompson%null%0,               L. J.% Zhang%null%0,               F.% Xia%null%0,               F.% Cheng%null%0,               A.% Hong%null%0,               W.% Surento%null%0,               S.% Luo%null%0,               Z. Y.% Sun%null%0,               C. S.% Zhou%null%0,               L.% Li%null%0,               X.% Jiang%null%0,               G. M. % Lu%null%0,           R.%Qi%null%1,           W.% Chen%null%1,           S.% Liu%null%1,           P. M.% Thompson%null%1,           L. J.% Zhang%null%1,           F.% Xia%null%1,           F.% Cheng%null%1,           A.% Hong%null%1,           W.% Surento%null%1,           S.% Luo%null%1,           Z. Y.% Sun%null%1,           C. S.% Zhou%null%1,           L.% Li%null%1,           X.% Jiang%null%1,           G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,              Bilgin%Öztürk%Drbilgin@gmail.com%2,              Bilgin%Öztürk%Drbilgin@gmail.com%0,              Ali Rıza%Sonkaya%NULL%2,              Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,              Mariangela%Pierantozzi%NULL%2,              Matteo%Spanetta%NULL%2,              Loredana%Sarmati%NULL%2,              Novella%Cesta%NULL%2,              Marco%Iannetta%NULL%2,              Josuel%Ora%NULL%2,              Grazia Genga%Mina%NULL%2,              Ermanno%Puxeddu%NULL%2,              Ottavia%Balbi%NULL%2,              Gabriella%Pezzuto%NULL%2,              Andrea%Magrini%NULL%2,              Paola%Rogliani%NULL%2,              Massimo%Andreoni%NULL%2,              Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,              Mariangela%Pierantozzi%NULL%0,              Matteo%Spanetta%NULL%0,              Loredana%Sarmati%NULL%0,              Novella%Cesta%NULL%0,              Marco%Iannetta%NULL%0,              Josuel%Ora%NULL%0,              Grazia Genga%Mina%NULL%0,              Ermanno%Puxeddu%NULL%0,              Ottavia%Balbi%NULL%0,              Gabriella%Pezzuto%NULL%0,              Andrea%Magrini%NULL%0,              Paola%Rogliani%NULL%0,              Massimo%Andreoni%NULL%0,              Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,              Yuchen%Zheng%NULL%1,              Jia%Shi%NULL%1,              Jijun%Wang%NULL%1,              Guanjun%Li%NULL%1,              Chunbo%Li%NULL%1,              John A.%Fromson%NULL%1,              Yong%Xu%NULL%1,              Xiaohua%Liu%NULL%1,              Hua%Xu%NULL%1,              Tianhong%Zhang%NULL%1,              Yunfei%Lu%NULL%0,              Xiaorong%Chen%NULL%1,              Hao%Hu%NULL%1,              Yingying%Tang%NULL%1,              Shuwen%Yang%NULL%1,              Han%Zhou%NULL%1,              Xiaoliang%Wang%NULL%1,              Haiying%Chen%NULL%1,              Zhen%Wang%NULL%1,              Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ X.%Kong%null%1,               K.% Zheng%null%1,               M.% Tang%null%1,               F.% Kong%null%1,               J.% Zhou%null%1,               L.% Diao%null%1,               S.% Wu%null%1,               P.% Jiao%null%1,               T.% Su%null%1,               Y. % Dong%null%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,              Guido%Mascialino%NULL%2,              Guido%Mascialino%NULL%0,              Lila%Adana‐Díaz%NULL%2,              Lila%Adana‐Díaz%NULL%0,              Alberto%Rodríguez‐Lorenzana%NULL%2,              Alberto%Rodríguez‐Lorenzana%NULL%0,              Katherine%Simbaña‐Rivera%NULL%2,              Katherine%Simbaña‐Rivera%NULL%0,              Lenin%Gómez‐Barreno%NULL%2,              Lenin%Gómez‐Barreno%NULL%0,              Maritza%Troya%NULL%2,              Maritza%Troya%NULL%0,              María Ignacia%Páez%NULL%2,              María Ignacia%Páez%NULL%0,              Javier%Cárdenas%NULL%2,              Javier%Cárdenas%NULL%0,              Rebekka M%Gerstner%NULL%2,              Rebekka M%Gerstner%NULL%0,              Esteban%Ortiz‐Prado%NULL%2,              Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,              Huipeng%Lu%NULL%1,              Haiping%Zeng%NULL%1,              Shining%Zhang%NULL%1,              Qifeng%Du%NULL%1,              Tingyun%Jiang%NULL%1,              Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,              Li-Yun%Zhu%NULL%2,              Yu-Fen%Ma%NULL%1,              Hai-Xin%Bo%NULL%2,              Hai-Bo%Deng%NULL%1,              Jing%Cao%NULL%2,              Ying%Wang%NULL%0,              Xiao-Jie%Wang%NULL%1,              Yuan%Xu%NULL%1,              Qiao-Dan%Lu%NULL%1,              Hui%Wang%NULL%1,              Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,              Yingying%Chen%NULL%1,              Yixiong%Zheng%NULL%1,              Ciping%You%NULL%1,              Jing%Tan%NULL%1,              Lan%Hu%NULL%1,              Zhenqing%Zhang%NULL%1,              Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,              Wen%Li%NULL%0,              Hai-Bao%Deng%NULL%1,              Lei%Wang%NULL%0,              Ying%Wang%NULL%0,              Pei-Hong%Wang%NULL%1,              Hai-Xin%Bo%NULL%0,              Jing%Cao%NULL%0,              Yu%Wang%NULL%0,              Li-Yun%Zhu%NULL%0,              Yuan%Yang%NULL%0,              Teris%Cheung%NULL%0,              Chee H.%Ng%NULL%1,              Xinjuan%Wu%wuxinjuan@sina.com%0,              Yu-Tao%Xiang%xyutly@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,              Zhen%Yang%NULL%1,              Xiao%Wang%NULL%0,              Juan%Li%NULL%2,              Lili%Dong%NULL%2,              Lili%Dong%NULL%0,              Fusheng%Wang%NULL%1,              Yifei%Li%NULL%1,              Ruihong%Wei%NULL%1,              Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Arman%Zarghami%xref no email%1,      Mojtaba%Farjam%xref no email%1,      Bahareh%Fakhraei%xref no email%1,      Kosar%Hashemzadeh%xref no email%1,      Mohammad Hosein%Yazdanpanah%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1220,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1147,10 +1246,10 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>231</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1179,7 +1278,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1208,7 +1307,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1237,7 +1336,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1266,7 +1365,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -1324,7 +1423,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1353,7 +1452,7 @@
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1382,7 +1481,7 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="F11" t="s">
         <v>67</v>
@@ -1411,7 +1510,7 @@
         <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1440,7 +1539,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1469,7 +1568,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1527,7 +1626,7 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>

--- a/Covid_19_Dataset_and_References/References/75.xlsx
+++ b/Covid_19_Dataset_and_References/References/75.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="270">
   <si>
     <t>Doi</t>
   </si>
@@ -868,6 +868,45 @@
   </si>
   <si>
     <t>[Arman%Zarghami%xref no email%1,      Mojtaba%Farjam%xref no email%1,      Bahareh%Fakhraei%xref no email%1,      Kosar%Hashemzadeh%xref no email%1,      Mohammad Hosein%Yazdanpanah%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,               Wei%Chen%NULL%0,               Saiduo%Liu%NULL%0,               Paul M.%Thompson%NULL%0,               Long Jiang%Zhang%NULL%0,               Fei%Xia%NULL%0,               Fang%Cheng%NULL%0,               Ailing%Hong%NULL%0,               Wesley%Surento%NULL%0,               Song%Luo%NULL%0,               Zhi Yuan%Sun%NULL%0,               Chang Sheng%Zhou%NULL%0,               Lingjiang%Li%NULL%0,               Xiangao%Jiang%NULL%0,               Guang Ming%Lu%NULL%0,                R.%Qi%null%0,                W.% Chen%null%0,                S.% Liu%null%0,                P. M.% Thompson%null%0,                L. J.% Zhang%null%0,                F.% Xia%null%0,                F.% Cheng%null%0,                A.% Hong%null%0,                W.% Surento%null%0,                S.% Luo%null%0,                Z. Y.% Sun%null%0,                C. S.% Zhou%null%0,                L.% Li%null%0,                X.% Jiang%null%0,                G. M. % Lu%null%0,            R.%Qi%null%1,            W.% Chen%null%1,            S.% Liu%null%1,            P. M.% Thompson%null%1,            L. J.% Zhang%null%1,            F.% Xia%null%1,            F.% Cheng%null%1,            A.% Hong%null%1,            W.% Surento%null%1,            S.% Luo%null%1,            Z. Y.% Sun%null%1,            C. S.% Zhou%null%1,            L.% Li%null%1,            X.% Jiang%null%1,            G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,               Bilgin%Öztürk%Drbilgin@gmail.com%2,               Bilgin%Öztürk%Drbilgin@gmail.com%0,               Ali Rıza%Sonkaya%NULL%2,               Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,               Mariangela%Pierantozzi%NULL%2,               Matteo%Spanetta%NULL%2,               Loredana%Sarmati%NULL%2,               Novella%Cesta%NULL%2,               Marco%Iannetta%NULL%2,               Josuel%Ora%NULL%2,               Grazia Genga%Mina%NULL%2,               Ermanno%Puxeddu%NULL%2,               Ottavia%Balbi%NULL%2,               Gabriella%Pezzuto%NULL%2,               Andrea%Magrini%NULL%2,               Paola%Rogliani%NULL%2,               Massimo%Andreoni%NULL%2,               Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,               Mariangela%Pierantozzi%NULL%0,               Matteo%Spanetta%NULL%0,               Loredana%Sarmati%NULL%0,               Novella%Cesta%NULL%0,               Marco%Iannetta%NULL%0,               Josuel%Ora%NULL%0,               Grazia Genga%Mina%NULL%0,               Ermanno%Puxeddu%NULL%0,               Ottavia%Balbi%NULL%0,               Gabriella%Pezzuto%NULL%0,               Andrea%Magrini%NULL%0,               Paola%Rogliani%NULL%0,               Massimo%Andreoni%NULL%0,               Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,               Yuchen%Zheng%NULL%1,               Jia%Shi%NULL%1,               Jijun%Wang%NULL%1,               Guanjun%Li%NULL%1,               Chunbo%Li%NULL%1,               John A.%Fromson%NULL%1,               Yong%Xu%NULL%1,               Xiaohua%Liu%NULL%1,               Hua%Xu%NULL%1,               Tianhong%Zhang%NULL%1,               Yunfei%Lu%NULL%0,               Xiaorong%Chen%NULL%1,               Hao%Hu%NULL%1,               Yingying%Tang%NULL%1,               Shuwen%Yang%NULL%1,               Han%Zhou%NULL%1,               Xiaoliang%Wang%NULL%1,               Haiying%Chen%NULL%1,               Zhen%Wang%NULL%1,               Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ X.%Kong%null%1,                K.% Zheng%null%1,                M.% Tang%null%1,                F.% Kong%null%1,                J.% Zhou%null%1,                L.% Diao%null%1,                S.% Wu%null%1,                P.% Jiao%null%1,                T.% Su%null%1,                Y. % Dong%null%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,               Guido%Mascialino%NULL%2,               Guido%Mascialino%NULL%0,               Lila%Adana‐Díaz%NULL%2,               Lila%Adana‐Díaz%NULL%0,               Alberto%Rodríguez‐Lorenzana%NULL%2,               Alberto%Rodríguez‐Lorenzana%NULL%0,               Katherine%Simbaña‐Rivera%NULL%2,               Katherine%Simbaña‐Rivera%NULL%0,               Lenin%Gómez‐Barreno%NULL%2,               Lenin%Gómez‐Barreno%NULL%0,               Maritza%Troya%NULL%2,               Maritza%Troya%NULL%0,               María Ignacia%Páez%NULL%2,               María Ignacia%Páez%NULL%0,               Javier%Cárdenas%NULL%2,               Javier%Cárdenas%NULL%0,               Rebekka M%Gerstner%NULL%2,               Rebekka M%Gerstner%NULL%0,               Esteban%Ortiz‐Prado%NULL%2,               Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,               Huipeng%Lu%NULL%1,               Haiping%Zeng%NULL%1,               Shining%Zhang%NULL%1,               Qifeng%Du%NULL%1,               Tingyun%Jiang%NULL%1,               Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,               Li-Yun%Zhu%NULL%2,               Yu-Fen%Ma%NULL%1,               Hai-Xin%Bo%NULL%2,               Hai-Bo%Deng%NULL%1,               Jing%Cao%NULL%2,               Ying%Wang%NULL%0,               Xiao-Jie%Wang%NULL%1,               Yuan%Xu%NULL%1,               Qiao-Dan%Lu%NULL%1,               Hui%Wang%NULL%1,               Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,               Yingying%Chen%NULL%1,               Yixiong%Zheng%NULL%1,               Ciping%You%NULL%1,               Jing%Tan%NULL%1,               Lan%Hu%NULL%1,               Zhenqing%Zhang%NULL%1,               Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,               Wen%Li%NULL%0,               Hai-Bao%Deng%NULL%1,               Lei%Wang%NULL%0,               Ying%Wang%NULL%0,               Pei-Hong%Wang%NULL%1,               Hai-Xin%Bo%NULL%0,               Jing%Cao%NULL%0,               Yu%Wang%NULL%0,               Li-Yun%Zhu%NULL%0,               Yuan%Yang%NULL%0,               Teris%Cheung%NULL%0,               Chee H.%Ng%NULL%1,               Xinjuan%Wu%wuxinjuan@sina.com%0,               Yu-Tao%Xiang%xyutly@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,               Zhen%Yang%NULL%1,               Xiao%Wang%NULL%0,               Juan%Li%NULL%2,               Lili%Dong%NULL%2,               Lili%Dong%NULL%0,               Fusheng%Wang%NULL%1,               Yifei%Li%NULL%1,               Ruihong%Wei%NULL%1,               Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Arman%Zarghami%xref no email%1,       Mojtaba%Farjam%xref no email%1,       Bahareh%Fakhraei%xref no email%1,       Kosar%Hashemzadeh%xref no email%1,       Mohammad Hosein%Yazdanpanah%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1259,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1249,7 +1288,7 @@
         <v>231</v>
       </c>
       <c r="E3" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1278,7 +1317,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1307,7 +1346,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1336,7 +1375,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1365,13 +1404,13 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="H7" t="s">
         <v>53</v>
@@ -1423,7 +1462,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1452,7 +1491,7 @@
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1481,7 +1520,7 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="F11" t="s">
         <v>67</v>
@@ -1510,7 +1549,7 @@
         <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1539,7 +1578,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1568,7 +1607,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1626,7 +1665,7 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>

--- a/Covid_19_Dataset_and_References/References/75.xlsx
+++ b/Covid_19_Dataset_and_References/References/75.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="283">
   <si>
     <t>Doi</t>
   </si>
@@ -907,6 +907,45 @@
   </si>
   <si>
     <t>[Arman%Zarghami%xref no email%1,       Mojtaba%Farjam%xref no email%1,       Bahareh%Fakhraei%xref no email%1,       Kosar%Hashemzadeh%xref no email%1,       Mohammad Hosein%Yazdanpanah%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,                Wei%Chen%NULL%0,                Saiduo%Liu%NULL%0,                Paul M.%Thompson%NULL%0,                Long Jiang%Zhang%NULL%0,                Fei%Xia%NULL%0,                Fang%Cheng%NULL%0,                Ailing%Hong%NULL%0,                Wesley%Surento%NULL%0,                Song%Luo%NULL%0,                Zhi Yuan%Sun%NULL%0,                Chang Sheng%Zhou%NULL%0,                Lingjiang%Li%NULL%0,                Xiangao%Jiang%NULL%0,                Guang Ming%Lu%NULL%0,                 R.%Qi%null%0,                 W.% Chen%null%0,                 S.% Liu%null%0,                 P. M.% Thompson%null%0,                 L. J.% Zhang%null%0,                 F.% Xia%null%0,                 F.% Cheng%null%0,                 A.% Hong%null%0,                 W.% Surento%null%0,                 S.% Luo%null%0,                 Z. Y.% Sun%null%0,                 C. S.% Zhou%null%0,                 L.% Li%null%0,                 X.% Jiang%null%0,                 G. M. % Lu%null%0,             R.%Qi%null%1,             W.% Chen%null%1,             S.% Liu%null%1,             P. M.% Thompson%null%1,             L. J.% Zhang%null%1,             F.% Xia%null%1,             F.% Cheng%null%1,             A.% Hong%null%1,             W.% Surento%null%1,             S.% Luo%null%1,             Z. Y.% Sun%null%1,             C. S.% Zhou%null%1,             L.% Li%null%1,             X.% Jiang%null%1,             G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,                Bilgin%Öztürk%Drbilgin@gmail.com%2,                Bilgin%Öztürk%Drbilgin@gmail.com%0,                Ali Rıza%Sonkaya%NULL%2,                Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                Mariangela%Pierantozzi%NULL%2,                Matteo%Spanetta%NULL%2,                Loredana%Sarmati%NULL%2,                Novella%Cesta%NULL%2,                Marco%Iannetta%NULL%2,                Josuel%Ora%NULL%2,                Grazia Genga%Mina%NULL%2,                Ermanno%Puxeddu%NULL%2,                Ottavia%Balbi%NULL%2,                Gabriella%Pezzuto%NULL%2,                Andrea%Magrini%NULL%2,                Paola%Rogliani%NULL%2,                Massimo%Andreoni%NULL%2,                Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                Mariangela%Pierantozzi%NULL%0,                Matteo%Spanetta%NULL%0,                Loredana%Sarmati%NULL%0,                Novella%Cesta%NULL%0,                Marco%Iannetta%NULL%0,                Josuel%Ora%NULL%0,                Grazia Genga%Mina%NULL%0,                Ermanno%Puxeddu%NULL%0,                Ottavia%Balbi%NULL%0,                Gabriella%Pezzuto%NULL%0,                Andrea%Magrini%NULL%0,                Paola%Rogliani%NULL%0,                Massimo%Andreoni%NULL%0,                Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,                Yuchen%Zheng%NULL%1,                Jia%Shi%NULL%1,                Jijun%Wang%NULL%1,                Guanjun%Li%NULL%1,                Chunbo%Li%NULL%1,                John A.%Fromson%NULL%1,                Yong%Xu%NULL%1,                Xiaohua%Liu%NULL%1,                Hua%Xu%NULL%1,                Tianhong%Zhang%NULL%1,                Yunfei%Lu%NULL%0,                Xiaorong%Chen%NULL%1,                Hao%Hu%NULL%1,                Yingying%Tang%NULL%1,                Shuwen%Yang%NULL%1,                Han%Zhou%NULL%1,                Xiaoliang%Wang%NULL%1,                Haiying%Chen%NULL%1,                Zhen%Wang%NULL%1,                Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ X.%Kong%null%1,                 K.% Zheng%null%1,                 M.% Tang%null%1,                 F.% Kong%null%1,                 J.% Zhou%null%1,                 L.% Diao%null%1,                 S.% Wu%null%1,                 P.% Jiao%null%1,                 T.% Su%null%1,                 Y. % Dong%null%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,                Guido%Mascialino%NULL%2,                Guido%Mascialino%NULL%0,                Lila%Adana‐Díaz%NULL%2,                Lila%Adana‐Díaz%NULL%0,                Alberto%Rodríguez‐Lorenzana%NULL%2,                Alberto%Rodríguez‐Lorenzana%NULL%0,                Katherine%Simbaña‐Rivera%NULL%2,                Katherine%Simbaña‐Rivera%NULL%0,                Lenin%Gómez‐Barreno%NULL%2,                Lenin%Gómez‐Barreno%NULL%0,                Maritza%Troya%NULL%2,                Maritza%Troya%NULL%0,                María Ignacia%Páez%NULL%2,                María Ignacia%Páez%NULL%0,                Javier%Cárdenas%NULL%2,                Javier%Cárdenas%NULL%0,                Rebekka M%Gerstner%NULL%2,                Rebekka M%Gerstner%NULL%0,                Esteban%Ortiz‐Prado%NULL%2,                Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,                Huipeng%Lu%NULL%1,                Haiping%Zeng%NULL%1,                Shining%Zhang%NULL%1,                Qifeng%Du%NULL%1,                Tingyun%Jiang%NULL%1,                Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,                Li-Yun%Zhu%NULL%2,                Yu-Fen%Ma%NULL%1,                Hai-Xin%Bo%NULL%2,                Hai-Bo%Deng%NULL%1,                Jing%Cao%NULL%2,                Ying%Wang%NULL%0,                Xiao-Jie%Wang%NULL%1,                Yuan%Xu%NULL%1,                Qiao-Dan%Lu%NULL%1,                Hui%Wang%NULL%1,                Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,                Yingying%Chen%NULL%1,                Yixiong%Zheng%NULL%1,                Ciping%You%NULL%1,                Jing%Tan%NULL%1,                Lan%Hu%NULL%1,                Zhenqing%Zhang%NULL%1,                Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,                Wen%Li%NULL%0,                Hai-Bao%Deng%NULL%1,                Lei%Wang%NULL%0,                Ying%Wang%NULL%0,                Pei-Hong%Wang%NULL%1,                Hai-Xin%Bo%NULL%0,                Jing%Cao%NULL%0,                Yu%Wang%NULL%0,                Li-Yun%Zhu%NULL%0,                Yuan%Yang%NULL%0,                Teris%Cheung%NULL%0,                Chee H.%Ng%NULL%1,                Xinjuan%Wu%wuxinjuan@sina.com%0,                Yu-Tao%Xiang%xyutly@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,                Zhen%Yang%NULL%1,                Xiao%Wang%NULL%0,                Juan%Li%NULL%2,                Lili%Dong%NULL%2,                Lili%Dong%NULL%0,                Fusheng%Wang%NULL%1,                Yifei%Li%NULL%1,                Ruihong%Wei%NULL%1,                Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Arman%Zarghami%xref no email%1,        Mojtaba%Farjam%xref no email%1,        Bahareh%Fakhraei%xref no email%1,        Kosar%Hashemzadeh%xref no email%1,        Mohammad Hosein%Yazdanpanah%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1298,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1288,7 +1327,7 @@
         <v>231</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1317,7 +1356,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1346,7 +1385,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1375,7 +1414,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1404,7 +1443,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1462,7 +1501,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1491,7 +1530,7 @@
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1520,7 +1559,7 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F11" t="s">
         <v>67</v>
@@ -1549,7 +1588,7 @@
         <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1578,7 +1617,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1607,7 +1646,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1665,7 +1704,7 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>

--- a/Covid_19_Dataset_and_References/References/75.xlsx
+++ b/Covid_19_Dataset_and_References/References/75.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="309">
   <si>
     <t>Doi</t>
   </si>
@@ -946,6 +946,84 @@
   </si>
   <si>
     <t>[Arman%Zarghami%xref no email%1,        Mojtaba%Farjam%xref no email%1,        Bahareh%Fakhraei%xref no email%1,        Kosar%Hashemzadeh%xref no email%1,        Mohammad Hosein%Yazdanpanah%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,                 Wei%Chen%NULL%0,                 Saiduo%Liu%NULL%0,                 Paul M.%Thompson%NULL%0,                 Long Jiang%Zhang%NULL%0,                 Fei%Xia%NULL%0,                 Fang%Cheng%NULL%0,                 Ailing%Hong%NULL%0,                 Wesley%Surento%NULL%0,                 Song%Luo%NULL%0,                 Zhi Yuan%Sun%NULL%0,                 Chang Sheng%Zhou%NULL%0,                 Lingjiang%Li%NULL%0,                 Xiangao%Jiang%NULL%0,                 Guang Ming%Lu%NULL%0,                  R.%Qi%null%0,                  W.% Chen%null%0,                  S.% Liu%null%0,                  P. M.% Thompson%null%0,                  L. J.% Zhang%null%0,                  F.% Xia%null%0,                  F.% Cheng%null%0,                  A.% Hong%null%0,                  W.% Surento%null%0,                  S.% Luo%null%0,                  Z. Y.% Sun%null%0,                  C. S.% Zhou%null%0,                  L.% Li%null%0,                  X.% Jiang%null%0,                  G. M. % Lu%null%0,              R.%Qi%null%1,              W.% Chen%null%1,              S.% Liu%null%1,              P. M.% Thompson%null%1,              L. J.% Zhang%null%1,              F.% Xia%null%1,              F.% Cheng%null%1,              A.% Hong%null%1,              W.% Surento%null%1,              S.% Luo%null%1,              Z. Y.% Sun%null%1,              C. S.% Zhou%null%1,              L.% Li%null%1,              X.% Jiang%null%1,              G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,                 Bilgin%Öztürk%Drbilgin@gmail.com%2,                 Bilgin%Öztürk%Drbilgin@gmail.com%0,                 Ali Rıza%Sonkaya%NULL%2,                 Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                 Mariangela%Pierantozzi%NULL%2,                 Matteo%Spanetta%NULL%2,                 Loredana%Sarmati%NULL%2,                 Novella%Cesta%NULL%2,                 Marco%Iannetta%NULL%2,                 Josuel%Ora%NULL%2,                 Grazia Genga%Mina%NULL%2,                 Ermanno%Puxeddu%NULL%2,                 Ottavia%Balbi%NULL%2,                 Gabriella%Pezzuto%NULL%2,                 Andrea%Magrini%NULL%2,                 Paola%Rogliani%NULL%2,                 Massimo%Andreoni%NULL%2,                 Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                 Mariangela%Pierantozzi%NULL%0,                 Matteo%Spanetta%NULL%0,                 Loredana%Sarmati%NULL%0,                 Novella%Cesta%NULL%0,                 Marco%Iannetta%NULL%0,                 Josuel%Ora%NULL%0,                 Grazia Genga%Mina%NULL%0,                 Ermanno%Puxeddu%NULL%0,                 Ottavia%Balbi%NULL%0,                 Gabriella%Pezzuto%NULL%0,                 Andrea%Magrini%NULL%0,                 Paola%Rogliani%NULL%0,                 Massimo%Andreoni%NULL%0,                 Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,                 Yuchen%Zheng%NULL%1,                 Jia%Shi%NULL%1,                 Jijun%Wang%NULL%1,                 Guanjun%Li%NULL%1,                 Chunbo%Li%NULL%1,                 John A.%Fromson%NULL%1,                 Yong%Xu%NULL%1,                 Xiaohua%Liu%NULL%1,                 Hua%Xu%NULL%1,                 Tianhong%Zhang%NULL%1,                 Yunfei%Lu%NULL%0,                 Xiaorong%Chen%NULL%1,                 Hao%Hu%NULL%1,                 Yingying%Tang%NULL%1,                 Shuwen%Yang%NULL%1,                 Han%Zhou%NULL%1,                 Xiaoliang%Wang%NULL%1,                 Haiying%Chen%NULL%1,                 Zhen%Wang%NULL%1,                 Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ X.%Kong%null%1,                  K.% Zheng%null%1,                  M.% Tang%null%1,                  F.% Kong%null%1,                  J.% Zhou%null%1,                  L.% Diao%null%1,                  S.% Wu%null%1,                  P.% Jiao%null%1,                  T.% Su%null%1,                  Y. % Dong%null%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,                 Guido%Mascialino%NULL%2,                 Guido%Mascialino%NULL%0,                 Lila%Adana‐Díaz%NULL%2,                 Lila%Adana‐Díaz%NULL%0,                 Alberto%Rodríguez‐Lorenzana%NULL%2,                 Alberto%Rodríguez‐Lorenzana%NULL%0,                 Katherine%Simbaña‐Rivera%NULL%2,                 Katherine%Simbaña‐Rivera%NULL%0,                 Lenin%Gómez‐Barreno%NULL%2,                 Lenin%Gómez‐Barreno%NULL%0,                 Maritza%Troya%NULL%2,                 Maritza%Troya%NULL%0,                 María Ignacia%Páez%NULL%2,                 María Ignacia%Páez%NULL%0,                 Javier%Cárdenas%NULL%2,                 Javier%Cárdenas%NULL%0,                 Rebekka M%Gerstner%NULL%2,                 Rebekka M%Gerstner%NULL%0,                 Esteban%Ortiz‐Prado%NULL%2,                 Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,                 Huipeng%Lu%NULL%1,                 Haiping%Zeng%NULL%1,                 Shining%Zhang%NULL%1,                 Qifeng%Du%NULL%1,                 Tingyun%Jiang%NULL%1,                 Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,                 Li-Yun%Zhu%NULL%2,                 Yu-Fen%Ma%NULL%1,                 Hai-Xin%Bo%NULL%2,                 Hai-Bo%Deng%NULL%1,                 Jing%Cao%NULL%2,                 Ying%Wang%NULL%0,                 Xiao-Jie%Wang%NULL%1,                 Yuan%Xu%NULL%1,                 Qiao-Dan%Lu%NULL%1,                 Hui%Wang%NULL%1,                 Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,                 Yingying%Chen%NULL%1,                 Yixiong%Zheng%NULL%1,                 Ciping%You%NULL%1,                 Jing%Tan%NULL%1,                 Lan%Hu%NULL%1,                 Zhenqing%Zhang%NULL%1,                 Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,                 Wen%Li%NULL%0,                 Hai-Bao%Deng%NULL%1,                 Lei%Wang%NULL%0,                 Ying%Wang%NULL%0,                 Pei-Hong%Wang%NULL%1,                 Hai-Xin%Bo%NULL%0,                 Jing%Cao%NULL%0,                 Yu%Wang%NULL%0,                 Li-Yun%Zhu%NULL%0,                 Yuan%Yang%NULL%0,                 Teris%Cheung%NULL%0,                 Chee H.%Ng%NULL%1,                 Xinjuan%Wu%wuxinjuan@sina.com%0,                 Yu-Tao%Xiang%xyutly@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,                 Zhen%Yang%NULL%1,                 Xiao%Wang%NULL%0,                 Juan%Li%NULL%2,                 Lili%Dong%NULL%2,                 Lili%Dong%NULL%0,                 Fusheng%Wang%NULL%1,                 Yifei%Li%NULL%1,                 Ruihong%Wei%NULL%1,                 Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Arman%Zarghami%xref no email%1,         Mojtaba%Farjam%xref no email%1,         Bahareh%Fakhraei%xref no email%1,         Kosar%Hashemzadeh%xref no email%1,         Mohammad Hosein%Yazdanpanah%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,                  Wei%Chen%NULL%0,                  Saiduo%Liu%NULL%0,                  Paul M.%Thompson%NULL%0,                  Long Jiang%Zhang%NULL%0,                  Fei%Xia%NULL%0,                  Fang%Cheng%NULL%0,                  Ailing%Hong%NULL%0,                  Wesley%Surento%NULL%0,                  Song%Luo%NULL%0,                  Zhi Yuan%Sun%NULL%0,                  Chang Sheng%Zhou%NULL%0,                  Lingjiang%Li%NULL%0,                  Xiangao%Jiang%NULL%0,                  Guang Ming%Lu%NULL%0,                   R.%Qi%null%0,                   W.% Chen%null%0,                   S.% Liu%null%0,                   P. M.% Thompson%null%0,                   L. J.% Zhang%null%0,                   F.% Xia%null%0,                   F.% Cheng%null%0,                   A.% Hong%null%0,                   W.% Surento%null%0,                   S.% Luo%null%0,                   Z. Y.% Sun%null%0,                   C. S.% Zhou%null%0,                   L.% Li%null%0,                   X.% Jiang%null%0,                   G. M. % Lu%null%0,               R.%Qi%null%1,               W.% Chen%null%1,               S.% Liu%null%1,               P. M.% Thompson%null%1,               L. J.% Zhang%null%1,               F.% Xia%null%1,               F.% Cheng%null%1,               A.% Hong%null%1,               W.% Surento%null%1,               S.% Luo%null%1,               Z. Y.% Sun%null%1,               C. S.% Zhou%null%1,               L.% Li%null%1,               X.% Jiang%null%1,               G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,                  Bilgin%Öztürk%Drbilgin@gmail.com%2,                  Bilgin%Öztürk%Drbilgin@gmail.com%0,                  Ali Rıza%Sonkaya%NULL%2,                  Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                  Mariangela%Pierantozzi%NULL%2,                  Matteo%Spanetta%NULL%2,                  Loredana%Sarmati%NULL%2,                  Novella%Cesta%NULL%2,                  Marco%Iannetta%NULL%2,                  Josuel%Ora%NULL%2,                  Grazia Genga%Mina%NULL%2,                  Ermanno%Puxeddu%NULL%2,                  Ottavia%Balbi%NULL%2,                  Gabriella%Pezzuto%NULL%2,                  Andrea%Magrini%NULL%2,                  Paola%Rogliani%NULL%2,                  Massimo%Andreoni%NULL%2,                  Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                  Mariangela%Pierantozzi%NULL%0,                  Matteo%Spanetta%NULL%0,                  Loredana%Sarmati%NULL%0,                  Novella%Cesta%NULL%0,                  Marco%Iannetta%NULL%0,                  Josuel%Ora%NULL%0,                  Grazia Genga%Mina%NULL%0,                  Ermanno%Puxeddu%NULL%0,                  Ottavia%Balbi%NULL%0,                  Gabriella%Pezzuto%NULL%0,                  Andrea%Magrini%NULL%0,                  Paola%Rogliani%NULL%0,                  Massimo%Andreoni%NULL%0,                  Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,                  Yuchen%Zheng%NULL%1,                  Jia%Shi%NULL%1,                  Jijun%Wang%NULL%1,                  Guanjun%Li%NULL%1,                  Chunbo%Li%NULL%1,                  John A.%Fromson%NULL%1,                  Yong%Xu%NULL%1,                  Xiaohua%Liu%NULL%1,                  Hua%Xu%NULL%1,                  Tianhong%Zhang%NULL%1,                  Yunfei%Lu%NULL%0,                  Xiaorong%Chen%NULL%1,                  Hao%Hu%NULL%1,                  Yingying%Tang%NULL%1,                  Shuwen%Yang%NULL%1,                  Han%Zhou%NULL%1,                  Xiaoliang%Wang%NULL%1,                  Haiying%Chen%NULL%1,                  Zhen%Wang%NULL%1,                  Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ X.%Kong%null%1,                   K.% Zheng%null%1,                   M.% Tang%null%1,                   F.% Kong%null%1,                   J.% Zhou%null%1,                   L.% Diao%null%1,                   S.% Wu%null%1,                   P.% Jiao%null%1,                   T.% Su%null%1,                   Y. % Dong%null%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,                  Guido%Mascialino%NULL%2,                  Guido%Mascialino%NULL%0,                  Lila%Adana‐Díaz%NULL%2,                  Lila%Adana‐Díaz%NULL%0,                  Alberto%Rodríguez‐Lorenzana%NULL%2,                  Alberto%Rodríguez‐Lorenzana%NULL%0,                  Katherine%Simbaña‐Rivera%NULL%2,                  Katherine%Simbaña‐Rivera%NULL%0,                  Lenin%Gómez‐Barreno%NULL%2,                  Lenin%Gómez‐Barreno%NULL%0,                  Maritza%Troya%NULL%2,                  Maritza%Troya%NULL%0,                  María Ignacia%Páez%NULL%2,                  María Ignacia%Páez%NULL%0,                  Javier%Cárdenas%NULL%2,                  Javier%Cárdenas%NULL%0,                  Rebekka M%Gerstner%NULL%2,                  Rebekka M%Gerstner%NULL%0,                  Esteban%Ortiz‐Prado%NULL%2,                  Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,                  Huipeng%Lu%NULL%1,                  Haiping%Zeng%NULL%1,                  Shining%Zhang%NULL%1,                  Qifeng%Du%NULL%1,                  Tingyun%Jiang%NULL%1,                  Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,                  Li-Yun%Zhu%NULL%2,                  Yu-Fen%Ma%NULL%1,                  Hai-Xin%Bo%NULL%2,                  Hai-Bo%Deng%NULL%1,                  Jing%Cao%NULL%2,                  Ying%Wang%NULL%0,                  Xiao-Jie%Wang%NULL%1,                  Yuan%Xu%NULL%1,                  Qiao-Dan%Lu%NULL%1,                  Hui%Wang%NULL%1,                  Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,                  Yingying%Chen%NULL%1,                  Yixiong%Zheng%NULL%1,                  Ciping%You%NULL%1,                  Jing%Tan%NULL%1,                  Lan%Hu%NULL%1,                  Zhenqing%Zhang%NULL%1,                  Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,                  Wen%Li%NULL%0,                  Hai-Bao%Deng%NULL%1,                  Lei%Wang%NULL%0,                  Ying%Wang%NULL%0,                  Pei-Hong%Wang%NULL%1,                  Hai-Xin%Bo%NULL%0,                  Jing%Cao%NULL%0,                  Yu%Wang%NULL%0,                  Li-Yun%Zhu%NULL%0,                  Yuan%Yang%NULL%0,                  Teris%Cheung%NULL%0,                  Chee H.%Ng%NULL%1,                  Xinjuan%Wu%wuxinjuan@sina.com%0,                  Yu-Tao%Xiang%xyutly@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,                  Zhen%Yang%NULL%1,                  Xiao%Wang%NULL%0,                  Juan%Li%NULL%2,                  Lili%Dong%NULL%2,                  Lili%Dong%NULL%0,                  Fusheng%Wang%NULL%1,                  Yifei%Li%NULL%1,                  Ruihong%Wei%NULL%1,                  Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Arman%Zarghami%xref no email%1,          Mojtaba%Farjam%xref no email%1,          Bahareh%Fakhraei%xref no email%1,          Kosar%Hashemzadeh%xref no email%1,          Mohammad Hosein%Yazdanpanah%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1376,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1327,7 +1405,7 @@
         <v>231</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1356,7 +1434,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1385,7 +1463,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1414,7 +1492,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1443,7 +1521,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1501,7 +1579,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1530,7 +1608,7 @@
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1559,7 +1637,7 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="F11" t="s">
         <v>67</v>
@@ -1588,7 +1666,7 @@
         <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1617,7 +1695,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1646,7 +1724,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1704,7 +1782,7 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>

--- a/Covid_19_Dataset_and_References/References/75.xlsx
+++ b/Covid_19_Dataset_and_References/References/75.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="322">
   <si>
     <t>Doi</t>
   </si>
@@ -1024,6 +1024,45 @@
   </si>
   <si>
     <t>[Arman%Zarghami%xref no email%1,          Mojtaba%Farjam%xref no email%1,          Bahareh%Fakhraei%xref no email%1,          Kosar%Hashemzadeh%xref no email%1,          Mohammad Hosein%Yazdanpanah%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,                   Wei%Chen%NULL%0,                   Saiduo%Liu%NULL%0,                   Paul M.%Thompson%NULL%0,                   Long Jiang%Zhang%NULL%0,                   Fei%Xia%NULL%0,                   Fang%Cheng%NULL%0,                   Ailing%Hong%NULL%0,                   Wesley%Surento%NULL%0,                   Song%Luo%NULL%0,                   Zhi Yuan%Sun%NULL%0,                   Chang Sheng%Zhou%NULL%0,                   Lingjiang%Li%NULL%0,                   Xiangao%Jiang%NULL%0,                   Guang Ming%Lu%NULL%0,                    R.%Qi%null%0,                    W.% Chen%null%0,                    S.% Liu%null%0,                    P. M.% Thompson%null%0,                    L. J.% Zhang%null%0,                    F.% Xia%null%0,                    F.% Cheng%null%0,                    A.% Hong%null%0,                    W.% Surento%null%0,                    S.% Luo%null%0,                    Z. Y.% Sun%null%0,                    C. S.% Zhou%null%0,                    L.% Li%null%0,                    X.% Jiang%null%0,                    G. M. % Lu%null%0,                R.%Qi%null%1,                W.% Chen%null%1,                S.% Liu%null%1,                P. M.% Thompson%null%1,                L. J.% Zhang%null%1,                F.% Xia%null%1,                F.% Cheng%null%1,                A.% Hong%null%1,                W.% Surento%null%1,                S.% Luo%null%1,                Z. Y.% Sun%null%1,                C. S.% Zhou%null%1,                L.% Li%null%1,                X.% Jiang%null%1,                G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,                   Bilgin%Öztürk%Drbilgin@gmail.com%2,                   Bilgin%Öztürk%Drbilgin@gmail.com%0,                   Ali Rıza%Sonkaya%NULL%2,                   Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                   Mariangela%Pierantozzi%NULL%2,                   Matteo%Spanetta%NULL%2,                   Loredana%Sarmati%NULL%2,                   Novella%Cesta%NULL%2,                   Marco%Iannetta%NULL%2,                   Josuel%Ora%NULL%2,                   Grazia Genga%Mina%NULL%2,                   Ermanno%Puxeddu%NULL%2,                   Ottavia%Balbi%NULL%2,                   Gabriella%Pezzuto%NULL%2,                   Andrea%Magrini%NULL%2,                   Paola%Rogliani%NULL%2,                   Massimo%Andreoni%NULL%2,                   Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                   Mariangela%Pierantozzi%NULL%0,                   Matteo%Spanetta%NULL%0,                   Loredana%Sarmati%NULL%0,                   Novella%Cesta%NULL%0,                   Marco%Iannetta%NULL%0,                   Josuel%Ora%NULL%0,                   Grazia Genga%Mina%NULL%0,                   Ermanno%Puxeddu%NULL%0,                   Ottavia%Balbi%NULL%0,                   Gabriella%Pezzuto%NULL%0,                   Andrea%Magrini%NULL%0,                   Paola%Rogliani%NULL%0,                   Massimo%Andreoni%NULL%0,                   Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,                   Yuchen%Zheng%NULL%1,                   Jia%Shi%NULL%1,                   Jijun%Wang%NULL%1,                   Guanjun%Li%NULL%1,                   Chunbo%Li%NULL%1,                   John A.%Fromson%NULL%1,                   Yong%Xu%NULL%1,                   Xiaohua%Liu%NULL%1,                   Hua%Xu%NULL%1,                   Tianhong%Zhang%NULL%1,                   Yunfei%Lu%NULL%0,                   Xiaorong%Chen%NULL%1,                   Hao%Hu%NULL%1,                   Yingying%Tang%NULL%1,                   Shuwen%Yang%NULL%1,                   Han%Zhou%NULL%1,                   Xiaoliang%Wang%NULL%1,                   Haiying%Chen%NULL%1,                   Zhen%Wang%NULL%1,                   Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ X.%Kong%null%1,                    K.% Zheng%null%1,                    M.% Tang%null%1,                    F.% Kong%null%1,                    J.% Zhou%null%1,                    L.% Diao%null%1,                    S.% Wu%null%1,                    P.% Jiao%null%1,                    T.% Su%null%1,                    Y. % Dong%null%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,                   Guido%Mascialino%NULL%2,                   Guido%Mascialino%NULL%0,                   Lila%Adana‐Díaz%NULL%2,                   Lila%Adana‐Díaz%NULL%0,                   Alberto%Rodríguez‐Lorenzana%NULL%2,                   Alberto%Rodríguez‐Lorenzana%NULL%0,                   Katherine%Simbaña‐Rivera%NULL%2,                   Katherine%Simbaña‐Rivera%NULL%0,                   Lenin%Gómez‐Barreno%NULL%2,                   Lenin%Gómez‐Barreno%NULL%0,                   Maritza%Troya%NULL%2,                   Maritza%Troya%NULL%0,                   María Ignacia%Páez%NULL%2,                   María Ignacia%Páez%NULL%0,                   Javier%Cárdenas%NULL%2,                   Javier%Cárdenas%NULL%0,                   Rebekka M%Gerstner%NULL%2,                   Rebekka M%Gerstner%NULL%0,                   Esteban%Ortiz‐Prado%NULL%2,                   Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,                   Huipeng%Lu%NULL%1,                   Haiping%Zeng%NULL%1,                   Shining%Zhang%NULL%1,                   Qifeng%Du%NULL%1,                   Tingyun%Jiang%NULL%1,                   Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,                   Li-Yun%Zhu%NULL%2,                   Yu-Fen%Ma%NULL%1,                   Hai-Xin%Bo%NULL%2,                   Hai-Bo%Deng%NULL%1,                   Jing%Cao%NULL%2,                   Ying%Wang%NULL%0,                   Xiao-Jie%Wang%NULL%1,                   Yuan%Xu%NULL%1,                   Qiao-Dan%Lu%NULL%1,                   Hui%Wang%NULL%1,                   Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,                   Yingying%Chen%NULL%1,                   Yixiong%Zheng%NULL%1,                   Ciping%You%NULL%1,                   Jing%Tan%NULL%1,                   Lan%Hu%NULL%1,                   Zhenqing%Zhang%NULL%1,                   Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,                   Wen%Li%NULL%0,                   Hai-Bao%Deng%NULL%1,                   Lei%Wang%NULL%0,                   Ying%Wang%NULL%0,                   Pei-Hong%Wang%NULL%1,                   Hai-Xin%Bo%NULL%0,                   Jing%Cao%NULL%0,                   Yu%Wang%NULL%0,                   Li-Yun%Zhu%NULL%0,                   Yuan%Yang%NULL%0,                   Teris%Cheung%NULL%0,                   Chee H.%Ng%NULL%1,                   Xinjuan%Wu%wuxinjuan@sina.com%0,                   Yu-Tao%Xiang%xyutly@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,                   Zhen%Yang%NULL%1,                   Xiao%Wang%NULL%0,                   Juan%Li%NULL%2,                   Lili%Dong%NULL%2,                   Lili%Dong%NULL%0,                   Fusheng%Wang%NULL%1,                   Yifei%Li%NULL%1,                   Ruihong%Wei%NULL%1,                   Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Arman%Zarghami%xref no email%1,           Mojtaba%Farjam%xref no email%1,           Bahareh%Fakhraei%xref no email%1,           Kosar%Hashemzadeh%xref no email%1,           Mohammad Hosein%Yazdanpanah%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1415,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1405,7 +1444,7 @@
         <v>231</v>
       </c>
       <c r="E3" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1434,7 +1473,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1463,7 +1502,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1492,7 +1531,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1521,7 +1560,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1579,7 +1618,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1608,7 +1647,7 @@
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1637,7 +1676,7 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="F11" t="s">
         <v>67</v>
@@ -1666,7 +1705,7 @@
         <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1695,7 +1734,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1724,7 +1763,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1782,7 +1821,7 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>

--- a/Covid_19_Dataset_and_References/References/75.xlsx
+++ b/Covid_19_Dataset_and_References/References/75.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="340">
   <si>
     <t>Doi</t>
   </si>
@@ -1063,6 +1063,60 @@
   </si>
   <si>
     <t>[Arman%Zarghami%xref no email%1,           Mojtaba%Farjam%xref no email%1,           Bahareh%Fakhraei%xref no email%1,           Kosar%Hashemzadeh%xref no email%1,           Mohammad Hosein%Yazdanpanah%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,                    Wei%Chen%NULL%0,                    Saiduo%Liu%NULL%0,                    Paul M.%Thompson%NULL%0,                    Long Jiang%Zhang%NULL%0,                    Fei%Xia%NULL%0,                    Fang%Cheng%NULL%0,                    Ailing%Hong%NULL%0,                    Wesley%Surento%NULL%0,                    Song%Luo%NULL%0,                    Zhi Yuan%Sun%NULL%0,                    Chang Sheng%Zhou%NULL%0,                    Lingjiang%Li%NULL%0,                    Xiangao%Jiang%NULL%0,                    Guang Ming%Lu%NULL%0,                     R.%Qi%null%0,                     W.% Chen%null%0,                     S.% Liu%null%0,                     P. M.% Thompson%null%0,                     L. J.% Zhang%null%0,                     F.% Xia%null%0,                     F.% Cheng%null%0,                     A.% Hong%null%0,                     W.% Surento%null%0,                     S.% Luo%null%0,                     Z. Y.% Sun%null%0,                     C. S.% Zhou%null%0,                     L.% Li%null%0,                     X.% Jiang%null%0,                     G. M. % Lu%null%0,                 R.%Qi%null%1,                 W.% Chen%null%1,                 S.% Liu%null%1,                 P. M.% Thompson%null%1,                 L. J.% Zhang%null%1,                 F.% Xia%null%1,                 F.% Cheng%null%1,                 A.% Hong%null%1,                 W.% Surento%null%1,                 S.% Luo%null%1,                 Z. Y.% Sun%null%1,                 C. S.% Zhou%null%1,                 L.% Li%null%1,                 X.% Jiang%null%1,                 G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,                    Bilgin%Öztürk%Drbilgin@gmail.com%2,                    Bilgin%Öztürk%Drbilgin@gmail.com%0,                    Ali Rıza%Sonkaya%NULL%2,                    Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                    Mariangela%Pierantozzi%NULL%2,                    Matteo%Spanetta%NULL%2,                    Loredana%Sarmati%NULL%2,                    Novella%Cesta%NULL%2,                    Marco%Iannetta%NULL%2,                    Josuel%Ora%NULL%2,                    Grazia Genga%Mina%NULL%2,                    Ermanno%Puxeddu%NULL%2,                    Ottavia%Balbi%NULL%2,                    Gabriella%Pezzuto%NULL%2,                    Andrea%Magrini%NULL%2,                    Paola%Rogliani%NULL%2,                    Massimo%Andreoni%NULL%2,                    Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                    Mariangela%Pierantozzi%NULL%0,                    Matteo%Spanetta%NULL%0,                    Loredana%Sarmati%NULL%0,                    Novella%Cesta%NULL%0,                    Marco%Iannetta%NULL%0,                    Josuel%Ora%NULL%0,                    Grazia Genga%Mina%NULL%0,                    Ermanno%Puxeddu%NULL%0,                    Ottavia%Balbi%NULL%0,                    Gabriella%Pezzuto%NULL%0,                    Andrea%Magrini%NULL%0,                    Paola%Rogliani%NULL%0,                    Massimo%Andreoni%NULL%0,                    Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,                    Yuchen%Zheng%NULL%1,                    Jia%Shi%NULL%1,                    Jijun%Wang%NULL%1,                    Guanjun%Li%NULL%1,                    Chunbo%Li%NULL%1,                    John A.%Fromson%NULL%1,                    Yong%Xu%NULL%1,                    Xiaohua%Liu%NULL%1,                    Hua%Xu%NULL%1,                    Tianhong%Zhang%NULL%1,                    Yunfei%Lu%NULL%0,                    Xiaorong%Chen%NULL%1,                    Hao%Hu%NULL%1,                    Yingying%Tang%NULL%1,                    Shuwen%Yang%NULL%1,                    Han%Zhou%NULL%1,                    Xiaoliang%Wang%NULL%1,                    Haiying%Chen%NULL%1,                    Zhen%Wang%NULL%1,                    Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ X.%Kong%null%1,                     K.% Zheng%null%1,                     M.% Tang%null%1,                     F.% Kong%null%1,                     J.% Zhou%null%1,                     L.% Diao%null%1,                     S.% Wu%null%1,                     P.% Jiao%null%1,                     T.% Su%null%1,                     Y. % Dong%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv_CROSSREF</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,                    Guido%Mascialino%NULL%2,                    Guido%Mascialino%NULL%0,                    Lila%Adana‐Díaz%NULL%2,                    Lila%Adana‐Díaz%NULL%0,                    Alberto%Rodríguez‐Lorenzana%NULL%2,                    Alberto%Rodríguez‐Lorenzana%NULL%0,                    Katherine%Simbaña‐Rivera%NULL%2,                    Katherine%Simbaña‐Rivera%NULL%0,                    Lenin%Gómez‐Barreno%NULL%2,                    Lenin%Gómez‐Barreno%NULL%0,                    Maritza%Troya%NULL%2,                    Maritza%Troya%NULL%0,                    María Ignacia%Páez%NULL%2,                    María Ignacia%Páez%NULL%0,                    Javier%Cárdenas%NULL%2,                    Javier%Cárdenas%NULL%0,                    Rebekka M%Gerstner%NULL%2,                    Rebekka M%Gerstner%NULL%0,                    Esteban%Ortiz‐Prado%NULL%2,                    Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,                    Huipeng%Lu%NULL%1,                    Haiping%Zeng%NULL%1,                    Shining%Zhang%NULL%1,                    Qifeng%Du%NULL%1,                    Tingyun%Jiang%NULL%1,                    Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,                    Li-Yun%Zhu%NULL%2,                    Yu-Fen%Ma%NULL%1,                    Hai-Xin%Bo%NULL%2,                    Hai-Bo%Deng%NULL%1,                    Jing%Cao%NULL%2,                    Ying%Wang%NULL%0,                    Xiao-Jie%Wang%NULL%1,                    Yuan%Xu%NULL%1,                    Qiao-Dan%Lu%NULL%1,                    Hui%Wang%NULL%1,                    Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,                    Yingying%Chen%NULL%1,                    Yixiong%Zheng%NULL%1,                    Ciping%You%NULL%1,                    Jing%Tan%NULL%1,                    Lan%Hu%NULL%1,                    Zhenqing%Zhang%NULL%1,                    Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,                    Wen%Li%NULL%0,                    Hai-Bao%Deng%NULL%1,                    Lei%Wang%NULL%0,                    Ying%Wang%NULL%0,                    Pei-Hong%Wang%NULL%1,                    Hai-Xin%Bo%NULL%0,                    Jing%Cao%NULL%0,                    Yu%Wang%NULL%0,                    Li-Yun%Zhu%NULL%0,                    Yuan%Yang%NULL%0,                    Teris%Cheung%NULL%0,                    Chee H.%Ng%NULL%1,                    Xinjuan%Wu%wuxinjuan@sina.com%0,                    Yu-Tao%Xiang%xyutly@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,                    Zhen%Yang%NULL%1,                    Xiao%Wang%NULL%0,                    Juan%Li%NULL%2,                    Lili%Dong%NULL%2,                    Lili%Dong%NULL%0,                    Fusheng%Wang%NULL%1,                    Yifei%Li%NULL%1,                    Ruihong%Wei%NULL%1,                    Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Arman%Zarghami%xref no email%1,            Mojtaba%Farjam%xref no email%1,            Bahareh%Fakhraei%xref no email%1,            Kosar%Hashemzadeh%xref no email%1,            Mohammad Hosein%Yazdanpanah%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1469,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1427,7 +1481,7 @@
         <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3">
@@ -1444,7 +1498,7 @@
         <v>231</v>
       </c>
       <c r="E3" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1456,7 +1510,7 @@
         <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>126</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4">
@@ -1473,7 +1527,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1485,7 +1539,7 @@
         <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>128</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5">
@@ -1502,7 +1556,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1514,7 +1568,7 @@
         <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6">
@@ -1531,7 +1585,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1543,7 +1597,7 @@
         <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7">
@@ -1560,7 +1614,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1572,7 +1626,7 @@
         <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8">
@@ -1601,7 +1655,7 @@
         <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9">
@@ -1618,7 +1672,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1630,7 +1684,7 @@
         <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>124</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10">
@@ -1647,7 +1701,7 @@
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1659,7 +1713,7 @@
         <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11">
@@ -1676,7 +1730,7 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="F11" t="s">
         <v>67</v>
@@ -1688,7 +1742,7 @@
         <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12">
@@ -1705,7 +1759,7 @@
         <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1717,7 +1771,7 @@
         <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13">
@@ -1734,7 +1788,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1746,7 +1800,7 @@
         <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14">
@@ -1763,7 +1817,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1775,7 +1829,7 @@
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15">
@@ -1821,7 +1875,7 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -1833,7 +1887,7 @@
         <v>190</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/75.xlsx
+++ b/Covid_19_Dataset_and_References/References/75.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="353">
   <si>
     <t>Doi</t>
   </si>
@@ -1117,6 +1117,45 @@
   </si>
   <si>
     <t>[Arman%Zarghami%xref no email%1,            Mojtaba%Farjam%xref no email%1,            Bahareh%Fakhraei%xref no email%1,            Kosar%Hashemzadeh%xref no email%1,            Mohammad Hosein%Yazdanpanah%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,                     Wei%Chen%NULL%0,                     Saiduo%Liu%NULL%0,                     Paul M.%Thompson%NULL%0,                     Long Jiang%Zhang%NULL%0,                     Fei%Xia%NULL%0,                     Fang%Cheng%NULL%0,                     Ailing%Hong%NULL%0,                     Wesley%Surento%NULL%0,                     Song%Luo%NULL%0,                     Zhi Yuan%Sun%NULL%0,                     Chang Sheng%Zhou%NULL%0,                     Lingjiang%Li%NULL%0,                     Xiangao%Jiang%NULL%0,                     Guang Ming%Lu%NULL%0,                      R.%Qi%null%0,                      W.% Chen%null%0,                      S.% Liu%null%0,                      P. M.% Thompson%null%0,                      L. J.% Zhang%null%0,                      F.% Xia%null%0,                      F.% Cheng%null%0,                      A.% Hong%null%0,                      W.% Surento%null%0,                      S.% Luo%null%0,                      Z. Y.% Sun%null%0,                      C. S.% Zhou%null%0,                      L.% Li%null%0,                      X.% Jiang%null%0,                      G. M. % Lu%null%0,                  R.%Qi%null%1,                  W.% Chen%null%1,                  S.% Liu%null%1,                  P. M.% Thompson%null%1,                  L. J.% Zhang%null%1,                  F.% Xia%null%1,                  F.% Cheng%null%1,                  A.% Hong%null%1,                  W.% Surento%null%1,                  S.% Luo%null%1,                  Z. Y.% Sun%null%1,                  C. S.% Zhou%null%1,                  L.% Li%null%1,                  X.% Jiang%null%1,                  G. M. % Lu%null%1,  R.%Qi%null%0,  W.% Chen%null%0,  S.% Liu%null%0,  P. M.% Thompson%null%0,  L. J.% Zhang%null%0,  F.% Xia%null%0,  F.% Cheng%null%0,  A.% Hong%null%0,  W.% Surento%null%0,  S.% Luo%null%0,  Z. Y.% Sun%null%0,  C. S.% Zhou%null%0,  L.% Li%null%0,  X.% Jiang%null%0,  G. M. % Lu%null%0]</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,                     Bilgin%Öztürk%Drbilgin@gmail.com%2,                     Bilgin%Öztürk%Drbilgin@gmail.com%0,                     Ali Rıza%Sonkaya%NULL%2,                     Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                     Mariangela%Pierantozzi%NULL%2,                     Matteo%Spanetta%NULL%2,                     Loredana%Sarmati%NULL%2,                     Novella%Cesta%NULL%2,                     Marco%Iannetta%NULL%2,                     Josuel%Ora%NULL%2,                     Grazia Genga%Mina%NULL%2,                     Ermanno%Puxeddu%NULL%2,                     Ottavia%Balbi%NULL%2,                     Gabriella%Pezzuto%NULL%2,                     Andrea%Magrini%NULL%2,                     Paola%Rogliani%NULL%2,                     Massimo%Andreoni%NULL%2,                     Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                     Mariangela%Pierantozzi%NULL%0,                     Matteo%Spanetta%NULL%0,                     Loredana%Sarmati%NULL%0,                     Novella%Cesta%NULL%0,                     Marco%Iannetta%NULL%0,                     Josuel%Ora%NULL%0,                     Grazia Genga%Mina%NULL%0,                     Ermanno%Puxeddu%NULL%0,                     Ottavia%Balbi%NULL%0,                     Gabriella%Pezzuto%NULL%0,                     Andrea%Magrini%NULL%0,                     Paola%Rogliani%NULL%0,                     Massimo%Andreoni%NULL%0,                     Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,                     Yuchen%Zheng%NULL%1,                     Jia%Shi%NULL%1,                     Jijun%Wang%NULL%1,                     Guanjun%Li%NULL%1,                     Chunbo%Li%NULL%1,                     John A.%Fromson%NULL%1,                     Yong%Xu%NULL%1,                     Xiaohua%Liu%NULL%1,                     Hua%Xu%NULL%1,                     Tianhong%Zhang%NULL%1,                     Yunfei%Lu%NULL%0,                     Xiaorong%Chen%NULL%1,                     Hao%Hu%NULL%1,                     Yingying%Tang%NULL%1,                     Shuwen%Yang%NULL%1,                     Han%Zhou%NULL%1,                     Xiaoliang%Wang%NULL%1,                     Haiying%Chen%NULL%1,                     Zhen%Wang%NULL%1,                     Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ X.%Kong%null%2,                      K.% Zheng%null%1,                      M.% Tang%null%1,                      F.% Kong%null%1,                      J.% Zhou%null%1,                      L.% Diao%null%1,                      S.% Wu%null%1,                      P.% Jiao%null%1,                      T.% Su%null%1,                      Y. % Dong%null%1,  X.%Kong%null%0,  K.% Zheng%null%1,  M.% Tang%null%1,  F.% Kong%null%1,  J.% Zhou%null%0,  L.% Diao%null%1,  S.% Wu%null%1,  P.% Jiao%null%1,  T.% Su%null%1,  Y. % Dong%null%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,                     Guido%Mascialino%NULL%2,                     Guido%Mascialino%NULL%0,                     Lila%Adana‐Díaz%NULL%2,                     Lila%Adana‐Díaz%NULL%0,                     Alberto%Rodríguez‐Lorenzana%NULL%2,                     Alberto%Rodríguez‐Lorenzana%NULL%0,                     Katherine%Simbaña‐Rivera%NULL%2,                     Katherine%Simbaña‐Rivera%NULL%0,                     Lenin%Gómez‐Barreno%NULL%2,                     Lenin%Gómez‐Barreno%NULL%0,                     Maritza%Troya%NULL%2,                     Maritza%Troya%NULL%0,                     María Ignacia%Páez%NULL%2,                     María Ignacia%Páez%NULL%0,                     Javier%Cárdenas%NULL%2,                     Javier%Cárdenas%NULL%0,                     Rebekka M%Gerstner%NULL%2,                     Rebekka M%Gerstner%NULL%0,                     Esteban%Ortiz‐Prado%NULL%2,                     Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,                     Huipeng%Lu%NULL%1,                     Haiping%Zeng%NULL%1,                     Shining%Zhang%NULL%1,                     Qifeng%Du%NULL%1,                     Tingyun%Jiang%NULL%1,                     Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,                     Li-Yun%Zhu%NULL%2,                     Yu-Fen%Ma%NULL%1,                     Hai-Xin%Bo%NULL%2,                     Hai-Bo%Deng%NULL%1,                     Jing%Cao%NULL%2,                     Ying%Wang%NULL%0,                     Xiao-Jie%Wang%NULL%1,                     Yuan%Xu%NULL%1,                     Qiao-Dan%Lu%NULL%1,                     Hui%Wang%NULL%1,                     Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,                     Yingying%Chen%NULL%1,                     Yixiong%Zheng%NULL%1,                     Ciping%You%NULL%1,                     Jing%Tan%NULL%1,                     Lan%Hu%NULL%1,                     Zhenqing%Zhang%NULL%1,                     Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,                     Wen%Li%NULL%0,                     Hai-Bao%Deng%NULL%1,                     Lei%Wang%NULL%0,                     Ying%Wang%NULL%0,                     Pei-Hong%Wang%NULL%1,                     Hai-Xin%Bo%NULL%0,                     Jing%Cao%NULL%0,                     Yu%Wang%NULL%0,                     Li-Yun%Zhu%NULL%0,                     Yuan%Yang%NULL%0,                     Teris%Cheung%NULL%0,                     Chee H.%Ng%NULL%1,                     Xinjuan%Wu%wuxinjuan@sina.com%0,                     Yu-Tao%Xiang%xyutly@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,                     Zhen%Yang%NULL%1,                     Xiao%Wang%NULL%0,                     Juan%Li%NULL%2,                     Lili%Dong%NULL%2,                     Lili%Dong%NULL%0,                     Fusheng%Wang%NULL%1,                     Yifei%Li%NULL%1,                     Ruihong%Wei%NULL%1,                     Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Arman%Zarghami%xref no email%1,             Mojtaba%Farjam%xref no email%1,             Bahareh%Fakhraei%xref no email%1,             Kosar%Hashemzadeh%xref no email%1,             Mohammad Hosein%Yazdanpanah%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1508,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1498,7 +1537,7 @@
         <v>231</v>
       </c>
       <c r="E3" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1527,7 +1566,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1556,7 +1595,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1585,7 +1624,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1614,7 +1653,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1672,7 +1711,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1701,7 +1740,7 @@
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1730,7 +1769,7 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="F11" t="s">
         <v>67</v>
@@ -1759,7 +1798,7 @@
         <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1788,7 +1827,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1817,7 +1856,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1875,7 +1914,7 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>

--- a/Covid_19_Dataset_and_References/References/75.xlsx
+++ b/Covid_19_Dataset_and_References/References/75.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075" uniqueCount="416">
   <si>
     <t>Doi</t>
   </si>
@@ -1156,6 +1156,195 @@
   </si>
   <si>
     <t>[Arman%Zarghami%xref no email%1,             Mojtaba%Farjam%xref no email%1,             Bahareh%Fakhraei%xref no email%1,             Kosar%Hashemzadeh%xref no email%1,             Mohammad Hosein%Yazdanpanah%xref no email%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,                      Wei%Chen%NULL%0,                      Saiduo%Liu%NULL%0,                      Paul M.%Thompson%NULL%0,                      Long Jiang%Zhang%NULL%0,                      Fei%Xia%NULL%0,                      Fang%Cheng%NULL%0,                      Ailing%Hong%NULL%0,                      Wesley%Surento%NULL%0,                      Song%Luo%NULL%0,                      Zhi Yuan%Sun%NULL%0,                      Chang Sheng%Zhou%NULL%0,                      Lingjiang%Li%NULL%0,                      Xiangao%Jiang%NULL%0,                      Guang Ming%Lu%NULL%0,                       R.%Qi%null%0,                       W.% Chen%null%0,                       S.% Liu%null%0,                       P. M.% Thompson%null%0,                       L. J.% Zhang%null%0,                       F.% Xia%null%0,                       F.% Cheng%null%0,                       A.% Hong%null%0,                       W.% Surento%null%0,                       S.% Luo%null%0,                       Z. Y.% Sun%null%0,                       C. S.% Zhou%null%0,                       L.% Li%null%0,                       X.% Jiang%null%0,                       G. M. % Lu%null%0,                   R.%Qi%null%1,                   W.% Chen%null%1,                   S.% Liu%null%1,                   P. M.% Thompson%null%1,                   L. J.% Zhang%null%1,                   F.% Xia%null%1,                   F.% Cheng%null%1,                   A.% Hong%null%1,                   W.% Surento%null%1,                   S.% Luo%null%1,                   Z. Y.% Sun%null%1,                   C. S.% Zhou%null%1,                   L.% Li%null%1,                   X.% Jiang%null%1,                   G. M. % Lu%null%1,   R.%Qi%null%0,   W.% Chen%null%0,   S.% Liu%null%0,   P. M.% Thompson%null%0,   L. J.% Zhang%null%0,   F.% Xia%null%0,   F.% Cheng%null%0,   A.% Hong%null%0,   W.% Surento%null%0,   S.% Luo%null%0,   Z. Y.% Sun%null%0,   C. S.% Zhou%null%0,   L.% Li%null%0,   X.% Jiang%null%0,   G. M. % Lu%null%0]</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,                      Bilgin%Öztürk%Drbilgin@gmail.com%2,                      Bilgin%Öztürk%Drbilgin@gmail.com%0,                      Ali Rıza%Sonkaya%NULL%2,                      Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                      Mariangela%Pierantozzi%NULL%2,                      Matteo%Spanetta%NULL%2,                      Loredana%Sarmati%NULL%2,                      Novella%Cesta%NULL%2,                      Marco%Iannetta%NULL%2,                      Josuel%Ora%NULL%2,                      Grazia Genga%Mina%NULL%2,                      Ermanno%Puxeddu%NULL%2,                      Ottavia%Balbi%NULL%2,                      Gabriella%Pezzuto%NULL%2,                      Andrea%Magrini%NULL%2,                      Paola%Rogliani%NULL%2,                      Massimo%Andreoni%NULL%2,                      Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                      Mariangela%Pierantozzi%NULL%0,                      Matteo%Spanetta%NULL%0,                      Loredana%Sarmati%NULL%0,                      Novella%Cesta%NULL%0,                      Marco%Iannetta%NULL%0,                      Josuel%Ora%NULL%0,                      Grazia Genga%Mina%NULL%0,                      Ermanno%Puxeddu%NULL%0,                      Ottavia%Balbi%NULL%0,                      Gabriella%Pezzuto%NULL%0,                      Andrea%Magrini%NULL%0,                      Paola%Rogliani%NULL%0,                      Massimo%Andreoni%NULL%0,                      Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,                      Yuchen%Zheng%NULL%1,                      Jia%Shi%NULL%1,                      Jijun%Wang%NULL%1,                      Guanjun%Li%NULL%1,                      Chunbo%Li%NULL%1,                      John A.%Fromson%NULL%1,                      Yong%Xu%NULL%1,                      Xiaohua%Liu%NULL%1,                      Hua%Xu%NULL%1,                      Tianhong%Zhang%NULL%1,                      Yunfei%Lu%NULL%0,                      Xiaorong%Chen%NULL%1,                      Hao%Hu%NULL%1,                      Yingying%Tang%NULL%1,                      Shuwen%Yang%NULL%1,                      Han%Zhou%NULL%1,                      Xiaoliang%Wang%NULL%1,                      Haiying%Chen%NULL%1,                      Zhen%Wang%NULL%1,                      Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ X.%Kong%null%1,                       K.% Zheng%null%1,                       M.% Tang%null%1,                       F.% Kong%null%1,                       J.% Zhou%null%1,                       L.% Diao%null%1,                       S.% Wu%null%1,                       P.% Jiao%null%1,                       T.% Su%null%1,                       Y. % Dong%null%1,   X.%Kong%null%1,   K.% Zheng%null%1,   M.% Tang%null%1,   F.% Kong%null%1,   J.% Zhou%null%0,   L.% Diao%null%1,   S.% Wu%null%1,   P.% Jiao%null%1,   T.% Su%null%1,   Y. % Dong%null%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,                      Guido%Mascialino%NULL%2,                      Guido%Mascialino%NULL%0,                      Lila%Adana‐Díaz%NULL%2,                      Lila%Adana‐Díaz%NULL%0,                      Alberto%Rodríguez‐Lorenzana%NULL%2,                      Alberto%Rodríguez‐Lorenzana%NULL%0,                      Katherine%Simbaña‐Rivera%NULL%2,                      Katherine%Simbaña‐Rivera%NULL%0,                      Lenin%Gómez‐Barreno%NULL%2,                      Lenin%Gómez‐Barreno%NULL%0,                      Maritza%Troya%NULL%2,                      Maritza%Troya%NULL%0,                      María Ignacia%Páez%NULL%2,                      María Ignacia%Páez%NULL%0,                      Javier%Cárdenas%NULL%2,                      Javier%Cárdenas%NULL%0,                      Rebekka M%Gerstner%NULL%2,                      Rebekka M%Gerstner%NULL%0,                      Esteban%Ortiz‐Prado%NULL%2,                      Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,                      Huipeng%Lu%NULL%1,                      Haiping%Zeng%NULL%1,                      Shining%Zhang%NULL%1,                      Qifeng%Du%NULL%1,                      Tingyun%Jiang%NULL%1,                      Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,                      Li-Yun%Zhu%NULL%2,                      Yu-Fen%Ma%NULL%1,                      Hai-Xin%Bo%NULL%2,                      Hai-Bo%Deng%NULL%1,                      Jing%Cao%NULL%2,                      Ying%Wang%NULL%0,                      Xiao-Jie%Wang%NULL%1,                      Yuan%Xu%NULL%1,                      Qiao-Dan%Lu%NULL%1,                      Hui%Wang%NULL%1,                      Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,                      Yingying%Chen%NULL%1,                      Yixiong%Zheng%NULL%1,                      Ciping%You%NULL%1,                      Jing%Tan%NULL%1,                      Lan%Hu%NULL%1,                      Zhenqing%Zhang%NULL%1,                      Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,                      Wen%Li%NULL%0,                      Hai-Bao%Deng%NULL%1,                      Lei%Wang%NULL%0,                      Ying%Wang%NULL%0,                      Pei-Hong%Wang%NULL%1,                      Hai-Xin%Bo%NULL%0,                      Jing%Cao%NULL%0,                      Yu%Wang%NULL%0,                      Li-Yun%Zhu%NULL%0,                      Yuan%Yang%NULL%0,                      Teris%Cheung%NULL%0,                      Chee H.%Ng%NULL%1,                      Xinjuan%Wu%wuxinjuan@sina.com%0,                      Yu-Tao%Xiang%xyutly@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,                      Zhen%Yang%NULL%1,                      Xiao%Wang%NULL%0,                      Juan%Li%NULL%2,                      Lili%Dong%NULL%2,                      Lili%Dong%NULL%0,                      Fusheng%Wang%NULL%1,                      Yifei%Li%NULL%1,                      Ruihong%Wei%NULL%1,                      Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Arman%Zarghami%xref no email%0, Mojtaba%Farjam%xref no email%1, Bahareh%Fakhraei%xref no email%1, Kosar%Hashemzadeh%xref no email%1, Mohammad Hosein%Yazdanpanah%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Mary Ann Liebert Inc</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,                       Wei%Chen%NULL%0,                       Saiduo%Liu%NULL%0,                       Paul M.%Thompson%NULL%0,                       Long Jiang%Zhang%NULL%0,                       Fei%Xia%NULL%0,                       Fang%Cheng%NULL%0,                       Ailing%Hong%NULL%0,                       Wesley%Surento%NULL%0,                       Song%Luo%NULL%0,                       Zhi Yuan%Sun%NULL%0,                       Chang Sheng%Zhou%NULL%0,                       Lingjiang%Li%NULL%0,                       Xiangao%Jiang%NULL%0,                       Guang Ming%Lu%NULL%0,                        R.%Qi%null%0,                        W.% Chen%null%0,                        S.% Liu%null%0,                        P. M.% Thompson%null%0,                        L. J.% Zhang%null%0,                        F.% Xia%null%0,                        F.% Cheng%null%0,                        A.% Hong%null%0,                        W.% Surento%null%0,                        S.% Luo%null%0,                        Z. Y.% Sun%null%0,                        C. S.% Zhou%null%0,                        L.% Li%null%0,                        X.% Jiang%null%0,                        G. M. % Lu%null%0,                    R.%Qi%null%1,                    W.% Chen%null%1,                    S.% Liu%null%1,                    P. M.% Thompson%null%1,                    L. J.% Zhang%null%1,                    F.% Xia%null%1,                    F.% Cheng%null%1,                    A.% Hong%null%1,                    W.% Surento%null%1,                    S.% Luo%null%1,                    Z. Y.% Sun%null%1,                    C. S.% Zhou%null%1,                    L.% Li%null%1,                    X.% Jiang%null%1,                    G. M. % Lu%null%1,    R.%Qi%null%0,    W.% Chen%null%0,    S.% Liu%null%0,    P. M.% Thompson%null%0,    L. J.% Zhang%null%0,    F.% Xia%null%0,    F.% Cheng%null%0,    A.% Hong%null%0,    W.% Surento%null%0,    S.% Luo%null%0,    Z. Y.% Sun%null%0,    C. S.% Zhou%null%0,    L.% Li%null%0,    X.% Jiang%null%0,    G. M. % Lu%null%0]</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,                       Bilgin%Öztürk%Drbilgin@gmail.com%2,                       Bilgin%Öztürk%Drbilgin@gmail.com%0,                       Ali Rıza%Sonkaya%NULL%2,                       Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                       Mariangela%Pierantozzi%NULL%2,                       Matteo%Spanetta%NULL%2,                       Loredana%Sarmati%NULL%2,                       Novella%Cesta%NULL%2,                       Marco%Iannetta%NULL%2,                       Josuel%Ora%NULL%2,                       Grazia Genga%Mina%NULL%2,                       Ermanno%Puxeddu%NULL%2,                       Ottavia%Balbi%NULL%2,                       Gabriella%Pezzuto%NULL%2,                       Andrea%Magrini%NULL%2,                       Paola%Rogliani%NULL%2,                       Massimo%Andreoni%NULL%2,                       Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                       Mariangela%Pierantozzi%NULL%0,                       Matteo%Spanetta%NULL%0,                       Loredana%Sarmati%NULL%0,                       Novella%Cesta%NULL%0,                       Marco%Iannetta%NULL%0,                       Josuel%Ora%NULL%0,                       Grazia Genga%Mina%NULL%0,                       Ermanno%Puxeddu%NULL%0,                       Ottavia%Balbi%NULL%0,                       Gabriella%Pezzuto%NULL%0,                       Andrea%Magrini%NULL%0,                       Paola%Rogliani%NULL%0,                       Massimo%Andreoni%NULL%0,                       Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,                       Yuchen%Zheng%NULL%1,                       Jia%Shi%NULL%1,                       Jijun%Wang%NULL%1,                       Guanjun%Li%NULL%1,                       Chunbo%Li%NULL%1,                       John A.%Fromson%NULL%1,                       Yong%Xu%NULL%1,                       Xiaohua%Liu%NULL%1,                       Hua%Xu%NULL%1,                       Tianhong%Zhang%NULL%1,                       Yunfei%Lu%NULL%0,                       Xiaorong%Chen%NULL%1,                       Hao%Hu%NULL%1,                       Yingying%Tang%NULL%1,                       Shuwen%Yang%NULL%1,                       Han%Zhou%NULL%1,                       Xiaoliang%Wang%NULL%1,                       Haiying%Chen%NULL%1,                       Zhen%Wang%NULL%1,                       Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ X.%Kong%null%1,                        K.% Zheng%null%1,                        M.% Tang%null%1,                        F.% Kong%null%1,                        J.% Zhou%null%1,                        L.% Diao%null%1,                        S.% Wu%null%1,                        P.% Jiao%null%1,                        T.% Su%null%1,                        Y. % Dong%null%1,    X.%Kong%null%1,    K.% Zheng%null%1,    M.% Tang%null%1,    F.% Kong%null%1,    J.% Zhou%null%0,    L.% Diao%null%1,    S.% Wu%null%1,    P.% Jiao%null%1,    T.% Su%null%1,    Y. % Dong%null%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,                       Guido%Mascialino%NULL%2,                       Guido%Mascialino%NULL%0,                       Lila%Adana‐Díaz%NULL%2,                       Lila%Adana‐Díaz%NULL%0,                       Alberto%Rodríguez‐Lorenzana%NULL%2,                       Alberto%Rodríguez‐Lorenzana%NULL%0,                       Katherine%Simbaña‐Rivera%NULL%2,                       Katherine%Simbaña‐Rivera%NULL%0,                       Lenin%Gómez‐Barreno%NULL%2,                       Lenin%Gómez‐Barreno%NULL%0,                       Maritza%Troya%NULL%2,                       Maritza%Troya%NULL%0,                       María Ignacia%Páez%NULL%2,                       María Ignacia%Páez%NULL%0,                       Javier%Cárdenas%NULL%2,                       Javier%Cárdenas%NULL%0,                       Rebekka M%Gerstner%NULL%2,                       Rebekka M%Gerstner%NULL%0,                       Esteban%Ortiz‐Prado%NULL%2,                       Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,                       Huipeng%Lu%NULL%1,                       Haiping%Zeng%NULL%1,                       Shining%Zhang%NULL%1,                       Qifeng%Du%NULL%1,                       Tingyun%Jiang%NULL%1,                       Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,                       Li-Yun%Zhu%NULL%2,                       Yu-Fen%Ma%NULL%1,                       Hai-Xin%Bo%NULL%2,                       Hai-Bo%Deng%NULL%1,                       Jing%Cao%NULL%2,                       Ying%Wang%NULL%0,                       Xiao-Jie%Wang%NULL%1,                       Yuan%Xu%NULL%1,                       Qiao-Dan%Lu%NULL%1,                       Hui%Wang%NULL%1,                       Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,                       Yingying%Chen%NULL%1,                       Yixiong%Zheng%NULL%1,                       Ciping%You%NULL%1,                       Jing%Tan%NULL%1,                       Lan%Hu%NULL%1,                       Zhenqing%Zhang%NULL%1,                       Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,                       Wen%Li%NULL%0,                       Hai-Bao%Deng%NULL%1,                       Lei%Wang%NULL%0,                       Ying%Wang%NULL%0,                       Pei-Hong%Wang%NULL%1,                       Hai-Xin%Bo%NULL%0,                       Jing%Cao%NULL%0,                       Yu%Wang%NULL%0,                       Li-Yun%Zhu%NULL%0,                       Yuan%Yang%NULL%0,                       Teris%Cheung%NULL%0,                       Chee H.%Ng%NULL%1,                       Xinjuan%Wu%wuxinjuan@sina.com%0,                       Yu-Tao%Xiang%xyutly@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,                       Zhen%Yang%NULL%1,                       Xiao%Wang%NULL%0,                       Juan%Li%NULL%2,                       Lili%Dong%NULL%2,                       Lili%Dong%NULL%0,                       Fusheng%Wang%NULL%1,                       Yifei%Li%NULL%1,                       Ruihong%Wei%NULL%1,                       Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,                        Wei%Chen%NULL%0,                        Saiduo%Liu%NULL%0,                        Paul M.%Thompson%NULL%0,                        Long Jiang%Zhang%NULL%0,                        Fei%Xia%NULL%0,                        Fang%Cheng%NULL%0,                        Ailing%Hong%NULL%0,                        Wesley%Surento%NULL%0,                        Song%Luo%NULL%0,                        Zhi Yuan%Sun%NULL%0,                        Chang Sheng%Zhou%NULL%0,                        Lingjiang%Li%NULL%0,                        Xiangao%Jiang%NULL%0,                        Guang Ming%Lu%NULL%0,                         R.%Qi%null%0,                         W.% Chen%null%0,                         S.% Liu%null%0,                         P. M.% Thompson%null%0,                         L. J.% Zhang%null%0,                         F.% Xia%null%0,                         F.% Cheng%null%0,                         A.% Hong%null%0,                         W.% Surento%null%0,                         S.% Luo%null%0,                         Z. Y.% Sun%null%0,                         C. S.% Zhou%null%0,                         L.% Li%null%0,                         X.% Jiang%null%0,                         G. M. % Lu%null%0,                     R.%Qi%null%1,                     W.% Chen%null%1,                     S.% Liu%null%1,                     P. M.% Thompson%null%1,                     L. J.% Zhang%null%1,                     F.% Xia%null%1,                     F.% Cheng%null%1,                     A.% Hong%null%1,                     W.% Surento%null%1,                     S.% Luo%null%1,                     Z. Y.% Sun%null%1,                     C. S.% Zhou%null%1,                     L.% Li%null%1,                     X.% Jiang%null%1,                     G. M. % Lu%null%1,     R.%Qi%null%0,     W.% Chen%null%0,     S.% Liu%null%0,     P. M.% Thompson%null%0,     L. J.% Zhang%null%0,     F.% Xia%null%0,     F.% Cheng%null%0,     A.% Hong%null%0,     W.% Surento%null%0,     S.% Luo%null%0,     Z. Y.% Sun%null%0,     C. S.% Zhou%null%0,     L.% Li%null%0,     X.% Jiang%null%0,     G. M. % Lu%null%0]</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,                        Bilgin%Öztürk%Drbilgin@gmail.com%2,                        Bilgin%Öztürk%Drbilgin@gmail.com%0,                        Ali Rıza%Sonkaya%NULL%2,                        Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                        Mariangela%Pierantozzi%NULL%2,                        Matteo%Spanetta%NULL%2,                        Loredana%Sarmati%NULL%2,                        Novella%Cesta%NULL%2,                        Marco%Iannetta%NULL%2,                        Josuel%Ora%NULL%2,                        Grazia Genga%Mina%NULL%2,                        Ermanno%Puxeddu%NULL%2,                        Ottavia%Balbi%NULL%2,                        Gabriella%Pezzuto%NULL%2,                        Andrea%Magrini%NULL%2,                        Paola%Rogliani%NULL%2,                        Massimo%Andreoni%NULL%2,                        Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                        Mariangela%Pierantozzi%NULL%0,                        Matteo%Spanetta%NULL%0,                        Loredana%Sarmati%NULL%0,                        Novella%Cesta%NULL%0,                        Marco%Iannetta%NULL%0,                        Josuel%Ora%NULL%0,                        Grazia Genga%Mina%NULL%0,                        Ermanno%Puxeddu%NULL%0,                        Ottavia%Balbi%NULL%0,                        Gabriella%Pezzuto%NULL%0,                        Andrea%Magrini%NULL%0,                        Paola%Rogliani%NULL%0,                        Massimo%Andreoni%NULL%0,                        Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,                        Yuchen%Zheng%NULL%1,                        Jia%Shi%NULL%1,                        Jijun%Wang%NULL%1,                        Guanjun%Li%NULL%1,                        Chunbo%Li%NULL%1,                        John A.%Fromson%NULL%1,                        Yong%Xu%NULL%1,                        Xiaohua%Liu%NULL%1,                        Hua%Xu%NULL%1,                        Tianhong%Zhang%NULL%1,                        Yunfei%Lu%NULL%0,                        Xiaorong%Chen%NULL%1,                        Hao%Hu%NULL%1,                        Yingying%Tang%NULL%1,                        Shuwen%Yang%NULL%1,                        Han%Zhou%NULL%1,                        Xiaoliang%Wang%NULL%1,                        Haiying%Chen%NULL%1,                        Zhen%Wang%NULL%1,                        Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ X.%Kong%null%1,                         K.% Zheng%null%1,                         M.% Tang%null%1,                         F.% Kong%null%1,                         J.% Zhou%null%1,                         L.% Diao%null%1,                         S.% Wu%null%1,                         P.% Jiao%null%1,                         T.% Su%null%1,                         Y. % Dong%null%1,     X.%Kong%null%1,     K.% Zheng%null%1,     M.% Tang%null%1,     F.% Kong%null%1,     J.% Zhou%null%0,     L.% Diao%null%1,     S.% Wu%null%1,     P.% Jiao%null%1,     T.% Su%null%1,     Y. % Dong%null%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,                        Guido%Mascialino%NULL%2,                        Guido%Mascialino%NULL%0,                        Lila%Adana‐Díaz%NULL%2,                        Lila%Adana‐Díaz%NULL%0,                        Alberto%Rodríguez‐Lorenzana%NULL%2,                        Alberto%Rodríguez‐Lorenzana%NULL%0,                        Katherine%Simbaña‐Rivera%NULL%2,                        Katherine%Simbaña‐Rivera%NULL%0,                        Lenin%Gómez‐Barreno%NULL%2,                        Lenin%Gómez‐Barreno%NULL%0,                        Maritza%Troya%NULL%2,                        Maritza%Troya%NULL%0,                        María Ignacia%Páez%NULL%2,                        María Ignacia%Páez%NULL%0,                        Javier%Cárdenas%NULL%2,                        Javier%Cárdenas%NULL%0,                        Rebekka M%Gerstner%NULL%2,                        Rebekka M%Gerstner%NULL%0,                        Esteban%Ortiz‐Prado%NULL%2,                        Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,                        Huipeng%Lu%NULL%1,                        Haiping%Zeng%NULL%1,                        Shining%Zhang%NULL%1,                        Qifeng%Du%NULL%1,                        Tingyun%Jiang%NULL%1,                        Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,                        Li-Yun%Zhu%NULL%2,                        Yu-Fen%Ma%NULL%1,                        Hai-Xin%Bo%NULL%2,                        Hai-Bo%Deng%NULL%1,                        Jing%Cao%NULL%2,                        Ying%Wang%NULL%0,                        Xiao-Jie%Wang%NULL%1,                        Yuan%Xu%NULL%1,                        Qiao-Dan%Lu%NULL%1,                        Hui%Wang%NULL%1,                        Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,                        Yingying%Chen%NULL%1,                        Yixiong%Zheng%NULL%1,                        Ciping%You%NULL%1,                        Jing%Tan%NULL%1,                        Lan%Hu%NULL%1,                        Zhenqing%Zhang%NULL%1,                        Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,                        Wen%Li%NULL%0,                        Hai-Bao%Deng%NULL%1,                        Lei%Wang%NULL%0,                        Ying%Wang%NULL%0,                        Pei-Hong%Wang%NULL%1,                        Hai-Xin%Bo%NULL%0,                        Jing%Cao%NULL%0,                        Yu%Wang%NULL%0,                        Li-Yun%Zhu%NULL%0,                        Yuan%Yang%NULL%0,                        Teris%Cheung%NULL%0,                        Chee H.%Ng%NULL%1,                        Xinjuan%Wu%wuxinjuan@sina.com%0,                        Yu-Tao%Xiang%xyutly@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,                        Zhen%Yang%NULL%1,                        Xiao%Wang%NULL%0,                        Juan%Li%NULL%2,                        Lili%Dong%NULL%2,                        Lili%Dong%NULL%0,                        Fusheng%Wang%NULL%1,                        Yifei%Li%NULL%1,                        Ruihong%Wei%NULL%1,                        Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,                         Wei%Chen%NULL%0,                         Saiduo%Liu%NULL%0,                         Paul M.%Thompson%NULL%0,                         Long Jiang%Zhang%NULL%0,                         Fei%Xia%NULL%0,                         Fang%Cheng%NULL%0,                         Ailing%Hong%NULL%0,                         Wesley%Surento%NULL%0,                         Song%Luo%NULL%0,                         Zhi Yuan%Sun%NULL%0,                         Chang Sheng%Zhou%NULL%0,                         Lingjiang%Li%NULL%0,                         Xiangao%Jiang%NULL%0,                         Guang Ming%Lu%NULL%0,                          R.%Qi%null%0,                          W.% Chen%null%0,                          S.% Liu%null%0,                          P. M.% Thompson%null%0,                          L. J.% Zhang%null%0,                          F.% Xia%null%0,                          F.% Cheng%null%0,                          A.% Hong%null%0,                          W.% Surento%null%0,                          S.% Luo%null%0,                          Z. Y.% Sun%null%0,                          C. S.% Zhou%null%0,                          L.% Li%null%0,                          X.% Jiang%null%0,                          G. M. % Lu%null%0,                      R.%Qi%null%1,                      W.% Chen%null%1,                      S.% Liu%null%1,                      P. M.% Thompson%null%1,                      L. J.% Zhang%null%1,                      F.% Xia%null%1,                      F.% Cheng%null%1,                      A.% Hong%null%1,                      W.% Surento%null%1,                      S.% Luo%null%1,                      Z. Y.% Sun%null%1,                      C. S.% Zhou%null%1,                      L.% Li%null%1,                      X.% Jiang%null%1,                      G. M. % Lu%null%1,      R.%Qi%null%0,      W.% Chen%null%0,      S.% Liu%null%0,      P. M.% Thompson%null%0,      L. J.% Zhang%null%0,      F.% Xia%null%0,      F.% Cheng%null%0,      A.% Hong%null%0,      W.% Surento%null%0,      S.% Luo%null%0,      Z. Y.% Sun%null%0,      C. S.% Zhou%null%0,      L.% Li%null%0,      X.% Jiang%null%0,      G. M. % Lu%null%0]</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,                         Bilgin%Öztürk%Drbilgin@gmail.com%2,                         Bilgin%Öztürk%Drbilgin@gmail.com%0,                         Ali Rıza%Sonkaya%NULL%2,                         Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                         Mariangela%Pierantozzi%NULL%2,                         Matteo%Spanetta%NULL%2,                         Loredana%Sarmati%NULL%2,                         Novella%Cesta%NULL%2,                         Marco%Iannetta%NULL%2,                         Josuel%Ora%NULL%2,                         Grazia Genga%Mina%NULL%2,                         Ermanno%Puxeddu%NULL%2,                         Ottavia%Balbi%NULL%2,                         Gabriella%Pezzuto%NULL%2,                         Andrea%Magrini%NULL%2,                         Paola%Rogliani%NULL%2,                         Massimo%Andreoni%NULL%2,                         Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                         Mariangela%Pierantozzi%NULL%0,                         Matteo%Spanetta%NULL%0,                         Loredana%Sarmati%NULL%0,                         Novella%Cesta%NULL%0,                         Marco%Iannetta%NULL%0,                         Josuel%Ora%NULL%0,                         Grazia Genga%Mina%NULL%0,                         Ermanno%Puxeddu%NULL%0,                         Ottavia%Balbi%NULL%0,                         Gabriella%Pezzuto%NULL%0,                         Andrea%Magrini%NULL%0,                         Paola%Rogliani%NULL%0,                         Massimo%Andreoni%NULL%0,                         Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,                         Yuchen%Zheng%NULL%1,                         Jia%Shi%NULL%1,                         Jijun%Wang%NULL%1,                         Guanjun%Li%NULL%1,                         Chunbo%Li%NULL%1,                         John A.%Fromson%NULL%1,                         Yong%Xu%NULL%1,                         Xiaohua%Liu%NULL%1,                         Hua%Xu%NULL%1,                         Tianhong%Zhang%NULL%1,                         Yunfei%Lu%NULL%0,                         Xiaorong%Chen%NULL%1,                         Hao%Hu%NULL%1,                         Yingying%Tang%NULL%1,                         Shuwen%Yang%NULL%1,                         Han%Zhou%NULL%1,                         Xiaoliang%Wang%NULL%1,                         Haiying%Chen%NULL%1,                         Zhen%Wang%NULL%1,                         Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ X.%Kong%null%1,                          K.% Zheng%null%1,                          M.% Tang%null%1,                          F.% Kong%null%1,                          J.% Zhou%null%1,                          L.% Diao%null%1,                          S.% Wu%null%1,                          P.% Jiao%null%1,                          T.% Su%null%1,                          Y. % Dong%null%1,      X.%Kong%null%1,      K.% Zheng%null%1,      M.% Tang%null%1,      F.% Kong%null%1,      J.% Zhou%null%0,      L.% Diao%null%1,      S.% Wu%null%1,      P.% Jiao%null%1,      T.% Su%null%1,      Y. % Dong%null%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,                         Guido%Mascialino%NULL%2,                         Guido%Mascialino%NULL%0,                         Lila%Adana‐Díaz%NULL%2,                         Lila%Adana‐Díaz%NULL%0,                         Alberto%Rodríguez‐Lorenzana%NULL%2,                         Alberto%Rodríguez‐Lorenzana%NULL%0,                         Katherine%Simbaña‐Rivera%NULL%2,                         Katherine%Simbaña‐Rivera%NULL%0,                         Lenin%Gómez‐Barreno%NULL%2,                         Lenin%Gómez‐Barreno%NULL%0,                         Maritza%Troya%NULL%2,                         Maritza%Troya%NULL%0,                         María Ignacia%Páez%NULL%2,                         María Ignacia%Páez%NULL%0,                         Javier%Cárdenas%NULL%2,                         Javier%Cárdenas%NULL%0,                         Rebekka M%Gerstner%NULL%2,                         Rebekka M%Gerstner%NULL%0,                         Esteban%Ortiz‐Prado%NULL%2,                         Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,                         Huipeng%Lu%NULL%1,                         Haiping%Zeng%NULL%1,                         Shining%Zhang%NULL%1,                         Qifeng%Du%NULL%1,                         Tingyun%Jiang%NULL%1,                         Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,                         Li-Yun%Zhu%NULL%2,                         Yu-Fen%Ma%NULL%1,                         Hai-Xin%Bo%NULL%2,                         Hai-Bo%Deng%NULL%1,                         Jing%Cao%NULL%2,                         Ying%Wang%NULL%0,                         Xiao-Jie%Wang%NULL%1,                         Yuan%Xu%NULL%1,                         Qiao-Dan%Lu%NULL%1,                         Hui%Wang%NULL%1,                         Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,                         Yingying%Chen%NULL%1,                         Yixiong%Zheng%NULL%1,                         Ciping%You%NULL%1,                         Jing%Tan%NULL%1,                         Lan%Hu%NULL%1,                         Zhenqing%Zhang%NULL%1,                         Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,                         Wen%Li%NULL%0,                         Hai-Bao%Deng%NULL%1,                         Lei%Wang%NULL%0,                         Ying%Wang%NULL%0,                         Pei-Hong%Wang%NULL%1,                         Hai-Xin%Bo%NULL%0,                         Jing%Cao%NULL%0,                         Yu%Wang%NULL%0,                         Li-Yun%Zhu%NULL%0,                         Yuan%Yang%NULL%0,                         Teris%Cheung%NULL%0,                         Chee H.%Ng%NULL%1,                         Xinjuan%Wu%wuxinjuan@sina.com%0,                         Yu-Tao%Xiang%xyutly@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,                         Zhen%Yang%NULL%1,                         Xiao%Wang%NULL%0,                         Juan%Li%NULL%2,                         Lili%Dong%NULL%2,                         Lili%Dong%NULL%0,                         Fusheng%Wang%NULL%1,                         Yifei%Li%NULL%1,                         Ruihong%Wei%NULL%1,                         Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,                          Wei%Chen%NULL%0,                          Saiduo%Liu%NULL%0,                          Paul M.%Thompson%NULL%0,                          Long Jiang%Zhang%NULL%0,                          Fei%Xia%NULL%0,                          Fang%Cheng%NULL%0,                          Ailing%Hong%NULL%0,                          Wesley%Surento%NULL%0,                          Song%Luo%NULL%0,                          Zhi Yuan%Sun%NULL%0,                          Chang Sheng%Zhou%NULL%0,                          Lingjiang%Li%NULL%0,                          Xiangao%Jiang%NULL%0,                          Guang Ming%Lu%NULL%0,                           R.%Qi%null%0,                           W.% Chen%null%0,                           S.% Liu%null%0,                           P. M.% Thompson%null%0,                           L. J.% Zhang%null%0,                           F.% Xia%null%0,                           F.% Cheng%null%0,                           A.% Hong%null%0,                           W.% Surento%null%0,                           S.% Luo%null%0,                           Z. Y.% Sun%null%0,                           C. S.% Zhou%null%0,                           L.% Li%null%0,                           X.% Jiang%null%0,                           G. M. % Lu%null%0,                       R.%Qi%null%1,                       W.% Chen%null%1,                       S.% Liu%null%1,                       P. M.% Thompson%null%1,                       L. J.% Zhang%null%1,                       F.% Xia%null%1,                       F.% Cheng%null%1,                       A.% Hong%null%1,                       W.% Surento%null%1,                       S.% Luo%null%1,                       Z. Y.% Sun%null%1,                       C. S.% Zhou%null%1,                       L.% Li%null%1,                       X.% Jiang%null%1,                       G. M. % Lu%null%1,       R.%Qi%null%0,       W.% Chen%null%0,       S.% Liu%null%0,       P. M.% Thompson%null%0,       L. J.% Zhang%null%0,       F.% Xia%null%0,       F.% Cheng%null%0,       A.% Hong%null%0,       W.% Surento%null%0,       S.% Luo%null%0,       Z. Y.% Sun%null%0,       C. S.% Zhou%null%0,       L.% Li%null%0,       X.% Jiang%null%0,       G. M. % Lu%null%0]</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,                          Bilgin%Öztürk%Drbilgin@gmail.com%2,                          Bilgin%Öztürk%Drbilgin@gmail.com%0,                          Ali Rıza%Sonkaya%NULL%2,                          Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                          Mariangela%Pierantozzi%NULL%2,                          Matteo%Spanetta%NULL%2,                          Loredana%Sarmati%NULL%2,                          Novella%Cesta%NULL%2,                          Marco%Iannetta%NULL%2,                          Josuel%Ora%NULL%2,                          Grazia Genga%Mina%NULL%2,                          Ermanno%Puxeddu%NULL%2,                          Ottavia%Balbi%NULL%2,                          Gabriella%Pezzuto%NULL%2,                          Andrea%Magrini%NULL%2,                          Paola%Rogliani%NULL%2,                          Massimo%Andreoni%NULL%2,                          Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                          Mariangela%Pierantozzi%NULL%0,                          Matteo%Spanetta%NULL%0,                          Loredana%Sarmati%NULL%0,                          Novella%Cesta%NULL%0,                          Marco%Iannetta%NULL%0,                          Josuel%Ora%NULL%0,                          Grazia Genga%Mina%NULL%0,                          Ermanno%Puxeddu%NULL%0,                          Ottavia%Balbi%NULL%0,                          Gabriella%Pezzuto%NULL%0,                          Andrea%Magrini%NULL%0,                          Paola%Rogliani%NULL%0,                          Massimo%Andreoni%NULL%0,                          Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,                          Yuchen%Zheng%NULL%1,                          Jia%Shi%NULL%1,                          Jijun%Wang%NULL%1,                          Guanjun%Li%NULL%1,                          Chunbo%Li%NULL%1,                          John A.%Fromson%NULL%1,                          Yong%Xu%NULL%1,                          Xiaohua%Liu%NULL%1,                          Hua%Xu%NULL%1,                          Tianhong%Zhang%NULL%1,                          Yunfei%Lu%NULL%0,                          Xiaorong%Chen%NULL%1,                          Hao%Hu%NULL%1,                          Yingying%Tang%NULL%1,                          Shuwen%Yang%NULL%1,                          Han%Zhou%NULL%1,                          Xiaoliang%Wang%NULL%1,                          Haiying%Chen%NULL%1,                          Zhen%Wang%NULL%1,                          Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ X.%Kong%null%1,                           K.% Zheng%null%1,                           M.% Tang%null%1,                           F.% Kong%null%1,                           J.% Zhou%null%1,                           L.% Diao%null%1,                           S.% Wu%null%1,                           P.% Jiao%null%1,                           T.% Su%null%1,                           Y. % Dong%null%1,       X.%Kong%null%1,       K.% Zheng%null%1,       M.% Tang%null%1,       F.% Kong%null%1,       J.% Zhou%null%0,       L.% Diao%null%1,       S.% Wu%null%1,       P.% Jiao%null%1,       T.% Su%null%1,       Y. % Dong%null%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,                          Guido%Mascialino%NULL%2,                          Guido%Mascialino%NULL%0,                          Lila%Adana‐Díaz%NULL%2,                          Lila%Adana‐Díaz%NULL%0,                          Alberto%Rodríguez‐Lorenzana%NULL%2,                          Alberto%Rodríguez‐Lorenzana%NULL%0,                          Katherine%Simbaña‐Rivera%NULL%2,                          Katherine%Simbaña‐Rivera%NULL%0,                          Lenin%Gómez‐Barreno%NULL%2,                          Lenin%Gómez‐Barreno%NULL%0,                          Maritza%Troya%NULL%2,                          Maritza%Troya%NULL%0,                          María Ignacia%Páez%NULL%2,                          María Ignacia%Páez%NULL%0,                          Javier%Cárdenas%NULL%2,                          Javier%Cárdenas%NULL%0,                          Rebekka M%Gerstner%NULL%2,                          Rebekka M%Gerstner%NULL%0,                          Esteban%Ortiz‐Prado%NULL%2,                          Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,                          Huipeng%Lu%NULL%1,                          Haiping%Zeng%NULL%1,                          Shining%Zhang%NULL%1,                          Qifeng%Du%NULL%1,                          Tingyun%Jiang%NULL%1,                          Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,                          Li-Yun%Zhu%NULL%2,                          Yu-Fen%Ma%NULL%1,                          Hai-Xin%Bo%NULL%2,                          Hai-Bo%Deng%NULL%1,                          Jing%Cao%NULL%2,                          Ying%Wang%NULL%0,                          Xiao-Jie%Wang%NULL%1,                          Yuan%Xu%NULL%1,                          Qiao-Dan%Lu%NULL%1,                          Hui%Wang%NULL%1,                          Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,                          Yingying%Chen%NULL%1,                          Yixiong%Zheng%NULL%1,                          Ciping%You%NULL%1,                          Jing%Tan%NULL%1,                          Lan%Hu%NULL%1,                          Zhenqing%Zhang%NULL%1,                          Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,                          Wen%Li%NULL%0,                          Hai-Bao%Deng%NULL%1,                          Lei%Wang%NULL%0,                          Ying%Wang%NULL%0,                          Pei-Hong%Wang%NULL%1,                          Hai-Xin%Bo%NULL%0,                          Jing%Cao%NULL%0,                          Yu%Wang%NULL%0,                          Li-Yun%Zhu%NULL%0,                          Yuan%Yang%NULL%0,                          Teris%Cheung%NULL%0,                          Chee H.%Ng%NULL%1,                          Xinjuan%Wu%wuxinjuan@sina.com%0,                          Yu-Tao%Xiang%xyutly@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,                          Zhen%Yang%NULL%1,                          Xiao%Wang%NULL%0,                          Juan%Li%NULL%2,                          Lili%Dong%NULL%2,                          Lili%Dong%NULL%0,                          Fusheng%Wang%NULL%1,                          Yifei%Li%NULL%1,                          Ruihong%Wei%NULL%1,                          Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
   </si>
 </sst>
 </file>
@@ -1493,6 +1682,9 @@
       <c r="I1" t="s">
         <v>121</v>
       </c>
+      <c r="J1" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1508,7 +1700,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>340</v>
+        <v>404</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1521,6 +1713,9 @@
       </c>
       <c r="I2" t="s">
         <v>323</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1537,7 +1732,7 @@
         <v>231</v>
       </c>
       <c r="E3" t="s">
-        <v>341</v>
+        <v>405</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1550,6 +1745,9 @@
       </c>
       <c r="I3" t="s">
         <v>325</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -1566,7 +1764,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>342</v>
+        <v>406</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1579,6 +1777,9 @@
       </c>
       <c r="I4" t="s">
         <v>327</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -1595,7 +1796,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>343</v>
+        <v>407</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1608,6 +1809,9 @@
       </c>
       <c r="I5" t="s">
         <v>327</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -1624,7 +1828,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>344</v>
+        <v>408</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1637,6 +1841,9 @@
       </c>
       <c r="I6" t="s">
         <v>327</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -1653,7 +1860,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1666,6 +1873,9 @@
       </c>
       <c r="I7" t="s">
         <v>331</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1696,6 +1906,9 @@
       <c r="I8" t="s">
         <v>332</v>
       </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
@@ -1711,7 +1924,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>346</v>
+        <v>410</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1724,6 +1937,9 @@
       </c>
       <c r="I9" t="s">
         <v>323</v>
+      </c>
+      <c r="J9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1740,7 +1956,7 @@
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>347</v>
+        <v>411</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1753,6 +1969,9 @@
       </c>
       <c r="I10" t="s">
         <v>327</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -1769,7 +1988,7 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>348</v>
+        <v>412</v>
       </c>
       <c r="F11" t="s">
         <v>67</v>
@@ -1782,6 +2001,9 @@
       </c>
       <c r="I11" t="s">
         <v>327</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1798,7 +2020,7 @@
         <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>349</v>
+        <v>413</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1811,6 +2033,9 @@
       </c>
       <c r="I12" t="s">
         <v>327</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13">
@@ -1827,7 +2052,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>350</v>
+        <v>414</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1840,6 +2065,9 @@
       </c>
       <c r="I13" t="s">
         <v>327</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14">
@@ -1856,7 +2084,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>351</v>
+        <v>415</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1869,6 +2097,9 @@
       </c>
       <c r="I14" t="s">
         <v>323</v>
+      </c>
+      <c r="J14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15">
@@ -1899,6 +2130,9 @@
       <c r="I15" t="s">
         <v>56</v>
       </c>
+      <c r="J15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
@@ -1914,7 +2148,7 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>352</v>
+        <v>243</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -1926,7 +2160,10 @@
         <v>190</v>
       </c>
       <c r="I16" t="s">
-        <v>332</v>
+        <v>56</v>
+      </c>
+      <c r="J16" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/75.xlsx
+++ b/Covid_19_Dataset_and_References/References/75.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3331" uniqueCount="447">
   <si>
     <t>Doi</t>
   </si>
@@ -1345,6 +1345,109 @@
   </si>
   <si>
     <t>[Jie%Zhang%NULL%0,                          Zhen%Yang%NULL%1,                          Xiao%Wang%NULL%0,                          Juan%Li%NULL%2,                          Lili%Dong%NULL%2,                          Lili%Dong%NULL%0,                          Fusheng%Wang%NULL%1,                          Yifei%Li%NULL%1,                          Ruihong%Wei%NULL%1,                          Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,                           Wei%Chen%NULL%0,                           Saiduo%Liu%NULL%0,                           Paul M.%Thompson%NULL%0,                           Long Jiang%Zhang%NULL%0,                           Fei%Xia%NULL%0,                           Fang%Cheng%NULL%0,                           Ailing%Hong%NULL%0,                           Wesley%Surento%NULL%0,                           Song%Luo%NULL%0,                           Zhi Yuan%Sun%NULL%0,                           Chang Sheng%Zhou%NULL%0,                           Lingjiang%Li%NULL%0,                           Xiangao%Jiang%NULL%0,                           Guang Ming%Lu%NULL%0,                            R.%Qi%null%0,                            W.% Chen%null%0,                            S.% Liu%null%0,                            P. M.% Thompson%null%0,                            L. J.% Zhang%null%0,                            F.% Xia%null%0,                            F.% Cheng%null%0,                            A.% Hong%null%0,                            W.% Surento%null%0,                            S.% Luo%null%0,                            Z. Y.% Sun%null%0,                            C. S.% Zhou%null%0,                            L.% Li%null%0,                            X.% Jiang%null%0,                            G. M. % Lu%null%0,                        R.%Qi%null%1,                        W.% Chen%null%1,                        S.% Liu%null%1,                        P. M.% Thompson%null%1,                        L. J.% Zhang%null%1,                        F.% Xia%null%1,                        F.% Cheng%null%1,                        A.% Hong%null%1,                        W.% Surento%null%1,                        S.% Luo%null%1,                        Z. Y.% Sun%null%1,                        C. S.% Zhou%null%1,                        L.% Li%null%1,                        X.% Jiang%null%1,                        G. M. % Lu%null%1,        R.%Qi%null%0,        W.% Chen%null%0,        S.% Liu%null%0,        P. M.% Thompson%null%0,        L. J.% Zhang%null%0,        F.% Xia%null%0,        F.% Cheng%null%0,        A.% Hong%null%0,        W.% Surento%null%0,        S.% Luo%null%0,        Z. Y.% Sun%null%0,        C. S.% Zhou%null%0,        L.% Li%null%0,        X.% Jiang%null%0,        G. M. % Lu%null%0]</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,                           Bilgin%Öztürk%Drbilgin@gmail.com%2,                           Bilgin%Öztürk%Drbilgin@gmail.com%0,                           Ali Rıza%Sonkaya%NULL%2,                           Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                           Mariangela%Pierantozzi%NULL%2,                           Matteo%Spanetta%NULL%2,                           Loredana%Sarmati%NULL%2,                           Novella%Cesta%NULL%2,                           Marco%Iannetta%NULL%2,                           Josuel%Ora%NULL%2,                           Grazia Genga%Mina%NULL%2,                           Ermanno%Puxeddu%NULL%2,                           Ottavia%Balbi%NULL%2,                           Gabriella%Pezzuto%NULL%2,                           Andrea%Magrini%NULL%2,                           Paola%Rogliani%NULL%2,                           Massimo%Andreoni%NULL%2,                           Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                           Mariangela%Pierantozzi%NULL%0,                           Matteo%Spanetta%NULL%0,                           Loredana%Sarmati%NULL%0,                           Novella%Cesta%NULL%0,                           Marco%Iannetta%NULL%0,                           Josuel%Ora%NULL%0,                           Grazia Genga%Mina%NULL%0,                           Ermanno%Puxeddu%NULL%0,                           Ottavia%Balbi%NULL%0,                           Gabriella%Pezzuto%NULL%0,                           Andrea%Magrini%NULL%0,                           Paola%Rogliani%NULL%0,                           Massimo%Andreoni%NULL%0,                           Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,                           Yuchen%Zheng%NULL%1,                           Jia%Shi%NULL%1,                           Jijun%Wang%NULL%1,                           Guanjun%Li%NULL%1,                           Chunbo%Li%NULL%1,                           John A.%Fromson%NULL%1,                           Yong%Xu%NULL%1,                           Xiaohua%Liu%NULL%1,                           Hua%Xu%NULL%1,                           Tianhong%Zhang%NULL%1,                           Yunfei%Lu%NULL%0,                           Xiaorong%Chen%NULL%1,                           Hao%Hu%NULL%1,                           Yingying%Tang%NULL%1,                           Shuwen%Yang%NULL%1,                           Han%Zhou%NULL%1,                           Xiaoliang%Wang%NULL%1,                           Haiying%Chen%NULL%1,                           Zhen%Wang%NULL%1,                           Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ X.%Kong%null%1,                            K.% Zheng%null%1,                            M.% Tang%null%1,                            F.% Kong%null%1,                            J.% Zhou%null%1,                            L.% Diao%null%1,                            S.% Wu%null%1,                            P.% Jiao%null%1,                            T.% Su%null%1,                            Y. % Dong%null%1,        X.%Kong%null%1,        K.% Zheng%null%1,        M.% Tang%null%1,        F.% Kong%null%1,        J.% Zhou%null%0,        L.% Diao%null%1,        S.% Wu%null%1,        P.% Jiao%null%1,        T.% Su%null%1,        Y. % Dong%null%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,                           Guido%Mascialino%NULL%2,                           Guido%Mascialino%NULL%0,                           Lila%Adana‐Díaz%NULL%2,                           Lila%Adana‐Díaz%NULL%0,                           Alberto%Rodríguez‐Lorenzana%NULL%2,                           Alberto%Rodríguez‐Lorenzana%NULL%0,                           Katherine%Simbaña‐Rivera%NULL%2,                           Katherine%Simbaña‐Rivera%NULL%0,                           Lenin%Gómez‐Barreno%NULL%2,                           Lenin%Gómez‐Barreno%NULL%0,                           Maritza%Troya%NULL%2,                           Maritza%Troya%NULL%0,                           María Ignacia%Páez%NULL%2,                           María Ignacia%Páez%NULL%0,                           Javier%Cárdenas%NULL%2,                           Javier%Cárdenas%NULL%0,                           Rebekka M%Gerstner%NULL%2,                           Rebekka M%Gerstner%NULL%0,                           Esteban%Ortiz‐Prado%NULL%2,                           Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,                           Huipeng%Lu%NULL%1,                           Haiping%Zeng%NULL%1,                           Shining%Zhang%NULL%1,                           Qifeng%Du%NULL%1,                           Tingyun%Jiang%NULL%1,                           Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,                           Li-Yun%Zhu%NULL%2,                           Yu-Fen%Ma%NULL%1,                           Hai-Xin%Bo%NULL%2,                           Hai-Bo%Deng%NULL%1,                           Jing%Cao%NULL%2,                           Ying%Wang%NULL%0,                           Xiao-Jie%Wang%NULL%1,                           Yuan%Xu%NULL%1,                           Qiao-Dan%Lu%NULL%1,                           Hui%Wang%NULL%1,                           Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,                           Yingying%Chen%NULL%1,                           Yixiong%Zheng%NULL%1,                           Ciping%You%NULL%1,                           Jing%Tan%NULL%1,                           Lan%Hu%NULL%1,                           Zhenqing%Zhang%NULL%1,                           Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,                           Wen%Li%NULL%0,                           Hai-Bao%Deng%NULL%1,                           Lei%Wang%NULL%0,                           Ying%Wang%NULL%0,                           Pei-Hong%Wang%NULL%1,                           Hai-Xin%Bo%NULL%0,                           Jing%Cao%NULL%0,                           Yu%Wang%NULL%0,                           Li-Yun%Zhu%NULL%0,                           Yuan%Yang%NULL%0,                           Teris%Cheung%NULL%0,                           Chee H.%Ng%NULL%1,                           Xinjuan%Wu%wuxinjuan@sina.com%0,                           Yu-Tao%Xiang%xyutly@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,                           Zhen%Yang%NULL%1,                           Xiao%Wang%NULL%0,                           Juan%Li%NULL%2,                           Lili%Dong%NULL%2,                           Lili%Dong%NULL%0,                           Fusheng%Wang%NULL%1,                           Yifei%Li%NULL%1,                           Ruihong%Wei%NULL%1,                           Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>Mental health status of patients with coronavirus disease 2019 in Changsha.</t>
+  </si>
+  <si>
+    <t>OBJECTIVES The epidemic of coronavirus disease 2019 (COVID-19) brought psychological stress to the public, especially to patients. This study aims to investigate the mental health of patients with COVID-19 in Changsha. METHODS We took cross-section investigation for the mental health of 112 patients with COVID-19 via questionnaires. Mann-Whitney U test, Chi-square test, and Fisher's exact test were performed to compare general and clinical data between the slight-ordinary patients and severe patients. Single sample t-tests were used to compare the difference between the factor scores of the Symptom Check-List 90 (SCL-90) in COVID-19 patients with the norm of 2015 and factor scores of SCL-90 in patients with the severe acute respiratory syndrome (SARS). RESULTS The obsessive-compulsive, depression, sleep and eating disorders had the highest frequency among the positive symptoms of SCL-90 in patients with COVID-19 in Changsha. The factor scores of somatization, depression, anxiety, phobia anxiety, sleep and eating disorders in patients with COVID-19 were higher than those of the norm (P≤0.001 or P&lt;0.05). Slight-ordinary patients with COVID-19 in Changsha showed lower factor scores of somatization, depression, anxiety, and hostility compared with the patients with SARS (P&lt;0.001 or P&lt;0.05). There was no difference in factor scores of SCL-90 between the patients with severe COVID-19 and those with SARS(P&gt;0.05). CONCLUSIONS The levels of somatization, depression, anxiety, phobia anxiety, sleep and eating disorders in patients with COVID-19 in Changsha are higher than those of the norm. However, the mental health of slight-ordinary patients with COVID-19 is better than that of patients with SARS. It needs to provide targeting psychological interventions depending on the severity of patients.</t>
+  </si>
+  <si>
+    <t>[ Xuemei%Qin%elasticNoEmail%1,  Kongliang% Shu%elasticNoEmail%1,  Mi% Wang%elasticNoEmail%1,  Wentao% Chen%elasticNoEmail%1,  Mei% Huang%elasticNoEmail%1,  Aiping% Yang%elasticNoEmail%1,  Yun% Zhou%elasticNoEmail%1,  Yan% Zhang%elasticNoEmail%1,  Yumeng% Ju%elasticNoEmail%1,  Jiyang% Liu%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>ELASTIC</t>
+  </si>
+  <si>
+    <t>2020-06-28</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0,                            Wei%Chen%NULL%0,                            Saiduo%Liu%NULL%0,                            Paul M.%Thompson%NULL%0,                            Long Jiang%Zhang%NULL%0,                            Fei%Xia%NULL%0,                            Fang%Cheng%NULL%0,                            Ailing%Hong%NULL%0,                            Wesley%Surento%NULL%0,                            Song%Luo%NULL%0,                            Zhi Yuan%Sun%NULL%0,                            Chang Sheng%Zhou%NULL%0,                            Lingjiang%Li%NULL%0,                            Xiangao%Jiang%NULL%0,                            Guang Ming%Lu%NULL%0,                             R.%Qi%null%0,                             W.% Chen%null%0,                             S.% Liu%null%0,                             P. M.% Thompson%null%0,                             L. J.% Zhang%null%0,                             F.% Xia%null%0,                             F.% Cheng%null%0,                             A.% Hong%null%0,                             W.% Surento%null%0,                             S.% Luo%null%0,                             Z. Y.% Sun%null%0,                             C. S.% Zhou%null%0,                             L.% Li%null%0,                             X.% Jiang%null%0,                             G. M. % Lu%null%0,                         R.%Qi%null%1,                         W.% Chen%null%1,                         S.% Liu%null%1,                         P. M.% Thompson%null%1,                         L. J.% Zhang%null%1,                         F.% Xia%null%1,                         F.% Cheng%null%1,                         A.% Hong%null%1,                         W.% Surento%null%1,                         S.% Luo%null%1,                         Z. Y.% Sun%null%1,                         C. S.% Zhou%null%1,                         L.% Li%null%1,                         X.% Jiang%null%1,                         G. M. % Lu%null%1,         R.%Qi%null%0,         W.% Chen%null%0,         S.% Liu%null%0,         P. M.% Thompson%null%0,         L. J.% Zhang%null%0,         F.% Xia%null%0,         F.% Cheng%null%0,         A.% Hong%null%0,         W.% Surento%null%0,         S.% Luo%null%0,         Z. Y.% Sun%null%0,         C. S.% Zhou%null%0,         L.% Li%null%0,         X.% Jiang%null%0,         G. M. % Lu%null%0]</t>
+  </si>
+  <si>
+    <t>[Ömer%Karadaş%NULL%1,                            Bilgin%Öztürk%Drbilgin@gmail.com%2,                            Bilgin%Öztürk%Drbilgin@gmail.com%0,                            Ali Rıza%Sonkaya%NULL%2,                            Ali Rıza%Sonkaya%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                            Mariangela%Pierantozzi%NULL%2,                            Matteo%Spanetta%NULL%2,                            Loredana%Sarmati%NULL%2,                            Novella%Cesta%NULL%2,                            Marco%Iannetta%NULL%2,                            Josuel%Ora%NULL%2,                            Grazia Genga%Mina%NULL%2,                            Ermanno%Puxeddu%NULL%2,                            Ottavia%Balbi%NULL%2,                            Gabriella%Pezzuto%NULL%2,                            Andrea%Magrini%NULL%2,                            Paola%Rogliani%NULL%2,                            Massimo%Andreoni%NULL%2,                            Nicola Biagio%Mercuri%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0,                            Mariangela%Pierantozzi%NULL%0,                            Matteo%Spanetta%NULL%0,                            Loredana%Sarmati%NULL%0,                            Novella%Cesta%NULL%0,                            Marco%Iannetta%NULL%0,                            Josuel%Ora%NULL%0,                            Grazia Genga%Mina%NULL%0,                            Ermanno%Puxeddu%NULL%0,                            Ottavia%Balbi%NULL%0,                            Gabriella%Pezzuto%NULL%0,                            Andrea%Magrini%NULL%0,                            Paola%Rogliani%NULL%0,                            Massimo%Andreoni%NULL%0,                            Nicola Biagio%Mercuri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qian%Guo%NULL%1,                            Yuchen%Zheng%NULL%1,                            Jia%Shi%NULL%1,                            Jijun%Wang%NULL%1,                            Guanjun%Li%NULL%1,                            Chunbo%Li%NULL%1,                            John A.%Fromson%NULL%1,                            Yong%Xu%NULL%1,                            Xiaohua%Liu%NULL%1,                            Hua%Xu%NULL%1,                            Tianhong%Zhang%NULL%1,                            Yunfei%Lu%NULL%0,                            Xiaorong%Chen%NULL%1,                            Hao%Hu%NULL%1,                            Yingying%Tang%NULL%1,                            Shuwen%Yang%NULL%1,                            Han%Zhou%NULL%1,                            Xiaoliang%Wang%NULL%1,                            Haiying%Chen%NULL%1,                            Zhen%Wang%NULL%1,                            Zongguo%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ X.%Kong%null%1,                             K.% Zheng%null%1,                             M.% Tang%null%1,                             F.% Kong%null%1,                             J.% Zhou%null%1,                             L.% Diao%null%1,                             S.% Wu%null%1,                             P.% Jiao%null%1,                             T.% Su%null%1,                             Y. % Dong%null%1,         X.%Kong%null%1,         K.% Zheng%null%1,         M.% Tang%null%1,         F.% Kong%null%1,         J.% Zhou%null%0,         L.% Diao%null%1,         S.% Wu%null%1,         P.% Jiao%null%1,         T.% Su%null%1,         Y. % Dong%null%1]</t>
+  </si>
+  <si>
+    <t>[Clara%Paz%clara.paz@udla.edu.ec%1,                            Guido%Mascialino%NULL%2,                            Guido%Mascialino%NULL%0,                            Lila%Adana‐Díaz%NULL%2,                            Lila%Adana‐Díaz%NULL%0,                            Alberto%Rodríguez‐Lorenzana%NULL%2,                            Alberto%Rodríguez‐Lorenzana%NULL%0,                            Katherine%Simbaña‐Rivera%NULL%2,                            Katherine%Simbaña‐Rivera%NULL%0,                            Lenin%Gómez‐Barreno%NULL%2,                            Lenin%Gómez‐Barreno%NULL%0,                            Maritza%Troya%NULL%2,                            Maritza%Troya%NULL%0,                            María Ignacia%Páez%NULL%2,                            María Ignacia%Páez%NULL%0,                            Javier%Cárdenas%NULL%2,                            Javier%Cárdenas%NULL%0,                            Rebekka M%Gerstner%NULL%2,                            Rebekka M%Gerstner%NULL%0,                            Esteban%Ortiz‐Prado%NULL%2,                            Esteban%Ortiz‐Prado%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%2,                            Huipeng%Lu%NULL%1,                            Haiping%Zeng%NULL%1,                            Shining%Zhang%NULL%1,                            Qifeng%Du%NULL%1,                            Tingyun%Jiang%NULL%1,                            Baoguo%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu%Wang%NULL%1,                            Li-Yun%Zhu%NULL%2,                            Yu-Fen%Ma%NULL%1,                            Hai-Xin%Bo%NULL%2,                            Hai-Bo%Deng%NULL%1,                            Jing%Cao%NULL%2,                            Ying%Wang%NULL%0,                            Xiao-Jie%Wang%NULL%1,                            Yuan%Xu%NULL%1,                            Qiao-Dan%Lu%NULL%1,                            Hui%Wang%NULL%1,                            Xin-Juan%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanyu%Hu%NULL%1,                            Yingying%Chen%NULL%1,                            Yixiong%Zheng%NULL%1,                            Ciping%You%NULL%1,                            Jing%Tan%NULL%1,                            Lan%Hu%NULL%1,                            Zhenqing%Zhang%NULL%1,                            Lijun%Ding%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Fen%Ma%NULL%1,                            Wen%Li%NULL%0,                            Hai-Bao%Deng%NULL%1,                            Lei%Wang%NULL%0,                            Ying%Wang%NULL%0,                            Pei-Hong%Wang%NULL%1,                            Hai-Xin%Bo%NULL%0,                            Jing%Cao%NULL%0,                            Yu%Wang%NULL%0,                            Li-Yun%Zhu%NULL%0,                            Yuan%Yang%NULL%0,                            Teris%Cheung%NULL%0,                            Chee H.%Ng%NULL%1,                            Xinjuan%Wu%wuxinjuan@sina.com%0,                            Yu-Tao%Xiang%xyutly@gmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Jie%Zhang%NULL%0,                            Zhen%Yang%NULL%1,                            Xiao%Wang%NULL%0,                            Juan%Li%NULL%2,                            Lili%Dong%NULL%2,                            Lili%Dong%NULL%0,                            Fusheng%Wang%NULL%1,                            Yifei%Li%NULL%1,                            Ruihong%Wei%NULL%1,                            Jingping%Zhang%jpzhang1965@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBJECTIVES The epidemic of coronavirus disease 2019 (COVID-19) brought psychological stress to the public, especially to patients.
+ This study aims to investigate the mental health of patients with COVID-19 in Changsha.
+ METHODS We took cross-section investigation for the mental health of 112 patients with COVID-19 via questionnaires.
+ Mann-Whitney U test, Chi-square test, and Fisher's exact test were performed to compare general and clinical data between the slight-ordinary patients and severe patients.
+ Single sample t-tests were used to compare the difference between the factor scores of the Symptom Check-List 90 (SCL-90) in COVID-19 patients with the norm of 2015 and factor scores of SCL-90 in patients with the severe acute respiratory syndrome (SARS).
+ RESULTS The obsessive-compulsive, depression, sleep and eating disorders had the highest frequency among the positive symptoms of SCL-90 in patients with COVID-19 in Changsha.
+ The factor scores of somatization, depression, anxiety, phobia anxiety, sleep and eating disorders in patients with COVID-19 were higher than those of the norm (P≤0.001 or P0.05).
+ CONCLUSIONS The levels of somatization, depression, anxiety, phobia anxiety, sleep and eating disorders in patients with COVID-19 in Changsha are higher than those of the norm.
+ However, the mental health of slight-ordinary patients with COVID-19 is better than that of patients with SARS.
+ It needs to provide targeting psychological interventions depending on the severity of patients.
+</t>
+  </si>
+  <si>
+    <t>[ Xuemei%Qin%elasticNoEmail%1,   Kongliang% Shu%elasticNoEmail%1,   Mi% Wang%elasticNoEmail%1,   Wentao% Chen%elasticNoEmail%1,   Mei% Huang%elasticNoEmail%1,   Aiping% Yang%elasticNoEmail%1,   Yun% Zhou%elasticNoEmail%1,   Yan% Zhang%elasticNoEmail%1,   Yumeng% Ju%elasticNoEmail%1,   Jiyang% Liu%elasticNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -1700,7 +1803,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1732,7 +1835,7 @@
         <v>231</v>
       </c>
       <c r="E3" t="s">
-        <v>405</v>
+        <v>434</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1764,7 +1867,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>406</v>
+        <v>435</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1796,7 +1899,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1828,7 +1931,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1860,7 +1963,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1924,7 +2027,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1956,7 +2059,7 @@
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1988,7 +2091,7 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>412</v>
+        <v>441</v>
       </c>
       <c r="F11" t="s">
         <v>67</v>
@@ -2020,7 +2123,7 @@
         <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -2052,7 +2155,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -2084,7 +2187,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -2110,22 +2213,22 @@
         <v>44010.0</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>428</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>445</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>446</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>431</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>432</v>
       </c>
       <c r="I15" t="s">
         <v>56</v>
@@ -2148,7 +2251,7 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
